--- a/astronomicalData/2012_sunrise-set_Durham_NC.xlsx
+++ b/astronomicalData/2012_sunrise-set_Durham_NC.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonesg5\Documents\GitHub\Lemurs\celestialData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonesg5\Documents\GitHub\Lemurs\astronomicalData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18210" windowHeight="9660" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18210" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="2012_sunrise-set_Durham_NC" sheetId="2" r:id="rId1"/>
@@ -981,8 +981,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="170" formatCode="h:mm;@"/>
-    <numFmt numFmtId="171" formatCode="m/d/yy\ h:mm;@"/>
+    <numFmt numFmtId="164" formatCode="h:mm;@"/>
+    <numFmt numFmtId="165" formatCode="m/d/yy\ h:mm;@"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -1469,22 +1469,22 @@
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1808,7 +1808,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y38"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A3" sqref="A3:Y3"/>
     </sheetView>
   </sheetViews>
@@ -1819,120 +1819,120 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
-      <c r="T1" s="8"/>
-      <c r="U1" s="8"/>
-      <c r="V1" s="8"/>
-      <c r="W1" s="8"/>
-      <c r="X1" s="8"/>
-      <c r="Y1" s="8"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+      <c r="T1" s="10"/>
+      <c r="U1" s="10"/>
+      <c r="V1" s="10"/>
+      <c r="W1" s="10"/>
+      <c r="X1" s="10"/>
+      <c r="Y1" s="10"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8"/>
-      <c r="T2" s="8"/>
-      <c r="U2" s="8"/>
-      <c r="V2" s="8"/>
-      <c r="W2" s="8"/>
-      <c r="X2" s="8"/>
-      <c r="Y2" s="8"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
+      <c r="T2" s="10"/>
+      <c r="U2" s="10"/>
+      <c r="V2" s="10"/>
+      <c r="W2" s="10"/>
+      <c r="X2" s="10"/>
+      <c r="Y2" s="10"/>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
-      <c r="S3" s="8"/>
-      <c r="T3" s="8"/>
-      <c r="U3" s="8"/>
-      <c r="V3" s="8"/>
-      <c r="W3" s="8"/>
-      <c r="X3" s="8"/>
-      <c r="Y3" s="8"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
+      <c r="V3" s="10"/>
+      <c r="W3" s="10"/>
+      <c r="X3" s="10"/>
+      <c r="Y3" s="10"/>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="8"/>
-      <c r="T4" s="8"/>
-      <c r="U4" s="8"/>
-      <c r="V4" s="8"/>
-      <c r="W4" s="8"/>
-      <c r="X4" s="8"/>
-      <c r="Y4" s="8"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="10"/>
+      <c r="U4" s="10"/>
+      <c r="V4" s="10"/>
+      <c r="W4" s="10"/>
+      <c r="X4" s="10"/>
+      <c r="Y4" s="10"/>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
@@ -4576,120 +4576,120 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
-      <c r="T1" s="8"/>
-      <c r="U1" s="8"/>
-      <c r="V1" s="8"/>
-      <c r="W1" s="8"/>
-      <c r="X1" s="8"/>
-      <c r="Y1" s="8"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+      <c r="T1" s="10"/>
+      <c r="U1" s="10"/>
+      <c r="V1" s="10"/>
+      <c r="W1" s="10"/>
+      <c r="X1" s="10"/>
+      <c r="Y1" s="10"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8"/>
-      <c r="T2" s="8"/>
-      <c r="U2" s="8"/>
-      <c r="V2" s="8"/>
-      <c r="W2" s="8"/>
-      <c r="X2" s="8"/>
-      <c r="Y2" s="8"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
+      <c r="T2" s="10"/>
+      <c r="U2" s="10"/>
+      <c r="V2" s="10"/>
+      <c r="W2" s="10"/>
+      <c r="X2" s="10"/>
+      <c r="Y2" s="10"/>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
-      <c r="S3" s="8"/>
-      <c r="T3" s="8"/>
-      <c r="U3" s="8"/>
-      <c r="V3" s="8"/>
-      <c r="W3" s="8"/>
-      <c r="X3" s="8"/>
-      <c r="Y3" s="8"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
+      <c r="V3" s="10"/>
+      <c r="W3" s="10"/>
+      <c r="X3" s="10"/>
+      <c r="Y3" s="10"/>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="8"/>
-      <c r="T4" s="8"/>
-      <c r="U4" s="8"/>
-      <c r="V4" s="8"/>
-      <c r="W4" s="8"/>
-      <c r="X4" s="8"/>
-      <c r="Y4" s="8"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="10"/>
+      <c r="U4" s="10"/>
+      <c r="V4" s="10"/>
+      <c r="W4" s="10"/>
+      <c r="X4" s="10"/>
+      <c r="Y4" s="10"/>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
@@ -13968,3710 +13968,3710 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" style="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="11" t="s">
         <v>314</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="10">
+      <c r="A6" s="9">
         <f>DATE(2012,Sheet2!$A6,Sheet2!$B6)+Sheet2!C6</f>
         <v>40909.29583333333</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="9">
         <f>DATE(2012,Sheet2!$A6,Sheet2!$B6)+Sheet2!D6</f>
         <v>40909.709722222222</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="10">
+      <c r="A7" s="9">
         <f>DATE(2012,Sheet2!$A7,Sheet2!$B7)+Sheet2!C7</f>
         <v>40910.29583333333</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="9">
         <f>DATE(2012,Sheet2!$A7,Sheet2!$B7)+Sheet2!D7</f>
         <v>40910.710416666669</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="10">
+      <c r="A8" s="9">
         <f>DATE(2012,Sheet2!$A8,Sheet2!$B8)+Sheet2!C8</f>
         <v>40911.296527777777</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="9">
         <f>DATE(2012,Sheet2!$A8,Sheet2!$B8)+Sheet2!D8</f>
         <v>40911.711111111108</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="10">
+      <c r="A9" s="9">
         <f>DATE(2012,Sheet2!$A9,Sheet2!$B9)+Sheet2!C9</f>
         <v>40912.296527777777</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="9">
         <f>DATE(2012,Sheet2!$A9,Sheet2!$B9)+Sheet2!D9</f>
         <v>40912.711111111108</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="10">
+      <c r="A10" s="9">
         <f>DATE(2012,Sheet2!$A10,Sheet2!$B10)+Sheet2!C10</f>
         <v>40913.296527777777</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10" s="9">
         <f>DATE(2012,Sheet2!$A10,Sheet2!$B10)+Sheet2!D10</f>
         <v>40913.711805555555</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="10">
+      <c r="A11" s="9">
         <f>DATE(2012,Sheet2!$A11,Sheet2!$B11)+Sheet2!C11</f>
         <v>40914.296527777777</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B11" s="9">
         <f>DATE(2012,Sheet2!$A11,Sheet2!$B11)+Sheet2!D11</f>
         <v>40914.712500000001</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="10">
+      <c r="A12" s="9">
         <f>DATE(2012,Sheet2!$A12,Sheet2!$B12)+Sheet2!C12</f>
         <v>40915.296527777777</v>
       </c>
-      <c r="B12" s="10">
+      <c r="B12" s="9">
         <f>DATE(2012,Sheet2!$A12,Sheet2!$B12)+Sheet2!D12</f>
         <v>40915.713194444441</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="10">
+      <c r="A13" s="9">
         <f>DATE(2012,Sheet2!$A13,Sheet2!$B13)+Sheet2!C13</f>
         <v>40916.296527777777</v>
       </c>
-      <c r="B13" s="10">
+      <c r="B13" s="9">
         <f>DATE(2012,Sheet2!$A13,Sheet2!$B13)+Sheet2!D13</f>
         <v>40916.713888888888</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="10">
+      <c r="A14" s="9">
         <f>DATE(2012,Sheet2!$A14,Sheet2!$B14)+Sheet2!C14</f>
         <v>40917.296527777777</v>
       </c>
-      <c r="B14" s="10">
+      <c r="B14" s="9">
         <f>DATE(2012,Sheet2!$A14,Sheet2!$B14)+Sheet2!D14</f>
         <v>40917.714583333334</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="10">
+      <c r="A15" s="9">
         <f>DATE(2012,Sheet2!$A15,Sheet2!$B15)+Sheet2!C15</f>
         <v>40918.296527777777</v>
       </c>
-      <c r="B15" s="10">
+      <c r="B15" s="9">
         <f>DATE(2012,Sheet2!$A15,Sheet2!$B15)+Sheet2!D15</f>
         <v>40918.708333333336</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="10">
+      <c r="A16" s="9">
         <f>DATE(2012,Sheet2!$A16,Sheet2!$B16)+Sheet2!C16</f>
         <v>40919.29583333333</v>
       </c>
-      <c r="B16" s="10">
+      <c r="B16" s="9">
         <f>DATE(2012,Sheet2!$A16,Sheet2!$B16)+Sheet2!D16</f>
         <v>40919.709027777775</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="10">
+      <c r="A17" s="9">
         <f>DATE(2012,Sheet2!$A17,Sheet2!$B17)+Sheet2!C17</f>
         <v>40920.29583333333</v>
       </c>
-      <c r="B17" s="10">
+      <c r="B17" s="9">
         <f>DATE(2012,Sheet2!$A17,Sheet2!$B17)+Sheet2!D17</f>
         <v>40920.709722222222</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="10">
+      <c r="A18" s="9">
         <f>DATE(2012,Sheet2!$A18,Sheet2!$B18)+Sheet2!C18</f>
         <v>40921.29583333333</v>
       </c>
-      <c r="B18" s="10">
+      <c r="B18" s="9">
         <f>DATE(2012,Sheet2!$A18,Sheet2!$B18)+Sheet2!D18</f>
         <v>40921.710416666669</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="10">
+      <c r="A19" s="9">
         <f>DATE(2012,Sheet2!$A19,Sheet2!$B19)+Sheet2!C19</f>
         <v>40922.29583333333</v>
       </c>
-      <c r="B19" s="10">
+      <c r="B19" s="9">
         <f>DATE(2012,Sheet2!$A19,Sheet2!$B19)+Sheet2!D19</f>
         <v>40922.711111111108</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="10">
+      <c r="A20" s="9">
         <f>DATE(2012,Sheet2!$A20,Sheet2!$B20)+Sheet2!C20</f>
         <v>40923.29583333333</v>
       </c>
-      <c r="B20" s="10">
+      <c r="B20" s="9">
         <f>DATE(2012,Sheet2!$A20,Sheet2!$B20)+Sheet2!D20</f>
         <v>40923.711111111108</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="10">
+      <c r="A21" s="9">
         <f>DATE(2012,Sheet2!$A21,Sheet2!$B21)+Sheet2!C21</f>
         <v>40924.295138888891</v>
       </c>
-      <c r="B21" s="10">
+      <c r="B21" s="9">
         <f>DATE(2012,Sheet2!$A21,Sheet2!$B21)+Sheet2!D21</f>
         <v>40924.711805555555</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="10">
+      <c r="A22" s="9">
         <f>DATE(2012,Sheet2!$A22,Sheet2!$B22)+Sheet2!C22</f>
         <v>40925.295138888891</v>
       </c>
-      <c r="B22" s="10">
+      <c r="B22" s="9">
         <f>DATE(2012,Sheet2!$A22,Sheet2!$B22)+Sheet2!D22</f>
         <v>40925.712500000001</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="10">
+      <c r="A23" s="9">
         <f>DATE(2012,Sheet2!$A23,Sheet2!$B23)+Sheet2!C23</f>
         <v>40926.295138888891</v>
       </c>
-      <c r="B23" s="10">
+      <c r="B23" s="9">
         <f>DATE(2012,Sheet2!$A23,Sheet2!$B23)+Sheet2!D23</f>
         <v>40926.713194444441</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="10">
+      <c r="A24" s="9">
         <f>DATE(2012,Sheet2!$A24,Sheet2!$B24)+Sheet2!C24</f>
         <v>40927.294444444444</v>
       </c>
-      <c r="B24" s="10">
+      <c r="B24" s="9">
         <f>DATE(2012,Sheet2!$A24,Sheet2!$B24)+Sheet2!D24</f>
         <v>40927.714583333334</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="10">
+      <c r="A25" s="9">
         <f>DATE(2012,Sheet2!$A25,Sheet2!$B25)+Sheet2!C25</f>
         <v>40928.294444444444</v>
       </c>
-      <c r="B25" s="10">
+      <c r="B25" s="9">
         <f>DATE(2012,Sheet2!$A25,Sheet2!$B25)+Sheet2!D25</f>
         <v>40928.708333333336</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="10">
+      <c r="A26" s="9">
         <f>DATE(2012,Sheet2!$A26,Sheet2!$B26)+Sheet2!C26</f>
         <v>40929.293749999997</v>
       </c>
-      <c r="B26" s="10">
+      <c r="B26" s="9">
         <f>DATE(2012,Sheet2!$A26,Sheet2!$B26)+Sheet2!D26</f>
         <v>40929.709027777775</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="10">
+      <c r="A27" s="9">
         <f>DATE(2012,Sheet2!$A27,Sheet2!$B27)+Sheet2!C27</f>
         <v>40930.293749999997</v>
       </c>
-      <c r="B27" s="10">
+      <c r="B27" s="9">
         <f>DATE(2012,Sheet2!$A27,Sheet2!$B27)+Sheet2!D27</f>
         <v>40930.709722222222</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="10">
+      <c r="A28" s="9">
         <f>DATE(2012,Sheet2!$A28,Sheet2!$B28)+Sheet2!C28</f>
         <v>40931.293055555558</v>
       </c>
-      <c r="B28" s="10">
+      <c r="B28" s="9">
         <f>DATE(2012,Sheet2!$A28,Sheet2!$B28)+Sheet2!D28</f>
         <v>40931.710416666669</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="10">
+      <c r="A29" s="9">
         <f>DATE(2012,Sheet2!$A29,Sheet2!$B29)+Sheet2!C29</f>
         <v>40932.293055555558</v>
       </c>
-      <c r="B29" s="10">
+      <c r="B29" s="9">
         <f>DATE(2012,Sheet2!$A29,Sheet2!$B29)+Sheet2!D29</f>
         <v>40932.711111111108</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="10">
+      <c r="A30" s="9">
         <f>DATE(2012,Sheet2!$A30,Sheet2!$B30)+Sheet2!C30</f>
         <v>40933.292361111111</v>
       </c>
-      <c r="B30" s="10">
+      <c r="B30" s="9">
         <f>DATE(2012,Sheet2!$A30,Sheet2!$B30)+Sheet2!D30</f>
         <v>40933.711805555555</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="10">
+      <c r="A31" s="9">
         <f>DATE(2012,Sheet2!$A31,Sheet2!$B31)+Sheet2!C31</f>
         <v>40934.292361111111</v>
       </c>
-      <c r="B31" s="10">
+      <c r="B31" s="9">
         <f>DATE(2012,Sheet2!$A31,Sheet2!$B31)+Sheet2!D31</f>
         <v>40934.712500000001</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="10">
+      <c r="A32" s="9">
         <f>DATE(2012,Sheet2!$A32,Sheet2!$B32)+Sheet2!C32</f>
         <v>40935.291666666664</v>
       </c>
-      <c r="B32" s="10">
+      <c r="B32" s="9">
         <f>DATE(2012,Sheet2!$A32,Sheet2!$B32)+Sheet2!D32</f>
         <v>40935.713194444441</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="10">
+      <c r="A33" s="9">
         <f>DATE(2012,Sheet2!$A33,Sheet2!$B33)+Sheet2!C33</f>
         <v>40936.291666666664</v>
       </c>
-      <c r="B33" s="10">
+      <c r="B33" s="9">
         <f>DATE(2012,Sheet2!$A33,Sheet2!$B33)+Sheet2!D33</f>
         <v>40936.713888888888</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="10">
+      <c r="A34" s="9">
         <f>DATE(2012,Sheet2!$A34,Sheet2!$B34)+Sheet2!C34</f>
         <v>40937.29791666667</v>
       </c>
-      <c r="B34" s="10">
+      <c r="B34" s="9">
         <f>DATE(2012,Sheet2!$A34,Sheet2!$B34)+Sheet2!D34</f>
         <v>40937.714583333334</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="10">
+      <c r="A35" s="9">
         <f>DATE(2012,Sheet2!$A35,Sheet2!$B35)+Sheet2!C35</f>
         <v>40938.297222222223</v>
       </c>
-      <c r="B35" s="10">
+      <c r="B35" s="9">
         <f>DATE(2012,Sheet2!$A35,Sheet2!$B35)+Sheet2!D35</f>
         <v>40938.708333333336</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="10">
+      <c r="A36" s="9">
         <f>DATE(2012,Sheet2!$A36,Sheet2!$B36)+Sheet2!C36</f>
         <v>40939.296527777777</v>
       </c>
-      <c r="B36" s="10">
+      <c r="B36" s="9">
         <f>DATE(2012,Sheet2!$A36,Sheet2!$B36)+Sheet2!D36</f>
         <v>40939.709027777775</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="10">
+      <c r="A37" s="9">
         <f>DATE(2012,Sheet2!$A37,Sheet2!$B37)+Sheet2!C37</f>
         <v>40940.296527777777</v>
       </c>
-      <c r="B37" s="10">
+      <c r="B37" s="9">
         <f>DATE(2012,Sheet2!$A37,Sheet2!$B37)+Sheet2!D37</f>
         <v>40940.709722222222</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="10">
+      <c r="A38" s="9">
         <f>DATE(2012,Sheet2!$A38,Sheet2!$B38)+Sheet2!C38</f>
         <v>40941.29583333333</v>
       </c>
-      <c r="B38" s="10">
+      <c r="B38" s="9">
         <f>DATE(2012,Sheet2!$A38,Sheet2!$B38)+Sheet2!D38</f>
         <v>40941.710416666669</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="10">
+      <c r="A39" s="9">
         <f>DATE(2012,Sheet2!$A39,Sheet2!$B39)+Sheet2!C39</f>
         <v>40942.295138888891</v>
       </c>
-      <c r="B39" s="10">
+      <c r="B39" s="9">
         <f>DATE(2012,Sheet2!$A39,Sheet2!$B39)+Sheet2!D39</f>
         <v>40942.711111111108</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="10">
+      <c r="A40" s="9">
         <f>DATE(2012,Sheet2!$A40,Sheet2!$B40)+Sheet2!C40</f>
         <v>40943.294444444444</v>
       </c>
-      <c r="B40" s="10">
+      <c r="B40" s="9">
         <f>DATE(2012,Sheet2!$A40,Sheet2!$B40)+Sheet2!D40</f>
         <v>40943.711805555555</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="10">
+      <c r="A41" s="9">
         <f>DATE(2012,Sheet2!$A41,Sheet2!$B41)+Sheet2!C41</f>
         <v>40944.293749999997</v>
       </c>
-      <c r="B41" s="10">
+      <c r="B41" s="9">
         <f>DATE(2012,Sheet2!$A41,Sheet2!$B41)+Sheet2!D41</f>
         <v>40944.712500000001</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="10">
+      <c r="A42" s="9">
         <f>DATE(2012,Sheet2!$A42,Sheet2!$B42)+Sheet2!C42</f>
         <v>40945.293055555558</v>
       </c>
-      <c r="B42" s="10">
+      <c r="B42" s="9">
         <f>DATE(2012,Sheet2!$A42,Sheet2!$B42)+Sheet2!D42</f>
         <v>40945.713194444441</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="10">
+      <c r="A43" s="9">
         <f>DATE(2012,Sheet2!$A43,Sheet2!$B43)+Sheet2!C43</f>
         <v>40946.293055555558</v>
       </c>
-      <c r="B43" s="10">
+      <c r="B43" s="9">
         <f>DATE(2012,Sheet2!$A43,Sheet2!$B43)+Sheet2!D43</f>
         <v>40946.713888888888</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="10">
+      <c r="A44" s="9">
         <f>DATE(2012,Sheet2!$A44,Sheet2!$B44)+Sheet2!C44</f>
         <v>40947.292361111111</v>
       </c>
-      <c r="B44" s="10">
+      <c r="B44" s="9">
         <f>DATE(2012,Sheet2!$A44,Sheet2!$B44)+Sheet2!D44</f>
         <v>40947.714583333334</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="10">
+      <c r="A45" s="9">
         <f>DATE(2012,Sheet2!$A45,Sheet2!$B45)+Sheet2!C45</f>
         <v>40948.291666666664</v>
       </c>
-      <c r="B45" s="10">
+      <c r="B45" s="9">
         <f>DATE(2012,Sheet2!$A45,Sheet2!$B45)+Sheet2!D45</f>
         <v>40948.708333333336</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="10">
+      <c r="A46" s="9">
         <f>DATE(2012,Sheet2!$A46,Sheet2!$B46)+Sheet2!C46</f>
         <v>40949.29791666667</v>
       </c>
-      <c r="B46" s="10">
+      <c r="B46" s="9">
         <f>DATE(2012,Sheet2!$A46,Sheet2!$B46)+Sheet2!D46</f>
         <v>40949.709027777775</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="10">
+      <c r="A47" s="9">
         <f>DATE(2012,Sheet2!$A47,Sheet2!$B47)+Sheet2!C47</f>
         <v>40950.297222222223</v>
       </c>
-      <c r="B47" s="10">
+      <c r="B47" s="9">
         <f>DATE(2012,Sheet2!$A47,Sheet2!$B47)+Sheet2!D47</f>
         <v>40950.710416666669</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="10">
+      <c r="A48" s="9">
         <f>DATE(2012,Sheet2!$A48,Sheet2!$B48)+Sheet2!C48</f>
         <v>40951.296527777777</v>
       </c>
-      <c r="B48" s="10">
+      <c r="B48" s="9">
         <f>DATE(2012,Sheet2!$A48,Sheet2!$B48)+Sheet2!D48</f>
         <v>40951.711111111108</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="10">
+      <c r="A49" s="9">
         <f>DATE(2012,Sheet2!$A49,Sheet2!$B49)+Sheet2!C49</f>
         <v>40952.29583333333</v>
       </c>
-      <c r="B49" s="10">
+      <c r="B49" s="9">
         <f>DATE(2012,Sheet2!$A49,Sheet2!$B49)+Sheet2!D49</f>
         <v>40952.711805555555</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="10">
+      <c r="A50" s="9">
         <f>DATE(2012,Sheet2!$A50,Sheet2!$B50)+Sheet2!C50</f>
         <v>40953.295138888891</v>
       </c>
-      <c r="B50" s="10">
+      <c r="B50" s="9">
         <f>DATE(2012,Sheet2!$A50,Sheet2!$B50)+Sheet2!D50</f>
         <v>40953.712500000001</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="10">
+      <c r="A51" s="9">
         <f>DATE(2012,Sheet2!$A51,Sheet2!$B51)+Sheet2!C51</f>
         <v>40954.293749999997</v>
       </c>
-      <c r="B51" s="10">
+      <c r="B51" s="9">
         <f>DATE(2012,Sheet2!$A51,Sheet2!$B51)+Sheet2!D51</f>
         <v>40954.713194444441</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="10">
+      <c r="A52" s="9">
         <f>DATE(2012,Sheet2!$A52,Sheet2!$B52)+Sheet2!C52</f>
         <v>40955.293055555558</v>
       </c>
-      <c r="B52" s="10">
+      <c r="B52" s="9">
         <f>DATE(2012,Sheet2!$A52,Sheet2!$B52)+Sheet2!D52</f>
         <v>40955.713888888888</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="10">
+      <c r="A53" s="9">
         <f>DATE(2012,Sheet2!$A53,Sheet2!$B53)+Sheet2!C53</f>
         <v>40956.292361111111</v>
       </c>
-      <c r="B53" s="10">
+      <c r="B53" s="9">
         <f>DATE(2012,Sheet2!$A53,Sheet2!$B53)+Sheet2!D53</f>
         <v>40956.714583333334</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="10">
+      <c r="A54" s="9">
         <f>DATE(2012,Sheet2!$A54,Sheet2!$B54)+Sheet2!C54</f>
         <v>40957.291666666664</v>
       </c>
-      <c r="B54" s="10">
+      <c r="B54" s="9">
         <f>DATE(2012,Sheet2!$A54,Sheet2!$B54)+Sheet2!D54</f>
         <v>40957.75</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="10">
+      <c r="A55" s="9">
         <f>DATE(2012,Sheet2!$A55,Sheet2!$B55)+Sheet2!C55</f>
         <v>40958.256249999999</v>
       </c>
-      <c r="B55" s="10">
+      <c r="B55" s="9">
         <f>DATE(2012,Sheet2!$A55,Sheet2!$B55)+Sheet2!D55</f>
         <v>40958.750694444447</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="10">
+      <c r="A56" s="9">
         <f>DATE(2012,Sheet2!$A56,Sheet2!$B56)+Sheet2!C56</f>
         <v>40959.255555555559</v>
       </c>
-      <c r="B56" s="10">
+      <c r="B56" s="9">
         <f>DATE(2012,Sheet2!$A56,Sheet2!$B56)+Sheet2!D56</f>
         <v>40959.751388888886</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="10">
+      <c r="A57" s="9">
         <f>DATE(2012,Sheet2!$A57,Sheet2!$B57)+Sheet2!C57</f>
         <v>40960.254861111112</v>
       </c>
-      <c r="B57" s="10">
+      <c r="B57" s="9">
         <f>DATE(2012,Sheet2!$A57,Sheet2!$B57)+Sheet2!D57</f>
         <v>40960.752083333333</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="10">
+      <c r="A58" s="9">
         <f>DATE(2012,Sheet2!$A58,Sheet2!$B58)+Sheet2!C58</f>
         <v>40961.253472222219</v>
       </c>
-      <c r="B58" s="10">
+      <c r="B58" s="9">
         <f>DATE(2012,Sheet2!$A58,Sheet2!$B58)+Sheet2!D58</f>
         <v>40961.752083333333</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="10">
+      <c r="A59" s="9">
         <f>DATE(2012,Sheet2!$A59,Sheet2!$B59)+Sheet2!C59</f>
         <v>40962.25277777778</v>
       </c>
-      <c r="B59" s="10">
+      <c r="B59" s="9">
         <f>DATE(2012,Sheet2!$A59,Sheet2!$B59)+Sheet2!D59</f>
         <v>40962.75277777778</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="10">
+      <c r="A60" s="9">
         <f>DATE(2012,Sheet2!$A60,Sheet2!$B60)+Sheet2!C60</f>
         <v>40963.252083333333</v>
       </c>
-      <c r="B60" s="10">
+      <c r="B60" s="9">
         <f>DATE(2012,Sheet2!$A60,Sheet2!$B60)+Sheet2!D60</f>
         <v>40963.753472222219</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="10">
+      <c r="A61" s="9">
         <f>DATE(2012,Sheet2!$A61,Sheet2!$B61)+Sheet2!C61</f>
         <v>40964.251388888886</v>
       </c>
-      <c r="B61" s="10">
+      <c r="B61" s="9">
         <f>DATE(2012,Sheet2!$A61,Sheet2!$B61)+Sheet2!D61</f>
         <v>40964.754166666666</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="10">
+      <c r="A62" s="9">
         <f>DATE(2012,Sheet2!$A62,Sheet2!$B62)+Sheet2!C62</f>
         <v>40965.25</v>
       </c>
-      <c r="B62" s="10">
+      <c r="B62" s="9">
         <f>DATE(2012,Sheet2!$A62,Sheet2!$B62)+Sheet2!D62</f>
         <v>40965.754861111112</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="10">
+      <c r="A63" s="9">
         <f>DATE(2012,Sheet2!$A63,Sheet2!$B63)+Sheet2!C63</f>
         <v>40966.256249999999</v>
       </c>
-      <c r="B63" s="10">
+      <c r="B63" s="9">
         <f>DATE(2012,Sheet2!$A63,Sheet2!$B63)+Sheet2!D63</f>
         <v>40966.755555555559</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="10">
+      <c r="A64" s="9">
         <f>DATE(2012,Sheet2!$A64,Sheet2!$B64)+Sheet2!C64</f>
         <v>40967.255555555559</v>
       </c>
-      <c r="B64" s="10">
+      <c r="B64" s="9">
         <f>DATE(2012,Sheet2!$A64,Sheet2!$B64)+Sheet2!D64</f>
         <v>40967.756249999999</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="10">
+      <c r="A65" s="9">
         <f>DATE(2012,Sheet2!$A65,Sheet2!$B65)+Sheet2!C65</f>
         <v>40968.254166666666</v>
       </c>
-      <c r="B65" s="10">
+      <c r="B65" s="9">
         <f>DATE(2012,Sheet2!$A65,Sheet2!$B65)+Sheet2!D65</f>
         <v>40968.75</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="10">
+      <c r="A66" s="9">
         <f>DATE(2012,Sheet2!$A66,Sheet2!$B66)+Sheet2!C66</f>
         <v>40969.253472222219</v>
       </c>
-      <c r="B66" s="10">
+      <c r="B66" s="9">
         <f>DATE(2012,Sheet2!$A66,Sheet2!$B66)+Sheet2!D66</f>
         <v>40969.750694444447</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="10">
+      <c r="A67" s="9">
         <f>DATE(2012,Sheet2!$A67,Sheet2!$B67)+Sheet2!C67</f>
         <v>40970.25277777778</v>
       </c>
-      <c r="B67" s="10">
+      <c r="B67" s="9">
         <f>DATE(2012,Sheet2!$A67,Sheet2!$B67)+Sheet2!D67</f>
         <v>40970.751388888886</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="10">
+      <c r="A68" s="9">
         <f>DATE(2012,Sheet2!$A68,Sheet2!$B68)+Sheet2!C68</f>
         <v>40971.252083333333</v>
       </c>
-      <c r="B68" s="10">
+      <c r="B68" s="9">
         <f>DATE(2012,Sheet2!$A68,Sheet2!$B68)+Sheet2!D68</f>
         <v>40971.752083333333</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="10">
+      <c r="A69" s="9">
         <f>DATE(2012,Sheet2!$A69,Sheet2!$B69)+Sheet2!C69</f>
         <v>40972.250694444447</v>
       </c>
-      <c r="B69" s="10">
+      <c r="B69" s="9">
         <f>DATE(2012,Sheet2!$A69,Sheet2!$B69)+Sheet2!D69</f>
         <v>40972.75277777778</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="10">
+      <c r="A70" s="9">
         <f>DATE(2012,Sheet2!$A70,Sheet2!$B70)+Sheet2!C70</f>
         <v>40973.25</v>
       </c>
-      <c r="B70" s="10">
+      <c r="B70" s="9">
         <f>DATE(2012,Sheet2!$A70,Sheet2!$B70)+Sheet2!D70</f>
         <v>40973.753472222219</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="10">
+      <c r="A71" s="9">
         <f>DATE(2012,Sheet2!$A71,Sheet2!$B71)+Sheet2!C71</f>
         <v>40974.255555555559</v>
       </c>
-      <c r="B71" s="10">
+      <c r="B71" s="9">
         <f>DATE(2012,Sheet2!$A71,Sheet2!$B71)+Sheet2!D71</f>
         <v>40974.754166666666</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="10">
+      <c r="A72" s="9">
         <f>DATE(2012,Sheet2!$A72,Sheet2!$B72)+Sheet2!C72</f>
         <v>40975.254861111112</v>
       </c>
-      <c r="B72" s="10">
+      <c r="B72" s="9">
         <f>DATE(2012,Sheet2!$A72,Sheet2!$B72)+Sheet2!D72</f>
         <v>40975.754861111112</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="10">
+      <c r="A73" s="9">
         <f>DATE(2012,Sheet2!$A73,Sheet2!$B73)+Sheet2!C73</f>
         <v>40976.254166666666</v>
       </c>
-      <c r="B73" s="10">
+      <c r="B73" s="9">
         <f>DATE(2012,Sheet2!$A73,Sheet2!$B73)+Sheet2!D73</f>
         <v>40976.754861111112</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="10">
+      <c r="A74" s="9">
         <f>DATE(2012,Sheet2!$A74,Sheet2!$B74)+Sheet2!C74</f>
         <v>40977.25277777778</v>
       </c>
-      <c r="B74" s="10">
+      <c r="B74" s="9">
         <f>DATE(2012,Sheet2!$A74,Sheet2!$B74)+Sheet2!D74</f>
         <v>40977.755555555559</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="10">
+      <c r="A75" s="9">
         <f>DATE(2012,Sheet2!$A75,Sheet2!$B75)+Sheet2!C75</f>
         <v>40978.252083333333</v>
       </c>
-      <c r="B75" s="10">
+      <c r="B75" s="9">
         <f>DATE(2012,Sheet2!$A75,Sheet2!$B75)+Sheet2!D75</f>
         <v>40978.756249999999</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="10">
+      <c r="A76" s="9">
         <f>DATE(2012,Sheet2!$A76,Sheet2!$B76)+Sheet2!C76</f>
         <v>40979.250694444447</v>
       </c>
-      <c r="B76" s="10">
+      <c r="B76" s="9">
         <f>DATE(2012,Sheet2!$A76,Sheet2!$B76)+Sheet2!D76</f>
         <v>40979.75</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="10">
+      <c r="A77" s="9">
         <f>DATE(2012,Sheet2!$A77,Sheet2!$B77)+Sheet2!C77</f>
         <v>40980.25</v>
       </c>
-      <c r="B77" s="10">
+      <c r="B77" s="9">
         <f>DATE(2012,Sheet2!$A77,Sheet2!$B77)+Sheet2!D77</f>
         <v>40980.750694444447</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="10">
+      <c r="A78" s="9">
         <f>DATE(2012,Sheet2!$A78,Sheet2!$B78)+Sheet2!C78</f>
         <v>40981.256249999999</v>
       </c>
-      <c r="B78" s="10">
+      <c r="B78" s="9">
         <f>DATE(2012,Sheet2!$A78,Sheet2!$B78)+Sheet2!D78</f>
         <v>40981.751388888886</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" s="10">
+      <c r="A79" s="9">
         <f>DATE(2012,Sheet2!$A79,Sheet2!$B79)+Sheet2!C79</f>
         <v>40982.254861111112</v>
       </c>
-      <c r="B79" s="10">
+      <c r="B79" s="9">
         <f>DATE(2012,Sheet2!$A79,Sheet2!$B79)+Sheet2!D79</f>
         <v>40982.752083333333</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" s="10">
+      <c r="A80" s="9">
         <f>DATE(2012,Sheet2!$A80,Sheet2!$B80)+Sheet2!C80</f>
         <v>40983.254166666666</v>
       </c>
-      <c r="B80" s="10">
+      <c r="B80" s="9">
         <f>DATE(2012,Sheet2!$A80,Sheet2!$B80)+Sheet2!D80</f>
         <v>40983.75277777778</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="10">
+      <c r="A81" s="9">
         <f>DATE(2012,Sheet2!$A81,Sheet2!$B81)+Sheet2!C81</f>
         <v>40984.25277777778</v>
       </c>
-      <c r="B81" s="10">
+      <c r="B81" s="9">
         <f>DATE(2012,Sheet2!$A81,Sheet2!$B81)+Sheet2!D81</f>
         <v>40984.75277777778</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="10">
+      <c r="A82" s="9">
         <f>DATE(2012,Sheet2!$A82,Sheet2!$B82)+Sheet2!C82</f>
         <v>40985.252083333333</v>
       </c>
-      <c r="B82" s="10">
+      <c r="B82" s="9">
         <f>DATE(2012,Sheet2!$A82,Sheet2!$B82)+Sheet2!D82</f>
         <v>40985.753472222219</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" s="10">
+      <c r="A83" s="9">
         <f>DATE(2012,Sheet2!$A83,Sheet2!$B83)+Sheet2!C83</f>
         <v>40986.250694444447</v>
       </c>
-      <c r="B83" s="10">
+      <c r="B83" s="9">
         <f>DATE(2012,Sheet2!$A83,Sheet2!$B83)+Sheet2!D83</f>
         <v>40986.754166666666</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" s="10">
+      <c r="A84" s="9">
         <f>DATE(2012,Sheet2!$A84,Sheet2!$B84)+Sheet2!C84</f>
         <v>40987.25</v>
       </c>
-      <c r="B84" s="10">
+      <c r="B84" s="9">
         <f>DATE(2012,Sheet2!$A84,Sheet2!$B84)+Sheet2!D84</f>
         <v>40987.754861111112</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" s="10">
+      <c r="A85" s="9">
         <f>DATE(2012,Sheet2!$A85,Sheet2!$B85)+Sheet2!C85</f>
         <v>40988.256249999999</v>
       </c>
-      <c r="B85" s="10">
+      <c r="B85" s="9">
         <f>DATE(2012,Sheet2!$A85,Sheet2!$B85)+Sheet2!D85</f>
         <v>40988.755555555559</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" s="10">
+      <c r="A86" s="9">
         <f>DATE(2012,Sheet2!$A86,Sheet2!$B86)+Sheet2!C86</f>
         <v>40989.254861111112</v>
       </c>
-      <c r="B86" s="10">
+      <c r="B86" s="9">
         <f>DATE(2012,Sheet2!$A86,Sheet2!$B86)+Sheet2!D86</f>
         <v>40989.756249999999</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" s="10">
+      <c r="A87" s="9">
         <f>DATE(2012,Sheet2!$A87,Sheet2!$B87)+Sheet2!C87</f>
         <v>40990.254166666666</v>
       </c>
-      <c r="B87" s="10">
+      <c r="B87" s="9">
         <f>DATE(2012,Sheet2!$A87,Sheet2!$B87)+Sheet2!D87</f>
         <v>40990.75</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" s="10">
+      <c r="A88" s="9">
         <f>DATE(2012,Sheet2!$A88,Sheet2!$B88)+Sheet2!C88</f>
         <v>40991.25277777778</v>
       </c>
-      <c r="B88" s="10">
+      <c r="B88" s="9">
         <f>DATE(2012,Sheet2!$A88,Sheet2!$B88)+Sheet2!D88</f>
         <v>40991.75</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" s="10">
+      <c r="A89" s="9">
         <f>DATE(2012,Sheet2!$A89,Sheet2!$B89)+Sheet2!C89</f>
         <v>40992.252083333333</v>
       </c>
-      <c r="B89" s="10">
+      <c r="B89" s="9">
         <f>DATE(2012,Sheet2!$A89,Sheet2!$B89)+Sheet2!D89</f>
         <v>40992.750694444447</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" s="10">
+      <c r="A90" s="9">
         <f>DATE(2012,Sheet2!$A90,Sheet2!$B90)+Sheet2!C90</f>
         <v>40993.250694444447</v>
       </c>
-      <c r="B90" s="10">
+      <c r="B90" s="9">
         <f>DATE(2012,Sheet2!$A90,Sheet2!$B90)+Sheet2!D90</f>
         <v>40993.751388888886</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" s="10">
+      <c r="A91" s="9">
         <f>DATE(2012,Sheet2!$A91,Sheet2!$B91)+Sheet2!C91</f>
         <v>40994.25</v>
       </c>
-      <c r="B91" s="10">
+      <c r="B91" s="9">
         <f>DATE(2012,Sheet2!$A91,Sheet2!$B91)+Sheet2!D91</f>
         <v>40994.752083333333</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" s="10">
+      <c r="A92" s="9">
         <f>DATE(2012,Sheet2!$A92,Sheet2!$B92)+Sheet2!C92</f>
         <v>40995.255555555559</v>
       </c>
-      <c r="B92" s="10">
+      <c r="B92" s="9">
         <f>DATE(2012,Sheet2!$A92,Sheet2!$B92)+Sheet2!D92</f>
         <v>40995.75277777778</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" s="10">
+      <c r="A93" s="9">
         <f>DATE(2012,Sheet2!$A93,Sheet2!$B93)+Sheet2!C93</f>
         <v>40996.254861111112</v>
       </c>
-      <c r="B93" s="10">
+      <c r="B93" s="9">
         <f>DATE(2012,Sheet2!$A93,Sheet2!$B93)+Sheet2!D93</f>
         <v>40996.753472222219</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" s="10">
+      <c r="A94" s="9">
         <f>DATE(2012,Sheet2!$A94,Sheet2!$B94)+Sheet2!C94</f>
         <v>40997.254166666666</v>
       </c>
-      <c r="B94" s="10">
+      <c r="B94" s="9">
         <f>DATE(2012,Sheet2!$A94,Sheet2!$B94)+Sheet2!D94</f>
         <v>40997.753472222219</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" s="10">
+      <c r="A95" s="9">
         <f>DATE(2012,Sheet2!$A95,Sheet2!$B95)+Sheet2!C95</f>
         <v>40998.25277777778</v>
       </c>
-      <c r="B95" s="10">
+      <c r="B95" s="9">
         <f>DATE(2012,Sheet2!$A95,Sheet2!$B95)+Sheet2!D95</f>
         <v>40998.754166666666</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" s="10">
+      <c r="A96" s="9">
         <f>DATE(2012,Sheet2!$A96,Sheet2!$B96)+Sheet2!C96</f>
         <v>40999.252083333333</v>
       </c>
-      <c r="B96" s="10">
+      <c r="B96" s="9">
         <f>DATE(2012,Sheet2!$A96,Sheet2!$B96)+Sheet2!D96</f>
         <v>40999.754861111112</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" s="10">
+      <c r="A97" s="9">
         <f>DATE(2012,Sheet2!$A97,Sheet2!$B97)+Sheet2!C97</f>
         <v>41000.250694444447</v>
       </c>
-      <c r="B97" s="10">
+      <c r="B97" s="9">
         <f>DATE(2012,Sheet2!$A97,Sheet2!$B97)+Sheet2!D97</f>
         <v>41000.755555555559</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" s="10">
+      <c r="A98" s="9">
         <f>DATE(2012,Sheet2!$A98,Sheet2!$B98)+Sheet2!C98</f>
         <v>41001.25</v>
       </c>
-      <c r="B98" s="10">
+      <c r="B98" s="9">
         <f>DATE(2012,Sheet2!$A98,Sheet2!$B98)+Sheet2!D98</f>
         <v>41001.756249999999</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" s="10">
+      <c r="A99" s="9">
         <f>DATE(2012,Sheet2!$A99,Sheet2!$B99)+Sheet2!C99</f>
         <v>41002.213888888888</v>
       </c>
-      <c r="B99" s="10">
+      <c r="B99" s="9">
         <f>DATE(2012,Sheet2!$A99,Sheet2!$B99)+Sheet2!D99</f>
         <v>41002.75</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" s="10">
+      <c r="A100" s="9">
         <f>DATE(2012,Sheet2!$A100,Sheet2!$B100)+Sheet2!C100</f>
         <v>41003.213194444441</v>
       </c>
-      <c r="B100" s="10">
+      <c r="B100" s="9">
         <f>DATE(2012,Sheet2!$A100,Sheet2!$B100)+Sheet2!D100</f>
         <v>41003.75</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" s="10">
+      <c r="A101" s="9">
         <f>DATE(2012,Sheet2!$A101,Sheet2!$B101)+Sheet2!C101</f>
         <v>41004.212500000001</v>
       </c>
-      <c r="B101" s="10">
+      <c r="B101" s="9">
         <f>DATE(2012,Sheet2!$A101,Sheet2!$B101)+Sheet2!D101</f>
         <v>41004.750694444447</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102" s="10">
+      <c r="A102" s="9">
         <f>DATE(2012,Sheet2!$A102,Sheet2!$B102)+Sheet2!C102</f>
         <v>41005.211111111108</v>
       </c>
-      <c r="B102" s="10">
+      <c r="B102" s="9">
         <f>DATE(2012,Sheet2!$A102,Sheet2!$B102)+Sheet2!D102</f>
         <v>41005.751388888886</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103" s="10">
+      <c r="A103" s="9">
         <f>DATE(2012,Sheet2!$A103,Sheet2!$B103)+Sheet2!C103</f>
         <v>41006.210416666669</v>
       </c>
-      <c r="B103" s="10">
+      <c r="B103" s="9">
         <f>DATE(2012,Sheet2!$A103,Sheet2!$B103)+Sheet2!D103</f>
         <v>41006.752083333333</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104" s="10">
+      <c r="A104" s="9">
         <f>DATE(2012,Sheet2!$A104,Sheet2!$B104)+Sheet2!C104</f>
         <v>41007.209027777775</v>
       </c>
-      <c r="B104" s="10">
+      <c r="B104" s="9">
         <f>DATE(2012,Sheet2!$A104,Sheet2!$B104)+Sheet2!D104</f>
         <v>41007.75277777778</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105" s="10">
+      <c r="A105" s="9">
         <f>DATE(2012,Sheet2!$A105,Sheet2!$B105)+Sheet2!C105</f>
         <v>41008.208333333336</v>
       </c>
-      <c r="B105" s="10">
+      <c r="B105" s="9">
         <f>DATE(2012,Sheet2!$A105,Sheet2!$B105)+Sheet2!D105</f>
         <v>41008.753472222219</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106" s="10">
+      <c r="A106" s="9">
         <f>DATE(2012,Sheet2!$A106,Sheet2!$B106)+Sheet2!C106</f>
         <v>41009.214583333334</v>
       </c>
-      <c r="B106" s="10">
+      <c r="B106" s="9">
         <f>DATE(2012,Sheet2!$A106,Sheet2!$B106)+Sheet2!D106</f>
         <v>41009.753472222219</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107" s="10">
+      <c r="A107" s="9">
         <f>DATE(2012,Sheet2!$A107,Sheet2!$B107)+Sheet2!C107</f>
         <v>41010.213194444441</v>
       </c>
-      <c r="B107" s="10">
+      <c r="B107" s="9">
         <f>DATE(2012,Sheet2!$A107,Sheet2!$B107)+Sheet2!D107</f>
         <v>41010.754166666666</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108" s="10">
+      <c r="A108" s="9">
         <f>DATE(2012,Sheet2!$A108,Sheet2!$B108)+Sheet2!C108</f>
         <v>41011.212500000001</v>
       </c>
-      <c r="B108" s="10">
+      <c r="B108" s="9">
         <f>DATE(2012,Sheet2!$A108,Sheet2!$B108)+Sheet2!D108</f>
         <v>41011.754861111112</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109" s="10">
+      <c r="A109" s="9">
         <f>DATE(2012,Sheet2!$A109,Sheet2!$B109)+Sheet2!C109</f>
         <v>41012.211805555555</v>
       </c>
-      <c r="B109" s="10">
+      <c r="B109" s="9">
         <f>DATE(2012,Sheet2!$A109,Sheet2!$B109)+Sheet2!D109</f>
         <v>41012.755555555559</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A110" s="10">
+      <c r="A110" s="9">
         <f>DATE(2012,Sheet2!$A110,Sheet2!$B110)+Sheet2!C110</f>
         <v>41013.210416666669</v>
       </c>
-      <c r="B110" s="10">
+      <c r="B110" s="9">
         <f>DATE(2012,Sheet2!$A110,Sheet2!$B110)+Sheet2!D110</f>
         <v>41013.756249999999</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A111" s="10">
+      <c r="A111" s="9">
         <f>DATE(2012,Sheet2!$A111,Sheet2!$B111)+Sheet2!C111</f>
         <v>41014.209722222222</v>
       </c>
-      <c r="B111" s="10">
+      <c r="B111" s="9">
         <f>DATE(2012,Sheet2!$A111,Sheet2!$B111)+Sheet2!D111</f>
         <v>41014.75</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112" s="10">
+      <c r="A112" s="9">
         <f>DATE(2012,Sheet2!$A112,Sheet2!$B112)+Sheet2!C112</f>
         <v>41015.209027777775</v>
       </c>
-      <c r="B112" s="10">
+      <c r="B112" s="9">
         <f>DATE(2012,Sheet2!$A112,Sheet2!$B112)+Sheet2!D112</f>
         <v>41015.750694444447</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A113" s="10">
+      <c r="A113" s="9">
         <f>DATE(2012,Sheet2!$A113,Sheet2!$B113)+Sheet2!C113</f>
         <v>41016.214583333334</v>
       </c>
-      <c r="B113" s="10">
+      <c r="B113" s="9">
         <f>DATE(2012,Sheet2!$A113,Sheet2!$B113)+Sheet2!D113</f>
         <v>41016.750694444447</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114" s="10">
+      <c r="A114" s="9">
         <f>DATE(2012,Sheet2!$A114,Sheet2!$B114)+Sheet2!C114</f>
         <v>41017.213888888888</v>
       </c>
-      <c r="B114" s="10">
+      <c r="B114" s="9">
         <f>DATE(2012,Sheet2!$A114,Sheet2!$B114)+Sheet2!D114</f>
         <v>41017.751388888886</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115" s="10">
+      <c r="A115" s="9">
         <f>DATE(2012,Sheet2!$A115,Sheet2!$B115)+Sheet2!C115</f>
         <v>41018.213194444441</v>
       </c>
-      <c r="B115" s="10">
+      <c r="B115" s="9">
         <f>DATE(2012,Sheet2!$A115,Sheet2!$B115)+Sheet2!D115</f>
         <v>41018.752083333333</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A116" s="10">
+      <c r="A116" s="9">
         <f>DATE(2012,Sheet2!$A116,Sheet2!$B116)+Sheet2!C116</f>
         <v>41019.212500000001</v>
       </c>
-      <c r="B116" s="10">
+      <c r="B116" s="9">
         <f>DATE(2012,Sheet2!$A116,Sheet2!$B116)+Sheet2!D116</f>
         <v>41019.75277777778</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A117" s="10">
+      <c r="A117" s="9">
         <f>DATE(2012,Sheet2!$A117,Sheet2!$B117)+Sheet2!C117</f>
         <v>41020.211111111108</v>
       </c>
-      <c r="B117" s="10">
+      <c r="B117" s="9">
         <f>DATE(2012,Sheet2!$A117,Sheet2!$B117)+Sheet2!D117</f>
         <v>41020.753472222219</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A118" s="10">
+      <c r="A118" s="9">
         <f>DATE(2012,Sheet2!$A118,Sheet2!$B118)+Sheet2!C118</f>
         <v>41021.210416666669</v>
       </c>
-      <c r="B118" s="10">
+      <c r="B118" s="9">
         <f>DATE(2012,Sheet2!$A118,Sheet2!$B118)+Sheet2!D118</f>
         <v>41021.754166666666</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A119" s="10">
+      <c r="A119" s="9">
         <f>DATE(2012,Sheet2!$A119,Sheet2!$B119)+Sheet2!C119</f>
         <v>41022.209722222222</v>
       </c>
-      <c r="B119" s="10">
+      <c r="B119" s="9">
         <f>DATE(2012,Sheet2!$A119,Sheet2!$B119)+Sheet2!D119</f>
         <v>41022.754166666666</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A120" s="10">
+      <c r="A120" s="9">
         <f>DATE(2012,Sheet2!$A120,Sheet2!$B120)+Sheet2!C120</f>
         <v>41023.209027777775</v>
       </c>
-      <c r="B120" s="10">
+      <c r="B120" s="9">
         <f>DATE(2012,Sheet2!$A120,Sheet2!$B120)+Sheet2!D120</f>
         <v>41023.754861111112</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A121" s="10">
+      <c r="A121" s="9">
         <f>DATE(2012,Sheet2!$A121,Sheet2!$B121)+Sheet2!C121</f>
         <v>41024.214583333334</v>
       </c>
-      <c r="B121" s="10">
+      <c r="B121" s="9">
         <f>DATE(2012,Sheet2!$A121,Sheet2!$B121)+Sheet2!D121</f>
         <v>41024.755555555559</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A122" s="10">
+      <c r="A122" s="9">
         <f>DATE(2012,Sheet2!$A122,Sheet2!$B122)+Sheet2!C122</f>
         <v>41025.213888888888</v>
       </c>
-      <c r="B122" s="10">
+      <c r="B122" s="9">
         <f>DATE(2012,Sheet2!$A122,Sheet2!$B122)+Sheet2!D122</f>
         <v>41025.756249999999</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A123" s="10">
+      <c r="A123" s="9">
         <f>DATE(2012,Sheet2!$A123,Sheet2!$B123)+Sheet2!C123</f>
         <v>41026.213194444441</v>
       </c>
-      <c r="B123" s="10">
+      <c r="B123" s="9">
         <f>DATE(2012,Sheet2!$A123,Sheet2!$B123)+Sheet2!D123</f>
         <v>41026.791666666664</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A124" s="10">
+      <c r="A124" s="9">
         <f>DATE(2012,Sheet2!$A124,Sheet2!$B124)+Sheet2!C124</f>
         <v>41027.212500000001</v>
       </c>
-      <c r="B124" s="10">
+      <c r="B124" s="9">
         <f>DATE(2012,Sheet2!$A124,Sheet2!$B124)+Sheet2!D124</f>
         <v>41027.792361111111</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A125" s="10">
+      <c r="A125" s="9">
         <f>DATE(2012,Sheet2!$A125,Sheet2!$B125)+Sheet2!C125</f>
         <v>41028.211805555555</v>
       </c>
-      <c r="B125" s="10">
+      <c r="B125" s="9">
         <f>DATE(2012,Sheet2!$A125,Sheet2!$B125)+Sheet2!D125</f>
         <v>41028.793055555558</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A126" s="10">
+      <c r="A126" s="9">
         <f>DATE(2012,Sheet2!$A126,Sheet2!$B126)+Sheet2!C126</f>
         <v>41029.211111111108</v>
       </c>
-      <c r="B126" s="10">
+      <c r="B126" s="9">
         <f>DATE(2012,Sheet2!$A126,Sheet2!$B126)+Sheet2!D126</f>
         <v>41029.793055555558</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A127" s="10">
+      <c r="A127" s="9">
         <f>DATE(2012,Sheet2!$A127,Sheet2!$B127)+Sheet2!C127</f>
         <v>41030.210416666669</v>
       </c>
-      <c r="B127" s="10">
+      <c r="B127" s="9">
         <f>DATE(2012,Sheet2!$A127,Sheet2!$B127)+Sheet2!D127</f>
         <v>41030.793749999997</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A128" s="10">
+      <c r="A128" s="9">
         <f>DATE(2012,Sheet2!$A128,Sheet2!$B128)+Sheet2!C128</f>
         <v>41031.209722222222</v>
       </c>
-      <c r="B128" s="10">
+      <c r="B128" s="9">
         <f>DATE(2012,Sheet2!$A128,Sheet2!$B128)+Sheet2!D128</f>
         <v>41031.794444444444</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A129" s="10">
+      <c r="A129" s="9">
         <f>DATE(2012,Sheet2!$A129,Sheet2!$B129)+Sheet2!C129</f>
         <v>41032.208333333336</v>
       </c>
-      <c r="B129" s="10">
+      <c r="B129" s="9">
         <f>DATE(2012,Sheet2!$A129,Sheet2!$B129)+Sheet2!D129</f>
         <v>41032.795138888891</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A130" s="10">
+      <c r="A130" s="9">
         <f>DATE(2012,Sheet2!$A130,Sheet2!$B130)+Sheet2!C130</f>
         <v>41033.214583333334</v>
       </c>
-      <c r="B130" s="10">
+      <c r="B130" s="9">
         <f>DATE(2012,Sheet2!$A130,Sheet2!$B130)+Sheet2!D130</f>
         <v>41033.79583333333</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A131" s="10">
+      <c r="A131" s="9">
         <f>DATE(2012,Sheet2!$A131,Sheet2!$B131)+Sheet2!C131</f>
         <v>41034.213888888888</v>
       </c>
-      <c r="B131" s="10">
+      <c r="B131" s="9">
         <f>DATE(2012,Sheet2!$A131,Sheet2!$B131)+Sheet2!D131</f>
         <v>41034.796527777777</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A132" s="10">
+      <c r="A132" s="9">
         <f>DATE(2012,Sheet2!$A132,Sheet2!$B132)+Sheet2!C132</f>
         <v>41035.213194444441</v>
       </c>
-      <c r="B132" s="10">
+      <c r="B132" s="9">
         <f>DATE(2012,Sheet2!$A132,Sheet2!$B132)+Sheet2!D132</f>
         <v>41035.796527777777</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A133" s="10">
+      <c r="A133" s="9">
         <f>DATE(2012,Sheet2!$A133,Sheet2!$B133)+Sheet2!C133</f>
         <v>41036.212500000001</v>
       </c>
-      <c r="B133" s="10">
+      <c r="B133" s="9">
         <f>DATE(2012,Sheet2!$A133,Sheet2!$B133)+Sheet2!D133</f>
         <v>41036.797222222223</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A134" s="10">
+      <c r="A134" s="9">
         <f>DATE(2012,Sheet2!$A134,Sheet2!$B134)+Sheet2!C134</f>
         <v>41037.212500000001</v>
       </c>
-      <c r="B134" s="10">
+      <c r="B134" s="9">
         <f>DATE(2012,Sheet2!$A134,Sheet2!$B134)+Sheet2!D134</f>
         <v>41037.79791666667</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A135" s="10">
+      <c r="A135" s="9">
         <f>DATE(2012,Sheet2!$A135,Sheet2!$B135)+Sheet2!C135</f>
         <v>41038.211805555555</v>
       </c>
-      <c r="B135" s="10">
+      <c r="B135" s="9">
         <f>DATE(2012,Sheet2!$A135,Sheet2!$B135)+Sheet2!D135</f>
         <v>41038.791666666664</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A136" s="10">
+      <c r="A136" s="9">
         <f>DATE(2012,Sheet2!$A136,Sheet2!$B136)+Sheet2!C136</f>
         <v>41039.211111111108</v>
       </c>
-      <c r="B136" s="10">
+      <c r="B136" s="9">
         <f>DATE(2012,Sheet2!$A136,Sheet2!$B136)+Sheet2!D136</f>
         <v>41039.792361111111</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A137" s="10">
+      <c r="A137" s="9">
         <f>DATE(2012,Sheet2!$A137,Sheet2!$B137)+Sheet2!C137</f>
         <v>41040.210416666669</v>
       </c>
-      <c r="B137" s="10">
+      <c r="B137" s="9">
         <f>DATE(2012,Sheet2!$A137,Sheet2!$B137)+Sheet2!D137</f>
         <v>41040.793055555558</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A138" s="10">
+      <c r="A138" s="9">
         <f>DATE(2012,Sheet2!$A138,Sheet2!$B138)+Sheet2!C138</f>
         <v>41041.209722222222</v>
       </c>
-      <c r="B138" s="10">
+      <c r="B138" s="9">
         <f>DATE(2012,Sheet2!$A138,Sheet2!$B138)+Sheet2!D138</f>
         <v>41041.793055555558</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A139" s="10">
+      <c r="A139" s="9">
         <f>DATE(2012,Sheet2!$A139,Sheet2!$B139)+Sheet2!C139</f>
         <v>41042.209027777775</v>
       </c>
-      <c r="B139" s="10">
+      <c r="B139" s="9">
         <f>DATE(2012,Sheet2!$A139,Sheet2!$B139)+Sheet2!D139</f>
         <v>41042.793749999997</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A140" s="10">
+      <c r="A140" s="9">
         <f>DATE(2012,Sheet2!$A140,Sheet2!$B140)+Sheet2!C140</f>
         <v>41043.208333333336</v>
       </c>
-      <c r="B140" s="10">
+      <c r="B140" s="9">
         <f>DATE(2012,Sheet2!$A140,Sheet2!$B140)+Sheet2!D140</f>
         <v>41043.794444444444</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A141" s="10">
+      <c r="A141" s="9">
         <f>DATE(2012,Sheet2!$A141,Sheet2!$B141)+Sheet2!C141</f>
         <v>41044.208333333336</v>
       </c>
-      <c r="B141" s="10">
+      <c r="B141" s="9">
         <f>DATE(2012,Sheet2!$A141,Sheet2!$B141)+Sheet2!D141</f>
         <v>41044.795138888891</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A142" s="10">
+      <c r="A142" s="9">
         <f>DATE(2012,Sheet2!$A142,Sheet2!$B142)+Sheet2!C142</f>
         <v>41045.214583333334</v>
       </c>
-      <c r="B142" s="10">
+      <c r="B142" s="9">
         <f>DATE(2012,Sheet2!$A142,Sheet2!$B142)+Sheet2!D142</f>
         <v>41045.79583333333</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A143" s="10">
+      <c r="A143" s="9">
         <f>DATE(2012,Sheet2!$A143,Sheet2!$B143)+Sheet2!C143</f>
         <v>41046.213888888888</v>
       </c>
-      <c r="B143" s="10">
+      <c r="B143" s="9">
         <f>DATE(2012,Sheet2!$A143,Sheet2!$B143)+Sheet2!D143</f>
         <v>41046.796527777777</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A144" s="10">
+      <c r="A144" s="9">
         <f>DATE(2012,Sheet2!$A144,Sheet2!$B144)+Sheet2!C144</f>
         <v>41047.213194444441</v>
       </c>
-      <c r="B144" s="10">
+      <c r="B144" s="9">
         <f>DATE(2012,Sheet2!$A144,Sheet2!$B144)+Sheet2!D144</f>
         <v>41047.796527777777</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A145" s="10">
+      <c r="A145" s="9">
         <f>DATE(2012,Sheet2!$A145,Sheet2!$B145)+Sheet2!C145</f>
         <v>41048.213194444441</v>
       </c>
-      <c r="B145" s="10">
+      <c r="B145" s="9">
         <f>DATE(2012,Sheet2!$A145,Sheet2!$B145)+Sheet2!D145</f>
         <v>41048.797222222223</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A146" s="10">
+      <c r="A146" s="9">
         <f>DATE(2012,Sheet2!$A146,Sheet2!$B146)+Sheet2!C146</f>
         <v>41049.212500000001</v>
       </c>
-      <c r="B146" s="10">
+      <c r="B146" s="9">
         <f>DATE(2012,Sheet2!$A146,Sheet2!$B146)+Sheet2!D146</f>
         <v>41049.79791666667</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A147" s="10">
+      <c r="A147" s="9">
         <f>DATE(2012,Sheet2!$A147,Sheet2!$B147)+Sheet2!C147</f>
         <v>41050.211805555555</v>
       </c>
-      <c r="B147" s="10">
+      <c r="B147" s="9">
         <f>DATE(2012,Sheet2!$A147,Sheet2!$B147)+Sheet2!D147</f>
         <v>41050.791666666664</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A148" s="10">
+      <c r="A148" s="9">
         <f>DATE(2012,Sheet2!$A148,Sheet2!$B148)+Sheet2!C148</f>
         <v>41051.211805555555</v>
       </c>
-      <c r="B148" s="10">
+      <c r="B148" s="9">
         <f>DATE(2012,Sheet2!$A148,Sheet2!$B148)+Sheet2!D148</f>
         <v>41051.791666666664</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A149" s="10">
+      <c r="A149" s="9">
         <f>DATE(2012,Sheet2!$A149,Sheet2!$B149)+Sheet2!C149</f>
         <v>41052.211111111108</v>
       </c>
-      <c r="B149" s="10">
+      <c r="B149" s="9">
         <f>DATE(2012,Sheet2!$A149,Sheet2!$B149)+Sheet2!D149</f>
         <v>41052.792361111111</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A150" s="10">
+      <c r="A150" s="9">
         <f>DATE(2012,Sheet2!$A150,Sheet2!$B150)+Sheet2!C150</f>
         <v>41053.211111111108</v>
       </c>
-      <c r="B150" s="10">
+      <c r="B150" s="9">
         <f>DATE(2012,Sheet2!$A150,Sheet2!$B150)+Sheet2!D150</f>
         <v>41053.793055555558</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A151" s="10">
+      <c r="A151" s="9">
         <f>DATE(2012,Sheet2!$A151,Sheet2!$B151)+Sheet2!C151</f>
         <v>41054.210416666669</v>
       </c>
-      <c r="B151" s="10">
+      <c r="B151" s="9">
         <f>DATE(2012,Sheet2!$A151,Sheet2!$B151)+Sheet2!D151</f>
         <v>41054.793749999997</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A152" s="10">
+      <c r="A152" s="9">
         <f>DATE(2012,Sheet2!$A152,Sheet2!$B152)+Sheet2!C152</f>
         <v>41055.210416666669</v>
       </c>
-      <c r="B152" s="10">
+      <c r="B152" s="9">
         <f>DATE(2012,Sheet2!$A152,Sheet2!$B152)+Sheet2!D152</f>
         <v>41055.793749999997</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A153" s="10">
+      <c r="A153" s="9">
         <f>DATE(2012,Sheet2!$A153,Sheet2!$B153)+Sheet2!C153</f>
         <v>41056.209722222222</v>
       </c>
-      <c r="B153" s="10">
+      <c r="B153" s="9">
         <f>DATE(2012,Sheet2!$A153,Sheet2!$B153)+Sheet2!D153</f>
         <v>41056.794444444444</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A154" s="10">
+      <c r="A154" s="9">
         <f>DATE(2012,Sheet2!$A154,Sheet2!$B154)+Sheet2!C154</f>
         <v>41057.209722222222</v>
       </c>
-      <c r="B154" s="10">
+      <c r="B154" s="9">
         <f>DATE(2012,Sheet2!$A154,Sheet2!$B154)+Sheet2!D154</f>
         <v>41057.795138888891</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A155" s="10">
+      <c r="A155" s="9">
         <f>DATE(2012,Sheet2!$A155,Sheet2!$B155)+Sheet2!C155</f>
         <v>41058.209027777775</v>
       </c>
-      <c r="B155" s="10">
+      <c r="B155" s="9">
         <f>DATE(2012,Sheet2!$A155,Sheet2!$B155)+Sheet2!D155</f>
         <v>41058.795138888891</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A156" s="10">
+      <c r="A156" s="9">
         <f>DATE(2012,Sheet2!$A156,Sheet2!$B156)+Sheet2!C156</f>
         <v>41059.209027777775</v>
       </c>
-      <c r="B156" s="10">
+      <c r="B156" s="9">
         <f>DATE(2012,Sheet2!$A156,Sheet2!$B156)+Sheet2!D156</f>
         <v>41059.79583333333</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A157" s="10">
+      <c r="A157" s="9">
         <f>DATE(2012,Sheet2!$A157,Sheet2!$B157)+Sheet2!C157</f>
         <v>41060.208333333336</v>
       </c>
-      <c r="B157" s="10">
+      <c r="B157" s="9">
         <f>DATE(2012,Sheet2!$A157,Sheet2!$B157)+Sheet2!D157</f>
         <v>41060.796527777777</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A158" s="10">
+      <c r="A158" s="9">
         <f>DATE(2012,Sheet2!$A158,Sheet2!$B158)+Sheet2!C158</f>
         <v>41061.208333333336</v>
       </c>
-      <c r="B158" s="10">
+      <c r="B158" s="9">
         <f>DATE(2012,Sheet2!$A158,Sheet2!$B158)+Sheet2!D158</f>
         <v>41061.796527777777</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A159" s="10">
+      <c r="A159" s="9">
         <f>DATE(2012,Sheet2!$A159,Sheet2!$B159)+Sheet2!C159</f>
         <v>41062.208333333336</v>
       </c>
-      <c r="B159" s="10">
+      <c r="B159" s="9">
         <f>DATE(2012,Sheet2!$A159,Sheet2!$B159)+Sheet2!D159</f>
         <v>41062.797222222223</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A160" s="10">
+      <c r="A160" s="9">
         <f>DATE(2012,Sheet2!$A160,Sheet2!$B160)+Sheet2!C160</f>
         <v>41063.208333333336</v>
       </c>
-      <c r="B160" s="10">
+      <c r="B160" s="9">
         <f>DATE(2012,Sheet2!$A160,Sheet2!$B160)+Sheet2!D160</f>
         <v>41063.79791666667</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A161" s="10">
+      <c r="A161" s="9">
         <f>DATE(2012,Sheet2!$A161,Sheet2!$B161)+Sheet2!C161</f>
         <v>41064.17291666667</v>
       </c>
-      <c r="B161" s="10">
+      <c r="B161" s="9">
         <f>DATE(2012,Sheet2!$A161,Sheet2!$B161)+Sheet2!D161</f>
         <v>41064.79791666667</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A162" s="10">
+      <c r="A162" s="9">
         <f>DATE(2012,Sheet2!$A162,Sheet2!$B162)+Sheet2!C162</f>
         <v>41065.17291666667</v>
       </c>
-      <c r="B162" s="10">
+      <c r="B162" s="9">
         <f>DATE(2012,Sheet2!$A162,Sheet2!$B162)+Sheet2!D162</f>
         <v>41065.791666666664</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A163" s="10">
+      <c r="A163" s="9">
         <f>DATE(2012,Sheet2!$A163,Sheet2!$B163)+Sheet2!C163</f>
         <v>41066.17291666667</v>
       </c>
-      <c r="B163" s="10">
+      <c r="B163" s="9">
         <f>DATE(2012,Sheet2!$A163,Sheet2!$B163)+Sheet2!D163</f>
         <v>41066.791666666664</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A164" s="10">
+      <c r="A164" s="9">
         <f>DATE(2012,Sheet2!$A164,Sheet2!$B164)+Sheet2!C164</f>
         <v>41067.17291666667</v>
       </c>
-      <c r="B164" s="10">
+      <c r="B164" s="9">
         <f>DATE(2012,Sheet2!$A164,Sheet2!$B164)+Sheet2!D164</f>
         <v>41067.792361111111</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A165" s="10">
+      <c r="A165" s="9">
         <f>DATE(2012,Sheet2!$A165,Sheet2!$B165)+Sheet2!C165</f>
         <v>41068.17291666667</v>
       </c>
-      <c r="B165" s="10">
+      <c r="B165" s="9">
         <f>DATE(2012,Sheet2!$A165,Sheet2!$B165)+Sheet2!D165</f>
         <v>41068.792361111111</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A166" s="10">
+      <c r="A166" s="9">
         <f>DATE(2012,Sheet2!$A166,Sheet2!$B166)+Sheet2!C166</f>
         <v>41069.172222222223</v>
       </c>
-      <c r="B166" s="10">
+      <c r="B166" s="9">
         <f>DATE(2012,Sheet2!$A166,Sheet2!$B166)+Sheet2!D166</f>
         <v>41069.793055555558</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A167" s="10">
+      <c r="A167" s="9">
         <f>DATE(2012,Sheet2!$A167,Sheet2!$B167)+Sheet2!C167</f>
         <v>41070.172222222223</v>
       </c>
-      <c r="B167" s="10">
+      <c r="B167" s="9">
         <f>DATE(2012,Sheet2!$A167,Sheet2!$B167)+Sheet2!D167</f>
         <v>41070.793055555558</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A168" s="10">
+      <c r="A168" s="9">
         <f>DATE(2012,Sheet2!$A168,Sheet2!$B168)+Sheet2!C168</f>
         <v>41071.172222222223</v>
       </c>
-      <c r="B168" s="10">
+      <c r="B168" s="9">
         <f>DATE(2012,Sheet2!$A168,Sheet2!$B168)+Sheet2!D168</f>
         <v>41071.793749999997</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A169" s="10">
+      <c r="A169" s="9">
         <f>DATE(2012,Sheet2!$A169,Sheet2!$B169)+Sheet2!C169</f>
         <v>41072.172222222223</v>
       </c>
-      <c r="B169" s="10">
+      <c r="B169" s="9">
         <f>DATE(2012,Sheet2!$A169,Sheet2!$B169)+Sheet2!D169</f>
         <v>41072.793749999997</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A170" s="10">
+      <c r="A170" s="9">
         <f>DATE(2012,Sheet2!$A170,Sheet2!$B170)+Sheet2!C170</f>
         <v>41073.172222222223</v>
       </c>
-      <c r="B170" s="10">
+      <c r="B170" s="9">
         <f>DATE(2012,Sheet2!$A170,Sheet2!$B170)+Sheet2!D170</f>
         <v>41073.793749999997</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A171" s="10">
+      <c r="A171" s="9">
         <f>DATE(2012,Sheet2!$A171,Sheet2!$B171)+Sheet2!C171</f>
         <v>41074.172222222223</v>
       </c>
-      <c r="B171" s="10">
+      <c r="B171" s="9">
         <f>DATE(2012,Sheet2!$A171,Sheet2!$B171)+Sheet2!D171</f>
         <v>41074.794444444444</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A172" s="10">
+      <c r="A172" s="9">
         <f>DATE(2012,Sheet2!$A172,Sheet2!$B172)+Sheet2!C172</f>
         <v>41075.172222222223</v>
       </c>
-      <c r="B172" s="10">
+      <c r="B172" s="9">
         <f>DATE(2012,Sheet2!$A172,Sheet2!$B172)+Sheet2!D172</f>
         <v>41075.794444444444</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A173" s="10">
+      <c r="A173" s="9">
         <f>DATE(2012,Sheet2!$A173,Sheet2!$B173)+Sheet2!C173</f>
         <v>41076.17291666667</v>
       </c>
-      <c r="B173" s="10">
+      <c r="B173" s="9">
         <f>DATE(2012,Sheet2!$A173,Sheet2!$B173)+Sheet2!D173</f>
         <v>41076.794444444444</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A174" s="10">
+      <c r="A174" s="9">
         <f>DATE(2012,Sheet2!$A174,Sheet2!$B174)+Sheet2!C174</f>
         <v>41077.17291666667</v>
       </c>
-      <c r="B174" s="10">
+      <c r="B174" s="9">
         <f>DATE(2012,Sheet2!$A174,Sheet2!$B174)+Sheet2!D174</f>
         <v>41077.795138888891</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A175" s="10">
+      <c r="A175" s="9">
         <f>DATE(2012,Sheet2!$A175,Sheet2!$B175)+Sheet2!C175</f>
         <v>41078.17291666667</v>
       </c>
-      <c r="B175" s="10">
+      <c r="B175" s="9">
         <f>DATE(2012,Sheet2!$A175,Sheet2!$B175)+Sheet2!D175</f>
         <v>41078.795138888891</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A176" s="10">
+      <c r="A176" s="9">
         <f>DATE(2012,Sheet2!$A176,Sheet2!$B176)+Sheet2!C176</f>
         <v>41079.17291666667</v>
       </c>
-      <c r="B176" s="10">
+      <c r="B176" s="9">
         <f>DATE(2012,Sheet2!$A176,Sheet2!$B176)+Sheet2!D176</f>
         <v>41079.795138888891</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A177" s="10">
+      <c r="A177" s="9">
         <f>DATE(2012,Sheet2!$A177,Sheet2!$B177)+Sheet2!C177</f>
         <v>41080.17291666667</v>
       </c>
-      <c r="B177" s="10">
+      <c r="B177" s="9">
         <f>DATE(2012,Sheet2!$A177,Sheet2!$B177)+Sheet2!D177</f>
         <v>41080.79583333333</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A178" s="10">
+      <c r="A178" s="9">
         <f>DATE(2012,Sheet2!$A178,Sheet2!$B178)+Sheet2!C178</f>
         <v>41081.17291666667</v>
       </c>
-      <c r="B178" s="10">
+      <c r="B178" s="9">
         <f>DATE(2012,Sheet2!$A178,Sheet2!$B178)+Sheet2!D178</f>
         <v>41081.79583333333</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A179" s="10">
+      <c r="A179" s="9">
         <f>DATE(2012,Sheet2!$A179,Sheet2!$B179)+Sheet2!C179</f>
         <v>41082.208333333336</v>
       </c>
-      <c r="B179" s="10">
+      <c r="B179" s="9">
         <f>DATE(2012,Sheet2!$A179,Sheet2!$B179)+Sheet2!D179</f>
         <v>41082.79583333333</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A180" s="10">
+      <c r="A180" s="9">
         <f>DATE(2012,Sheet2!$A180,Sheet2!$B180)+Sheet2!C180</f>
         <v>41083.208333333336</v>
       </c>
-      <c r="B180" s="10">
+      <c r="B180" s="9">
         <f>DATE(2012,Sheet2!$A180,Sheet2!$B180)+Sheet2!D180</f>
         <v>41083.79583333333</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A181" s="10">
+      <c r="A181" s="9">
         <f>DATE(2012,Sheet2!$A181,Sheet2!$B181)+Sheet2!C181</f>
         <v>41084.208333333336</v>
       </c>
-      <c r="B181" s="10">
+      <c r="B181" s="9">
         <f>DATE(2012,Sheet2!$A181,Sheet2!$B181)+Sheet2!D181</f>
         <v>41084.79583333333</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A182" s="10">
+      <c r="A182" s="9">
         <f>DATE(2012,Sheet2!$A182,Sheet2!$B182)+Sheet2!C182</f>
         <v>41085.208333333336</v>
       </c>
-      <c r="B182" s="10">
+      <c r="B182" s="9">
         <f>DATE(2012,Sheet2!$A182,Sheet2!$B182)+Sheet2!D182</f>
         <v>41085.79583333333</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A183" s="10">
+      <c r="A183" s="9">
         <f>DATE(2012,Sheet2!$A183,Sheet2!$B183)+Sheet2!C183</f>
         <v>41086.209027777775</v>
       </c>
-      <c r="B183" s="10">
+      <c r="B183" s="9">
         <f>DATE(2012,Sheet2!$A183,Sheet2!$B183)+Sheet2!D183</f>
         <v>41086.79583333333</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A184" s="10">
+      <c r="A184" s="9">
         <f>DATE(2012,Sheet2!$A184,Sheet2!$B184)+Sheet2!C184</f>
         <v>41087.209027777775</v>
       </c>
-      <c r="B184" s="10">
+      <c r="B184" s="9">
         <f>DATE(2012,Sheet2!$A184,Sheet2!$B184)+Sheet2!D184</f>
         <v>41087.79583333333</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A185" s="10">
+      <c r="A185" s="9">
         <f>DATE(2012,Sheet2!$A185,Sheet2!$B185)+Sheet2!C185</f>
         <v>41088.209722222222</v>
       </c>
-      <c r="B185" s="10">
+      <c r="B185" s="9">
         <f>DATE(2012,Sheet2!$A185,Sheet2!$B185)+Sheet2!D185</f>
         <v>41088.79583333333</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A186" s="10">
+      <c r="A186" s="9">
         <f>DATE(2012,Sheet2!$A186,Sheet2!$B186)+Sheet2!C186</f>
         <v>41089.209722222222</v>
       </c>
-      <c r="B186" s="10">
+      <c r="B186" s="9">
         <f>DATE(2012,Sheet2!$A186,Sheet2!$B186)+Sheet2!D186</f>
         <v>41089.79583333333</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A187" s="10">
+      <c r="A187" s="9">
         <f>DATE(2012,Sheet2!$A187,Sheet2!$B187)+Sheet2!C187</f>
         <v>41090.209722222222</v>
       </c>
-      <c r="B187" s="10">
+      <c r="B187" s="9">
         <f>DATE(2012,Sheet2!$A187,Sheet2!$B187)+Sheet2!D187</f>
         <v>41090.79583333333</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A188" s="10">
+      <c r="A188" s="9">
         <f>DATE(2012,Sheet2!$A188,Sheet2!$B188)+Sheet2!C188</f>
         <v>41091.210416666669</v>
       </c>
-      <c r="B188" s="10">
+      <c r="B188" s="9">
         <f>DATE(2012,Sheet2!$A188,Sheet2!$B188)+Sheet2!D188</f>
         <v>41091.79583333333</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A189" s="10">
+      <c r="A189" s="9">
         <f>DATE(2012,Sheet2!$A189,Sheet2!$B189)+Sheet2!C189</f>
         <v>41092.210416666669</v>
       </c>
-      <c r="B189" s="10">
+      <c r="B189" s="9">
         <f>DATE(2012,Sheet2!$A189,Sheet2!$B189)+Sheet2!D189</f>
         <v>41092.79583333333</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A190" s="10">
+      <c r="A190" s="9">
         <f>DATE(2012,Sheet2!$A190,Sheet2!$B190)+Sheet2!C190</f>
         <v>41093.211111111108</v>
       </c>
-      <c r="B190" s="10">
+      <c r="B190" s="9">
         <f>DATE(2012,Sheet2!$A190,Sheet2!$B190)+Sheet2!D190</f>
         <v>41093.79583333333</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A191" s="10">
+      <c r="A191" s="9">
         <f>DATE(2012,Sheet2!$A191,Sheet2!$B191)+Sheet2!C191</f>
         <v>41094.211111111108</v>
       </c>
-      <c r="B191" s="10">
+      <c r="B191" s="9">
         <f>DATE(2012,Sheet2!$A191,Sheet2!$B191)+Sheet2!D191</f>
         <v>41094.79583333333</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A192" s="10">
+      <c r="A192" s="9">
         <f>DATE(2012,Sheet2!$A192,Sheet2!$B192)+Sheet2!C192</f>
         <v>41095.211805555555</v>
       </c>
-      <c r="B192" s="10">
+      <c r="B192" s="9">
         <f>DATE(2012,Sheet2!$A192,Sheet2!$B192)+Sheet2!D192</f>
         <v>41095.79583333333</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A193" s="10">
+      <c r="A193" s="9">
         <f>DATE(2012,Sheet2!$A193,Sheet2!$B193)+Sheet2!C193</f>
         <v>41096.211805555555</v>
       </c>
-      <c r="B193" s="10">
+      <c r="B193" s="9">
         <f>DATE(2012,Sheet2!$A193,Sheet2!$B193)+Sheet2!D193</f>
         <v>41096.795138888891</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A194" s="10">
+      <c r="A194" s="9">
         <f>DATE(2012,Sheet2!$A194,Sheet2!$B194)+Sheet2!C194</f>
         <v>41097.212500000001</v>
       </c>
-      <c r="B194" s="10">
+      <c r="B194" s="9">
         <f>DATE(2012,Sheet2!$A194,Sheet2!$B194)+Sheet2!D194</f>
         <v>41097.795138888891</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A195" s="10">
+      <c r="A195" s="9">
         <f>DATE(2012,Sheet2!$A195,Sheet2!$B195)+Sheet2!C195</f>
         <v>41098.212500000001</v>
       </c>
-      <c r="B195" s="10">
+      <c r="B195" s="9">
         <f>DATE(2012,Sheet2!$A195,Sheet2!$B195)+Sheet2!D195</f>
         <v>41098.795138888891</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A196" s="10">
+      <c r="A196" s="9">
         <f>DATE(2012,Sheet2!$A196,Sheet2!$B196)+Sheet2!C196</f>
         <v>41099.213194444441</v>
       </c>
-      <c r="B196" s="10">
+      <c r="B196" s="9">
         <f>DATE(2012,Sheet2!$A196,Sheet2!$B196)+Sheet2!D196</f>
         <v>41099.795138888891</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A197" s="10">
+      <c r="A197" s="9">
         <f>DATE(2012,Sheet2!$A197,Sheet2!$B197)+Sheet2!C197</f>
         <v>41100.213888888888</v>
       </c>
-      <c r="B197" s="10">
+      <c r="B197" s="9">
         <f>DATE(2012,Sheet2!$A197,Sheet2!$B197)+Sheet2!D197</f>
         <v>41100.794444444444</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A198" s="10">
+      <c r="A198" s="9">
         <f>DATE(2012,Sheet2!$A198,Sheet2!$B198)+Sheet2!C198</f>
         <v>41101.213888888888</v>
       </c>
-      <c r="B198" s="10">
+      <c r="B198" s="9">
         <f>DATE(2012,Sheet2!$A198,Sheet2!$B198)+Sheet2!D198</f>
         <v>41101.794444444444</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A199" s="10">
+      <c r="A199" s="9">
         <f>DATE(2012,Sheet2!$A199,Sheet2!$B199)+Sheet2!C199</f>
         <v>41102.214583333334</v>
       </c>
-      <c r="B199" s="10">
+      <c r="B199" s="9">
         <f>DATE(2012,Sheet2!$A199,Sheet2!$B199)+Sheet2!D199</f>
         <v>41102.794444444444</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A200" s="10">
+      <c r="A200" s="9">
         <f>DATE(2012,Sheet2!$A200,Sheet2!$B200)+Sheet2!C200</f>
         <v>41103.214583333334</v>
       </c>
-      <c r="B200" s="10">
+      <c r="B200" s="9">
         <f>DATE(2012,Sheet2!$A200,Sheet2!$B200)+Sheet2!D200</f>
         <v>41103.793749999997</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A201" s="10">
+      <c r="A201" s="9">
         <f>DATE(2012,Sheet2!$A201,Sheet2!$B201)+Sheet2!C201</f>
         <v>41104.208333333336</v>
       </c>
-      <c r="B201" s="10">
+      <c r="B201" s="9">
         <f>DATE(2012,Sheet2!$A201,Sheet2!$B201)+Sheet2!D201</f>
         <v>41104.793749999997</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A202" s="10">
+      <c r="A202" s="9">
         <f>DATE(2012,Sheet2!$A202,Sheet2!$B202)+Sheet2!C202</f>
         <v>41105.209027777775</v>
       </c>
-      <c r="B202" s="10">
+      <c r="B202" s="9">
         <f>DATE(2012,Sheet2!$A202,Sheet2!$B202)+Sheet2!D202</f>
         <v>41105.793055555558</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A203" s="10">
+      <c r="A203" s="9">
         <f>DATE(2012,Sheet2!$A203,Sheet2!$B203)+Sheet2!C203</f>
         <v>41106.209027777775</v>
       </c>
-      <c r="B203" s="10">
+      <c r="B203" s="9">
         <f>DATE(2012,Sheet2!$A203,Sheet2!$B203)+Sheet2!D203</f>
         <v>41106.793055555558</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A204" s="10">
+      <c r="A204" s="9">
         <f>DATE(2012,Sheet2!$A204,Sheet2!$B204)+Sheet2!C204</f>
         <v>41107.209722222222</v>
       </c>
-      <c r="B204" s="10">
+      <c r="B204" s="9">
         <f>DATE(2012,Sheet2!$A204,Sheet2!$B204)+Sheet2!D204</f>
         <v>41107.792361111111</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A205" s="10">
+      <c r="A205" s="9">
         <f>DATE(2012,Sheet2!$A205,Sheet2!$B205)+Sheet2!C205</f>
         <v>41108.210416666669</v>
       </c>
-      <c r="B205" s="10">
+      <c r="B205" s="9">
         <f>DATE(2012,Sheet2!$A205,Sheet2!$B205)+Sheet2!D205</f>
         <v>41108.792361111111</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A206" s="10">
+      <c r="A206" s="9">
         <f>DATE(2012,Sheet2!$A206,Sheet2!$B206)+Sheet2!C206</f>
         <v>41109.211111111108</v>
       </c>
-      <c r="B206" s="10">
+      <c r="B206" s="9">
         <f>DATE(2012,Sheet2!$A206,Sheet2!$B206)+Sheet2!D206</f>
         <v>41109.791666666664</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A207" s="10">
+      <c r="A207" s="9">
         <f>DATE(2012,Sheet2!$A207,Sheet2!$B207)+Sheet2!C207</f>
         <v>41110.211111111108</v>
       </c>
-      <c r="B207" s="10">
+      <c r="B207" s="9">
         <f>DATE(2012,Sheet2!$A207,Sheet2!$B207)+Sheet2!D207</f>
         <v>41110.79791666667</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A208" s="10">
+      <c r="A208" s="9">
         <f>DATE(2012,Sheet2!$A208,Sheet2!$B208)+Sheet2!C208</f>
         <v>41111.211805555555</v>
       </c>
-      <c r="B208" s="10">
+      <c r="B208" s="9">
         <f>DATE(2012,Sheet2!$A208,Sheet2!$B208)+Sheet2!D208</f>
         <v>41111.79791666667</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A209" s="10">
+      <c r="A209" s="9">
         <f>DATE(2012,Sheet2!$A209,Sheet2!$B209)+Sheet2!C209</f>
         <v>41112.212500000001</v>
       </c>
-      <c r="B209" s="10">
+      <c r="B209" s="9">
         <f>DATE(2012,Sheet2!$A209,Sheet2!$B209)+Sheet2!D209</f>
         <v>41112.797222222223</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A210" s="10">
+      <c r="A210" s="9">
         <f>DATE(2012,Sheet2!$A210,Sheet2!$B210)+Sheet2!C210</f>
         <v>41113.212500000001</v>
       </c>
-      <c r="B210" s="10">
+      <c r="B210" s="9">
         <f>DATE(2012,Sheet2!$A210,Sheet2!$B210)+Sheet2!D210</f>
         <v>41113.796527777777</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A211" s="10">
+      <c r="A211" s="9">
         <f>DATE(2012,Sheet2!$A211,Sheet2!$B211)+Sheet2!C211</f>
         <v>41114.213194444441</v>
       </c>
-      <c r="B211" s="10">
+      <c r="B211" s="9">
         <f>DATE(2012,Sheet2!$A211,Sheet2!$B211)+Sheet2!D211</f>
         <v>41114.796527777777</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A212" s="10">
+      <c r="A212" s="9">
         <f>DATE(2012,Sheet2!$A212,Sheet2!$B212)+Sheet2!C212</f>
         <v>41115.213888888888</v>
       </c>
-      <c r="B212" s="10">
+      <c r="B212" s="9">
         <f>DATE(2012,Sheet2!$A212,Sheet2!$B212)+Sheet2!D212</f>
         <v>41115.79583333333</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A213" s="10">
+      <c r="A213" s="9">
         <f>DATE(2012,Sheet2!$A213,Sheet2!$B213)+Sheet2!C213</f>
         <v>41116.214583333334</v>
       </c>
-      <c r="B213" s="10">
+      <c r="B213" s="9">
         <f>DATE(2012,Sheet2!$A213,Sheet2!$B213)+Sheet2!D213</f>
         <v>41116.795138888891</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A214" s="10">
+      <c r="A214" s="9">
         <f>DATE(2012,Sheet2!$A214,Sheet2!$B214)+Sheet2!C214</f>
         <v>41117.208333333336</v>
       </c>
-      <c r="B214" s="10">
+      <c r="B214" s="9">
         <f>DATE(2012,Sheet2!$A214,Sheet2!$B214)+Sheet2!D214</f>
         <v>41117.794444444444</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A215" s="10">
+      <c r="A215" s="9">
         <f>DATE(2012,Sheet2!$A215,Sheet2!$B215)+Sheet2!C215</f>
         <v>41118.208333333336</v>
       </c>
-      <c r="B215" s="10">
+      <c r="B215" s="9">
         <f>DATE(2012,Sheet2!$A215,Sheet2!$B215)+Sheet2!D215</f>
         <v>41118.794444444444</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A216" s="10">
+      <c r="A216" s="9">
         <f>DATE(2012,Sheet2!$A216,Sheet2!$B216)+Sheet2!C216</f>
         <v>41119.209027777775</v>
       </c>
-      <c r="B216" s="10">
+      <c r="B216" s="9">
         <f>DATE(2012,Sheet2!$A216,Sheet2!$B216)+Sheet2!D216</f>
         <v>41119.793749999997</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A217" s="10">
+      <c r="A217" s="9">
         <f>DATE(2012,Sheet2!$A217,Sheet2!$B217)+Sheet2!C217</f>
         <v>41120.209722222222</v>
       </c>
-      <c r="B217" s="10">
+      <c r="B217" s="9">
         <f>DATE(2012,Sheet2!$A217,Sheet2!$B217)+Sheet2!D217</f>
         <v>41120.793055555558</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A218" s="10">
+      <c r="A218" s="9">
         <f>DATE(2012,Sheet2!$A218,Sheet2!$B218)+Sheet2!C218</f>
         <v>41121.210416666669</v>
       </c>
-      <c r="B218" s="10">
+      <c r="B218" s="9">
         <f>DATE(2012,Sheet2!$A218,Sheet2!$B218)+Sheet2!D218</f>
         <v>41121.792361111111</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A219" s="10">
+      <c r="A219" s="9">
         <f>DATE(2012,Sheet2!$A219,Sheet2!$B219)+Sheet2!C219</f>
         <v>41122.210416666669</v>
       </c>
-      <c r="B219" s="10">
+      <c r="B219" s="9">
         <f>DATE(2012,Sheet2!$A219,Sheet2!$B219)+Sheet2!D219</f>
         <v>41122.791666666664</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A220" s="10">
+      <c r="A220" s="9">
         <f>DATE(2012,Sheet2!$A220,Sheet2!$B220)+Sheet2!C220</f>
         <v>41123.211111111108</v>
       </c>
-      <c r="B220" s="10">
+      <c r="B220" s="9">
         <f>DATE(2012,Sheet2!$A220,Sheet2!$B220)+Sheet2!D220</f>
         <v>41123.79791666667</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A221" s="10">
+      <c r="A221" s="9">
         <f>DATE(2012,Sheet2!$A221,Sheet2!$B221)+Sheet2!C221</f>
         <v>41124.211805555555</v>
       </c>
-      <c r="B221" s="10">
+      <c r="B221" s="9">
         <f>DATE(2012,Sheet2!$A221,Sheet2!$B221)+Sheet2!D221</f>
         <v>41124.797222222223</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A222" s="10">
+      <c r="A222" s="9">
         <f>DATE(2012,Sheet2!$A222,Sheet2!$B222)+Sheet2!C222</f>
         <v>41125.212500000001</v>
       </c>
-      <c r="B222" s="10">
+      <c r="B222" s="9">
         <f>DATE(2012,Sheet2!$A222,Sheet2!$B222)+Sheet2!D222</f>
         <v>41125.796527777777</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A223" s="10">
+      <c r="A223" s="9">
         <f>DATE(2012,Sheet2!$A223,Sheet2!$B223)+Sheet2!C223</f>
         <v>41126.213194444441</v>
       </c>
-      <c r="B223" s="10">
+      <c r="B223" s="9">
         <f>DATE(2012,Sheet2!$A223,Sheet2!$B223)+Sheet2!D223</f>
         <v>41126.79583333333</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A224" s="10">
+      <c r="A224" s="9">
         <f>DATE(2012,Sheet2!$A224,Sheet2!$B224)+Sheet2!C224</f>
         <v>41127.213194444441</v>
       </c>
-      <c r="B224" s="10">
+      <c r="B224" s="9">
         <f>DATE(2012,Sheet2!$A224,Sheet2!$B224)+Sheet2!D224</f>
         <v>41127.795138888891</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A225" s="10">
+      <c r="A225" s="9">
         <f>DATE(2012,Sheet2!$A225,Sheet2!$B225)+Sheet2!C225</f>
         <v>41128.213888888888</v>
       </c>
-      <c r="B225" s="10">
+      <c r="B225" s="9">
         <f>DATE(2012,Sheet2!$A225,Sheet2!$B225)+Sheet2!D225</f>
         <v>41128.794444444444</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A226" s="10">
+      <c r="A226" s="9">
         <f>DATE(2012,Sheet2!$A226,Sheet2!$B226)+Sheet2!C226</f>
         <v>41129.214583333334</v>
       </c>
-      <c r="B226" s="10">
+      <c r="B226" s="9">
         <f>DATE(2012,Sheet2!$A226,Sheet2!$B226)+Sheet2!D226</f>
         <v>41129.793749999997</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A227" s="10">
+      <c r="A227" s="9">
         <f>DATE(2012,Sheet2!$A227,Sheet2!$B227)+Sheet2!C227</f>
         <v>41130.208333333336</v>
       </c>
-      <c r="B227" s="10">
+      <c r="B227" s="9">
         <f>DATE(2012,Sheet2!$A227,Sheet2!$B227)+Sheet2!D227</f>
         <v>41130.793055555558</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A228" s="10">
+      <c r="A228" s="9">
         <f>DATE(2012,Sheet2!$A228,Sheet2!$B228)+Sheet2!C228</f>
         <v>41131.209027777775</v>
       </c>
-      <c r="B228" s="10">
+      <c r="B228" s="9">
         <f>DATE(2012,Sheet2!$A228,Sheet2!$B228)+Sheet2!D228</f>
         <v>41131.792361111111</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A229" s="10">
+      <c r="A229" s="9">
         <f>DATE(2012,Sheet2!$A229,Sheet2!$B229)+Sheet2!C229</f>
         <v>41132.209027777775</v>
       </c>
-      <c r="B229" s="10">
+      <c r="B229" s="9">
         <f>DATE(2012,Sheet2!$A229,Sheet2!$B229)+Sheet2!D229</f>
         <v>41132.791666666664</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A230" s="10">
+      <c r="A230" s="9">
         <f>DATE(2012,Sheet2!$A230,Sheet2!$B230)+Sheet2!C230</f>
         <v>41133.209722222222</v>
       </c>
-      <c r="B230" s="10">
+      <c r="B230" s="9">
         <f>DATE(2012,Sheet2!$A230,Sheet2!$B230)+Sheet2!D230</f>
         <v>41133.797222222223</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A231" s="10">
+      <c r="A231" s="9">
         <f>DATE(2012,Sheet2!$A231,Sheet2!$B231)+Sheet2!C231</f>
         <v>41134.210416666669</v>
       </c>
-      <c r="B231" s="10">
+      <c r="B231" s="9">
         <f>DATE(2012,Sheet2!$A231,Sheet2!$B231)+Sheet2!D231</f>
         <v>41134.796527777777</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A232" s="10">
+      <c r="A232" s="9">
         <f>DATE(2012,Sheet2!$A232,Sheet2!$B232)+Sheet2!C232</f>
         <v>41135.211111111108</v>
       </c>
-      <c r="B232" s="10">
+      <c r="B232" s="9">
         <f>DATE(2012,Sheet2!$A232,Sheet2!$B232)+Sheet2!D232</f>
         <v>41135.79583333333</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A233" s="10">
+      <c r="A233" s="9">
         <f>DATE(2012,Sheet2!$A233,Sheet2!$B233)+Sheet2!C233</f>
         <v>41136.211111111108</v>
       </c>
-      <c r="B233" s="10">
+      <c r="B233" s="9">
         <f>DATE(2012,Sheet2!$A233,Sheet2!$B233)+Sheet2!D233</f>
         <v>41136.795138888891</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A234" s="10">
+      <c r="A234" s="9">
         <f>DATE(2012,Sheet2!$A234,Sheet2!$B234)+Sheet2!C234</f>
         <v>41137.211805555555</v>
       </c>
-      <c r="B234" s="10">
+      <c r="B234" s="9">
         <f>DATE(2012,Sheet2!$A234,Sheet2!$B234)+Sheet2!D234</f>
         <v>41137.794444444444</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A235" s="10">
+      <c r="A235" s="9">
         <f>DATE(2012,Sheet2!$A235,Sheet2!$B235)+Sheet2!C235</f>
         <v>41138.212500000001</v>
       </c>
-      <c r="B235" s="10">
+      <c r="B235" s="9">
         <f>DATE(2012,Sheet2!$A235,Sheet2!$B235)+Sheet2!D235</f>
         <v>41138.793055555558</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A236" s="10">
+      <c r="A236" s="9">
         <f>DATE(2012,Sheet2!$A236,Sheet2!$B236)+Sheet2!C236</f>
         <v>41139.213194444441</v>
       </c>
-      <c r="B236" s="10">
+      <c r="B236" s="9">
         <f>DATE(2012,Sheet2!$A236,Sheet2!$B236)+Sheet2!D236</f>
         <v>41139.792361111111</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A237" s="10">
+      <c r="A237" s="9">
         <f>DATE(2012,Sheet2!$A237,Sheet2!$B237)+Sheet2!C237</f>
         <v>41140.213888888888</v>
       </c>
-      <c r="B237" s="10">
+      <c r="B237" s="9">
         <f>DATE(2012,Sheet2!$A237,Sheet2!$B237)+Sheet2!D237</f>
         <v>41140.791666666664</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A238" s="10">
+      <c r="A238" s="9">
         <f>DATE(2012,Sheet2!$A238,Sheet2!$B238)+Sheet2!C238</f>
         <v>41141.213888888888</v>
       </c>
-      <c r="B238" s="10">
+      <c r="B238" s="9">
         <f>DATE(2012,Sheet2!$A238,Sheet2!$B238)+Sheet2!D238</f>
         <v>41141.756249999999</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A239" s="10">
+      <c r="A239" s="9">
         <f>DATE(2012,Sheet2!$A239,Sheet2!$B239)+Sheet2!C239</f>
         <v>41142.214583333334</v>
       </c>
-      <c r="B239" s="10">
+      <c r="B239" s="9">
         <f>DATE(2012,Sheet2!$A239,Sheet2!$B239)+Sheet2!D239</f>
         <v>41142.754861111112</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A240" s="10">
+      <c r="A240" s="9">
         <f>DATE(2012,Sheet2!$A240,Sheet2!$B240)+Sheet2!C240</f>
         <v>41143.208333333336</v>
       </c>
-      <c r="B240" s="10">
+      <c r="B240" s="9">
         <f>DATE(2012,Sheet2!$A240,Sheet2!$B240)+Sheet2!D240</f>
         <v>41143.754166666666</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A241" s="10">
+      <c r="A241" s="9">
         <f>DATE(2012,Sheet2!$A241,Sheet2!$B241)+Sheet2!C241</f>
         <v>41144.209027777775</v>
       </c>
-      <c r="B241" s="10">
+      <c r="B241" s="9">
         <f>DATE(2012,Sheet2!$A241,Sheet2!$B241)+Sheet2!D241</f>
         <v>41144.753472222219</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A242" s="10">
+      <c r="A242" s="9">
         <f>DATE(2012,Sheet2!$A242,Sheet2!$B242)+Sheet2!C242</f>
         <v>41145.209722222222</v>
       </c>
-      <c r="B242" s="10">
+      <c r="B242" s="9">
         <f>DATE(2012,Sheet2!$A242,Sheet2!$B242)+Sheet2!D242</f>
         <v>41145.75277777778</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A243" s="10">
+      <c r="A243" s="9">
         <f>DATE(2012,Sheet2!$A243,Sheet2!$B243)+Sheet2!C243</f>
         <v>41146.209722222222</v>
       </c>
-      <c r="B243" s="10">
+      <c r="B243" s="9">
         <f>DATE(2012,Sheet2!$A243,Sheet2!$B243)+Sheet2!D243</f>
         <v>41146.751388888886</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A244" s="10">
+      <c r="A244" s="9">
         <f>DATE(2012,Sheet2!$A244,Sheet2!$B244)+Sheet2!C244</f>
         <v>41147.210416666669</v>
       </c>
-      <c r="B244" s="10">
+      <c r="B244" s="9">
         <f>DATE(2012,Sheet2!$A244,Sheet2!$B244)+Sheet2!D244</f>
         <v>41147.750694444447</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A245" s="10">
+      <c r="A245" s="9">
         <f>DATE(2012,Sheet2!$A245,Sheet2!$B245)+Sheet2!C245</f>
         <v>41148.211111111108</v>
       </c>
-      <c r="B245" s="10">
+      <c r="B245" s="9">
         <f>DATE(2012,Sheet2!$A245,Sheet2!$B245)+Sheet2!D245</f>
         <v>41148.756249999999</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A246" s="10">
+      <c r="A246" s="9">
         <f>DATE(2012,Sheet2!$A246,Sheet2!$B246)+Sheet2!C246</f>
         <v>41149.211805555555</v>
       </c>
-      <c r="B246" s="10">
+      <c r="B246" s="9">
         <f>DATE(2012,Sheet2!$A246,Sheet2!$B246)+Sheet2!D246</f>
         <v>41149.755555555559</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A247" s="10">
+      <c r="A247" s="9">
         <f>DATE(2012,Sheet2!$A247,Sheet2!$B247)+Sheet2!C247</f>
         <v>41150.211805555555</v>
       </c>
-      <c r="B247" s="10">
+      <c r="B247" s="9">
         <f>DATE(2012,Sheet2!$A247,Sheet2!$B247)+Sheet2!D247</f>
         <v>41150.754861111112</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A248" s="10">
+      <c r="A248" s="9">
         <f>DATE(2012,Sheet2!$A248,Sheet2!$B248)+Sheet2!C248</f>
         <v>41151.212500000001</v>
       </c>
-      <c r="B248" s="10">
+      <c r="B248" s="9">
         <f>DATE(2012,Sheet2!$A248,Sheet2!$B248)+Sheet2!D248</f>
         <v>41151.753472222219</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A249" s="10">
+      <c r="A249" s="9">
         <f>DATE(2012,Sheet2!$A249,Sheet2!$B249)+Sheet2!C249</f>
         <v>41152.213194444441</v>
       </c>
-      <c r="B249" s="10">
+      <c r="B249" s="9">
         <f>DATE(2012,Sheet2!$A249,Sheet2!$B249)+Sheet2!D249</f>
         <v>41152.75277777778</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A250" s="10">
+      <c r="A250" s="9">
         <f>DATE(2012,Sheet2!$A250,Sheet2!$B250)+Sheet2!C250</f>
         <v>41153.213888888888</v>
       </c>
-      <c r="B250" s="10">
+      <c r="B250" s="9">
         <f>DATE(2012,Sheet2!$A250,Sheet2!$B250)+Sheet2!D250</f>
         <v>41153.752083333333</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A251" s="10">
+      <c r="A251" s="9">
         <f>DATE(2012,Sheet2!$A251,Sheet2!$B251)+Sheet2!C251</f>
         <v>41154.214583333334</v>
       </c>
-      <c r="B251" s="10">
+      <c r="B251" s="9">
         <f>DATE(2012,Sheet2!$A251,Sheet2!$B251)+Sheet2!D251</f>
         <v>41154.750694444447</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A252" s="10">
+      <c r="A252" s="9">
         <f>DATE(2012,Sheet2!$A252,Sheet2!$B252)+Sheet2!C252</f>
         <v>41155.214583333334</v>
       </c>
-      <c r="B252" s="10">
+      <c r="B252" s="9">
         <f>DATE(2012,Sheet2!$A252,Sheet2!$B252)+Sheet2!D252</f>
         <v>41155.75</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A253" s="10">
+      <c r="A253" s="9">
         <f>DATE(2012,Sheet2!$A253,Sheet2!$B253)+Sheet2!C253</f>
         <v>41156.208333333336</v>
       </c>
-      <c r="B253" s="10">
+      <c r="B253" s="9">
         <f>DATE(2012,Sheet2!$A253,Sheet2!$B253)+Sheet2!D253</f>
         <v>41156.755555555559</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A254" s="10">
+      <c r="A254" s="9">
         <f>DATE(2012,Sheet2!$A254,Sheet2!$B254)+Sheet2!C254</f>
         <v>41157.209027777775</v>
       </c>
-      <c r="B254" s="10">
+      <c r="B254" s="9">
         <f>DATE(2012,Sheet2!$A254,Sheet2!$B254)+Sheet2!D254</f>
         <v>41157.754861111112</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A255" s="10">
+      <c r="A255" s="9">
         <f>DATE(2012,Sheet2!$A255,Sheet2!$B255)+Sheet2!C255</f>
         <v>41158.209722222222</v>
       </c>
-      <c r="B255" s="10">
+      <c r="B255" s="9">
         <f>DATE(2012,Sheet2!$A255,Sheet2!$B255)+Sheet2!D255</f>
         <v>41158.753472222219</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A256" s="10">
+      <c r="A256" s="9">
         <f>DATE(2012,Sheet2!$A256,Sheet2!$B256)+Sheet2!C256</f>
         <v>41159.209722222222</v>
       </c>
-      <c r="B256" s="10">
+      <c r="B256" s="9">
         <f>DATE(2012,Sheet2!$A256,Sheet2!$B256)+Sheet2!D256</f>
         <v>41159.75277777778</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A257" s="10">
+      <c r="A257" s="9">
         <f>DATE(2012,Sheet2!$A257,Sheet2!$B257)+Sheet2!C257</f>
         <v>41160.210416666669</v>
       </c>
-      <c r="B257" s="10">
+      <c r="B257" s="9">
         <f>DATE(2012,Sheet2!$A257,Sheet2!$B257)+Sheet2!D257</f>
         <v>41160.751388888886</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A258" s="10">
+      <c r="A258" s="9">
         <f>DATE(2012,Sheet2!$A258,Sheet2!$B258)+Sheet2!C258</f>
         <v>41161.211111111108</v>
       </c>
-      <c r="B258" s="10">
+      <c r="B258" s="9">
         <f>DATE(2012,Sheet2!$A258,Sheet2!$B258)+Sheet2!D258</f>
         <v>41161.750694444447</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A259" s="10">
+      <c r="A259" s="9">
         <f>DATE(2012,Sheet2!$A259,Sheet2!$B259)+Sheet2!C259</f>
         <v>41162.211805555555</v>
       </c>
-      <c r="B259" s="10">
+      <c r="B259" s="9">
         <f>DATE(2012,Sheet2!$A259,Sheet2!$B259)+Sheet2!D259</f>
         <v>41162.75</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A260" s="10">
+      <c r="A260" s="9">
         <f>DATE(2012,Sheet2!$A260,Sheet2!$B260)+Sheet2!C260</f>
         <v>41163.211805555555</v>
       </c>
-      <c r="B260" s="10">
+      <c r="B260" s="9">
         <f>DATE(2012,Sheet2!$A260,Sheet2!$B260)+Sheet2!D260</f>
         <v>41163.755555555559</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A261" s="10">
+      <c r="A261" s="9">
         <f>DATE(2012,Sheet2!$A261,Sheet2!$B261)+Sheet2!C261</f>
         <v>41164.212500000001</v>
       </c>
-      <c r="B261" s="10">
+      <c r="B261" s="9">
         <f>DATE(2012,Sheet2!$A261,Sheet2!$B261)+Sheet2!D261</f>
         <v>41164.754861111112</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A262" s="10">
+      <c r="A262" s="9">
         <f>DATE(2012,Sheet2!$A262,Sheet2!$B262)+Sheet2!C262</f>
         <v>41165.213194444441</v>
       </c>
-      <c r="B262" s="10">
+      <c r="B262" s="9">
         <f>DATE(2012,Sheet2!$A262,Sheet2!$B262)+Sheet2!D262</f>
         <v>41165.753472222219</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A263" s="10">
+      <c r="A263" s="9">
         <f>DATE(2012,Sheet2!$A263,Sheet2!$B263)+Sheet2!C263</f>
         <v>41166.213888888888</v>
       </c>
-      <c r="B263" s="10">
+      <c r="B263" s="9">
         <f>DATE(2012,Sheet2!$A263,Sheet2!$B263)+Sheet2!D263</f>
         <v>41166.75277777778</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A264" s="10">
+      <c r="A264" s="9">
         <f>DATE(2012,Sheet2!$A264,Sheet2!$B264)+Sheet2!C264</f>
         <v>41167.214583333334</v>
       </c>
-      <c r="B264" s="10">
+      <c r="B264" s="9">
         <f>DATE(2012,Sheet2!$A264,Sheet2!$B264)+Sheet2!D264</f>
         <v>41167.751388888886</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A265" s="10">
+      <c r="A265" s="9">
         <f>DATE(2012,Sheet2!$A265,Sheet2!$B265)+Sheet2!C265</f>
         <v>41168.214583333334</v>
       </c>
-      <c r="B265" s="10">
+      <c r="B265" s="9">
         <f>DATE(2012,Sheet2!$A265,Sheet2!$B265)+Sheet2!D265</f>
         <v>41168.750694444447</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A266" s="10">
+      <c r="A266" s="9">
         <f>DATE(2012,Sheet2!$A266,Sheet2!$B266)+Sheet2!C266</f>
         <v>41169.25</v>
       </c>
-      <c r="B266" s="10">
+      <c r="B266" s="9">
         <f>DATE(2012,Sheet2!$A266,Sheet2!$B266)+Sheet2!D266</f>
         <v>41169.756249999999</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A267" s="10">
+      <c r="A267" s="9">
         <f>DATE(2012,Sheet2!$A267,Sheet2!$B267)+Sheet2!C267</f>
         <v>41170.250694444447</v>
       </c>
-      <c r="B267" s="10">
+      <c r="B267" s="9">
         <f>DATE(2012,Sheet2!$A267,Sheet2!$B267)+Sheet2!D267</f>
         <v>41170.755555555559</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A268" s="10">
+      <c r="A268" s="9">
         <f>DATE(2012,Sheet2!$A268,Sheet2!$B268)+Sheet2!C268</f>
         <v>41171.251388888886</v>
       </c>
-      <c r="B268" s="10">
+      <c r="B268" s="9">
         <f>DATE(2012,Sheet2!$A268,Sheet2!$B268)+Sheet2!D268</f>
         <v>41171.754166666666</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A269" s="10">
+      <c r="A269" s="9">
         <f>DATE(2012,Sheet2!$A269,Sheet2!$B269)+Sheet2!C269</f>
         <v>41172.251388888886</v>
       </c>
-      <c r="B269" s="10">
+      <c r="B269" s="9">
         <f>DATE(2012,Sheet2!$A269,Sheet2!$B269)+Sheet2!D269</f>
         <v>41172.753472222219</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A270" s="10">
+      <c r="A270" s="9">
         <f>DATE(2012,Sheet2!$A270,Sheet2!$B270)+Sheet2!C270</f>
         <v>41173.252083333333</v>
       </c>
-      <c r="B270" s="10">
+      <c r="B270" s="9">
         <f>DATE(2012,Sheet2!$A270,Sheet2!$B270)+Sheet2!D270</f>
         <v>41173.752083333333</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A271" s="10">
+      <c r="A271" s="9">
         <f>DATE(2012,Sheet2!$A271,Sheet2!$B271)+Sheet2!C271</f>
         <v>41174.25277777778</v>
       </c>
-      <c r="B271" s="10">
+      <c r="B271" s="9">
         <f>DATE(2012,Sheet2!$A271,Sheet2!$B271)+Sheet2!D271</f>
         <v>41174.751388888886</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A272" s="10">
+      <c r="A272" s="9">
         <f>DATE(2012,Sheet2!$A272,Sheet2!$B272)+Sheet2!C272</f>
         <v>41175.253472222219</v>
       </c>
-      <c r="B272" s="10">
+      <c r="B272" s="9">
         <f>DATE(2012,Sheet2!$A272,Sheet2!$B272)+Sheet2!D272</f>
         <v>41175.75</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A273" s="10">
+      <c r="A273" s="9">
         <f>DATE(2012,Sheet2!$A273,Sheet2!$B273)+Sheet2!C273</f>
         <v>41176.254166666666</v>
       </c>
-      <c r="B273" s="10">
+      <c r="B273" s="9">
         <f>DATE(2012,Sheet2!$A273,Sheet2!$B273)+Sheet2!D273</f>
         <v>41176.756249999999</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A274" s="10">
+      <c r="A274" s="9">
         <f>DATE(2012,Sheet2!$A274,Sheet2!$B274)+Sheet2!C274</f>
         <v>41177.254166666666</v>
       </c>
-      <c r="B274" s="10">
+      <c r="B274" s="9">
         <f>DATE(2012,Sheet2!$A274,Sheet2!$B274)+Sheet2!D274</f>
         <v>41177.754861111112</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A275" s="10">
+      <c r="A275" s="9">
         <f>DATE(2012,Sheet2!$A275,Sheet2!$B275)+Sheet2!C275</f>
         <v>41178.254861111112</v>
       </c>
-      <c r="B275" s="10">
+      <c r="B275" s="9">
         <f>DATE(2012,Sheet2!$A275,Sheet2!$B275)+Sheet2!D275</f>
         <v>41178.754166666666</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A276" s="10">
+      <c r="A276" s="9">
         <f>DATE(2012,Sheet2!$A276,Sheet2!$B276)+Sheet2!C276</f>
         <v>41179.255555555559</v>
       </c>
-      <c r="B276" s="10">
+      <c r="B276" s="9">
         <f>DATE(2012,Sheet2!$A276,Sheet2!$B276)+Sheet2!D276</f>
         <v>41179.75277777778</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A277" s="10">
+      <c r="A277" s="9">
         <f>DATE(2012,Sheet2!$A277,Sheet2!$B277)+Sheet2!C277</f>
         <v>41180.256249999999</v>
       </c>
-      <c r="B277" s="10">
+      <c r="B277" s="9">
         <f>DATE(2012,Sheet2!$A277,Sheet2!$B277)+Sheet2!D277</f>
         <v>41180.752083333333</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A278" s="10">
+      <c r="A278" s="9">
         <f>DATE(2012,Sheet2!$A278,Sheet2!$B278)+Sheet2!C278</f>
         <v>41181.256249999999</v>
       </c>
-      <c r="B278" s="10">
+      <c r="B278" s="9">
         <f>DATE(2012,Sheet2!$A278,Sheet2!$B278)+Sheet2!D278</f>
         <v>41181.750694444447</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A279" s="10">
+      <c r="A279" s="9">
         <f>DATE(2012,Sheet2!$A279,Sheet2!$B279)+Sheet2!C279</f>
         <v>41182.25</v>
       </c>
-      <c r="B279" s="10">
+      <c r="B279" s="9">
         <f>DATE(2012,Sheet2!$A279,Sheet2!$B279)+Sheet2!D279</f>
         <v>41182.75</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A280" s="10">
+      <c r="A280" s="9">
         <f>DATE(2012,Sheet2!$A280,Sheet2!$B280)+Sheet2!C280</f>
         <v>41183.250694444447</v>
       </c>
-      <c r="B280" s="10">
+      <c r="B280" s="9">
         <f>DATE(2012,Sheet2!$A280,Sheet2!$B280)+Sheet2!D280</f>
         <v>41183.714583333334</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A281" s="10">
+      <c r="A281" s="9">
         <f>DATE(2012,Sheet2!$A281,Sheet2!$B281)+Sheet2!C281</f>
         <v>41184.251388888886</v>
       </c>
-      <c r="B281" s="10">
+      <c r="B281" s="9">
         <f>DATE(2012,Sheet2!$A281,Sheet2!$B281)+Sheet2!D281</f>
         <v>41184.713194444441</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A282" s="10">
+      <c r="A282" s="9">
         <f>DATE(2012,Sheet2!$A282,Sheet2!$B282)+Sheet2!C282</f>
         <v>41185.252083333333</v>
       </c>
-      <c r="B282" s="10">
+      <c r="B282" s="9">
         <f>DATE(2012,Sheet2!$A282,Sheet2!$B282)+Sheet2!D282</f>
         <v>41185.712500000001</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A283" s="10">
+      <c r="A283" s="9">
         <f>DATE(2012,Sheet2!$A283,Sheet2!$B283)+Sheet2!C283</f>
         <v>41186.25277777778</v>
       </c>
-      <c r="B283" s="10">
+      <c r="B283" s="9">
         <f>DATE(2012,Sheet2!$A283,Sheet2!$B283)+Sheet2!D283</f>
         <v>41186.711111111108</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A284" s="10">
+      <c r="A284" s="9">
         <f>DATE(2012,Sheet2!$A284,Sheet2!$B284)+Sheet2!C284</f>
         <v>41187.25277777778</v>
       </c>
-      <c r="B284" s="10">
+      <c r="B284" s="9">
         <f>DATE(2012,Sheet2!$A284,Sheet2!$B284)+Sheet2!D284</f>
         <v>41187.710416666669</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A285" s="10">
+      <c r="A285" s="9">
         <f>DATE(2012,Sheet2!$A285,Sheet2!$B285)+Sheet2!C285</f>
         <v>41188.253472222219</v>
       </c>
-      <c r="B285" s="10">
+      <c r="B285" s="9">
         <f>DATE(2012,Sheet2!$A285,Sheet2!$B285)+Sheet2!D285</f>
         <v>41188.709027777775</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A286" s="10">
+      <c r="A286" s="9">
         <f>DATE(2012,Sheet2!$A286,Sheet2!$B286)+Sheet2!C286</f>
         <v>41189.254166666666</v>
       </c>
-      <c r="B286" s="10">
+      <c r="B286" s="9">
         <f>DATE(2012,Sheet2!$A286,Sheet2!$B286)+Sheet2!D286</f>
         <v>41189.708333333336</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A287" s="10">
+      <c r="A287" s="9">
         <f>DATE(2012,Sheet2!$A287,Sheet2!$B287)+Sheet2!C287</f>
         <v>41190.254861111112</v>
       </c>
-      <c r="B287" s="10">
+      <c r="B287" s="9">
         <f>DATE(2012,Sheet2!$A287,Sheet2!$B287)+Sheet2!D287</f>
         <v>41190.714583333334</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A288" s="10">
+      <c r="A288" s="9">
         <f>DATE(2012,Sheet2!$A288,Sheet2!$B288)+Sheet2!C288</f>
         <v>41191.255555555559</v>
       </c>
-      <c r="B288" s="10">
+      <c r="B288" s="9">
         <f>DATE(2012,Sheet2!$A288,Sheet2!$B288)+Sheet2!D288</f>
         <v>41191.713194444441</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A289" s="10">
+      <c r="A289" s="9">
         <f>DATE(2012,Sheet2!$A289,Sheet2!$B289)+Sheet2!C289</f>
         <v>41192.256249999999</v>
       </c>
-      <c r="B289" s="10">
+      <c r="B289" s="9">
         <f>DATE(2012,Sheet2!$A289,Sheet2!$B289)+Sheet2!D289</f>
         <v>41192.712500000001</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A290" s="10">
+      <c r="A290" s="9">
         <f>DATE(2012,Sheet2!$A290,Sheet2!$B290)+Sheet2!C290</f>
         <v>41193.256249999999</v>
       </c>
-      <c r="B290" s="10">
+      <c r="B290" s="9">
         <f>DATE(2012,Sheet2!$A290,Sheet2!$B290)+Sheet2!D290</f>
         <v>41193.711805555555</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A291" s="10">
+      <c r="A291" s="9">
         <f>DATE(2012,Sheet2!$A291,Sheet2!$B291)+Sheet2!C291</f>
         <v>41194.25</v>
       </c>
-      <c r="B291" s="10">
+      <c r="B291" s="9">
         <f>DATE(2012,Sheet2!$A291,Sheet2!$B291)+Sheet2!D291</f>
         <v>41194.710416666669</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A292" s="10">
+      <c r="A292" s="9">
         <f>DATE(2012,Sheet2!$A292,Sheet2!$B292)+Sheet2!C292</f>
         <v>41195.250694444447</v>
       </c>
-      <c r="B292" s="10">
+      <c r="B292" s="9">
         <f>DATE(2012,Sheet2!$A292,Sheet2!$B292)+Sheet2!D292</f>
         <v>41195.709722222222</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A293" s="10">
+      <c r="A293" s="9">
         <f>DATE(2012,Sheet2!$A293,Sheet2!$B293)+Sheet2!C293</f>
         <v>41196.251388888886</v>
       </c>
-      <c r="B293" s="10">
+      <c r="B293" s="9">
         <f>DATE(2012,Sheet2!$A293,Sheet2!$B293)+Sheet2!D293</f>
         <v>41196.709027777775</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A294" s="10">
+      <c r="A294" s="9">
         <f>DATE(2012,Sheet2!$A294,Sheet2!$B294)+Sheet2!C294</f>
         <v>41197.252083333333</v>
       </c>
-      <c r="B294" s="10">
+      <c r="B294" s="9">
         <f>DATE(2012,Sheet2!$A294,Sheet2!$B294)+Sheet2!D294</f>
         <v>41197.714583333334</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A295" s="10">
+      <c r="A295" s="9">
         <f>DATE(2012,Sheet2!$A295,Sheet2!$B295)+Sheet2!C295</f>
         <v>41198.25277777778</v>
       </c>
-      <c r="B295" s="10">
+      <c r="B295" s="9">
         <f>DATE(2012,Sheet2!$A295,Sheet2!$B295)+Sheet2!D295</f>
         <v>41198.713888888888</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A296" s="10">
+      <c r="A296" s="9">
         <f>DATE(2012,Sheet2!$A296,Sheet2!$B296)+Sheet2!C296</f>
         <v>41199.253472222219</v>
       </c>
-      <c r="B296" s="10">
+      <c r="B296" s="9">
         <f>DATE(2012,Sheet2!$A296,Sheet2!$B296)+Sheet2!D296</f>
         <v>41199.713194444441</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A297" s="10">
+      <c r="A297" s="9">
         <f>DATE(2012,Sheet2!$A297,Sheet2!$B297)+Sheet2!C297</f>
         <v>41200.254166666666</v>
       </c>
-      <c r="B297" s="10">
+      <c r="B297" s="9">
         <f>DATE(2012,Sheet2!$A297,Sheet2!$B297)+Sheet2!D297</f>
         <v>41200.711805555555</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A298" s="10">
+      <c r="A298" s="9">
         <f>DATE(2012,Sheet2!$A298,Sheet2!$B298)+Sheet2!C298</f>
         <v>41201.254166666666</v>
       </c>
-      <c r="B298" s="10">
+      <c r="B298" s="9">
         <f>DATE(2012,Sheet2!$A298,Sheet2!$B298)+Sheet2!D298</f>
         <v>41201.711111111108</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A299" s="10">
+      <c r="A299" s="9">
         <f>DATE(2012,Sheet2!$A299,Sheet2!$B299)+Sheet2!C299</f>
         <v>41202.254861111112</v>
       </c>
-      <c r="B299" s="10">
+      <c r="B299" s="9">
         <f>DATE(2012,Sheet2!$A299,Sheet2!$B299)+Sheet2!D299</f>
         <v>41202.710416666669</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A300" s="10">
+      <c r="A300" s="9">
         <f>DATE(2012,Sheet2!$A300,Sheet2!$B300)+Sheet2!C300</f>
         <v>41203.255555555559</v>
       </c>
-      <c r="B300" s="10">
+      <c r="B300" s="9">
         <f>DATE(2012,Sheet2!$A300,Sheet2!$B300)+Sheet2!D300</f>
         <v>41203.709722222222</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A301" s="10">
+      <c r="A301" s="9">
         <f>DATE(2012,Sheet2!$A301,Sheet2!$B301)+Sheet2!C301</f>
         <v>41204.256249999999</v>
       </c>
-      <c r="B301" s="10">
+      <c r="B301" s="9">
         <f>DATE(2012,Sheet2!$A301,Sheet2!$B301)+Sheet2!D301</f>
         <v>41204.708333333336</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A302" s="10">
+      <c r="A302" s="9">
         <f>DATE(2012,Sheet2!$A302,Sheet2!$B302)+Sheet2!C302</f>
         <v>41205.25</v>
       </c>
-      <c r="B302" s="10">
+      <c r="B302" s="9">
         <f>DATE(2012,Sheet2!$A302,Sheet2!$B302)+Sheet2!D302</f>
         <v>41205.714583333334</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A303" s="10">
+      <c r="A303" s="9">
         <f>DATE(2012,Sheet2!$A303,Sheet2!$B303)+Sheet2!C303</f>
         <v>41206.250694444447</v>
       </c>
-      <c r="B303" s="10">
+      <c r="B303" s="9">
         <f>DATE(2012,Sheet2!$A303,Sheet2!$B303)+Sheet2!D303</f>
         <v>41206.713888888888</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A304" s="10">
+      <c r="A304" s="9">
         <f>DATE(2012,Sheet2!$A304,Sheet2!$B304)+Sheet2!C304</f>
         <v>41207.251388888886</v>
       </c>
-      <c r="B304" s="10">
+      <c r="B304" s="9">
         <f>DATE(2012,Sheet2!$A304,Sheet2!$B304)+Sheet2!D304</f>
         <v>41207.713194444441</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A305" s="10">
+      <c r="A305" s="9">
         <f>DATE(2012,Sheet2!$A305,Sheet2!$B305)+Sheet2!C305</f>
         <v>41208.252083333333</v>
       </c>
-      <c r="B305" s="10">
+      <c r="B305" s="9">
         <f>DATE(2012,Sheet2!$A305,Sheet2!$B305)+Sheet2!D305</f>
         <v>41208.712500000001</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A306" s="10">
+      <c r="A306" s="9">
         <f>DATE(2012,Sheet2!$A306,Sheet2!$B306)+Sheet2!C306</f>
         <v>41209.25277777778</v>
       </c>
-      <c r="B306" s="10">
+      <c r="B306" s="9">
         <f>DATE(2012,Sheet2!$A306,Sheet2!$B306)+Sheet2!D306</f>
         <v>41209.711805555555</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A307" s="10">
+      <c r="A307" s="9">
         <f>DATE(2012,Sheet2!$A307,Sheet2!$B307)+Sheet2!C307</f>
         <v>41210.253472222219</v>
       </c>
-      <c r="B307" s="10">
+      <c r="B307" s="9">
         <f>DATE(2012,Sheet2!$A307,Sheet2!$B307)+Sheet2!D307</f>
         <v>41210.711111111108</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A308" s="10">
+      <c r="A308" s="9">
         <f>DATE(2012,Sheet2!$A308,Sheet2!$B308)+Sheet2!C308</f>
         <v>41211.254166666666</v>
       </c>
-      <c r="B308" s="10">
+      <c r="B308" s="9">
         <f>DATE(2012,Sheet2!$A308,Sheet2!$B308)+Sheet2!D308</f>
         <v>41211.709722222222</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A309" s="10">
+      <c r="A309" s="9">
         <f>DATE(2012,Sheet2!$A309,Sheet2!$B309)+Sheet2!C309</f>
         <v>41212.254861111112</v>
       </c>
-      <c r="B309" s="10">
+      <c r="B309" s="9">
         <f>DATE(2012,Sheet2!$A309,Sheet2!$B309)+Sheet2!D309</f>
         <v>41212.709027777775</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A310" s="10">
+      <c r="A310" s="9">
         <f>DATE(2012,Sheet2!$A310,Sheet2!$B310)+Sheet2!C310</f>
         <v>41213.255555555559</v>
       </c>
-      <c r="B310" s="10">
+      <c r="B310" s="9">
         <f>DATE(2012,Sheet2!$A310,Sheet2!$B310)+Sheet2!D310</f>
         <v>41213.708333333336</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A311" s="10">
+      <c r="A311" s="9">
         <f>DATE(2012,Sheet2!$A311,Sheet2!$B311)+Sheet2!C311</f>
         <v>41214.256249999999</v>
       </c>
-      <c r="B311" s="10">
+      <c r="B311" s="9">
         <f>DATE(2012,Sheet2!$A311,Sheet2!$B311)+Sheet2!D311</f>
         <v>41214.714583333334</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A312" s="10">
+      <c r="A312" s="9">
         <f>DATE(2012,Sheet2!$A312,Sheet2!$B312)+Sheet2!C312</f>
         <v>41215.25</v>
       </c>
-      <c r="B312" s="10">
+      <c r="B312" s="9">
         <f>DATE(2012,Sheet2!$A312,Sheet2!$B312)+Sheet2!D312</f>
         <v>41215.713888888888</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A313" s="10">
+      <c r="A313" s="9">
         <f>DATE(2012,Sheet2!$A313,Sheet2!$B313)+Sheet2!C313</f>
         <v>41216.250694444447</v>
       </c>
-      <c r="B313" s="10">
+      <c r="B313" s="9">
         <f>DATE(2012,Sheet2!$A313,Sheet2!$B313)+Sheet2!D313</f>
         <v>41216.713194444441</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A314" s="10">
+      <c r="A314" s="9">
         <f>DATE(2012,Sheet2!$A314,Sheet2!$B314)+Sheet2!C314</f>
         <v>41217.251388888886</v>
       </c>
-      <c r="B314" s="10">
+      <c r="B314" s="9">
         <f>DATE(2012,Sheet2!$A314,Sheet2!$B314)+Sheet2!D314</f>
         <v>41217.712500000001</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A315" s="10">
+      <c r="A315" s="9">
         <f>DATE(2012,Sheet2!$A315,Sheet2!$B315)+Sheet2!C315</f>
         <v>41218.252083333333</v>
       </c>
-      <c r="B315" s="10">
+      <c r="B315" s="9">
         <f>DATE(2012,Sheet2!$A315,Sheet2!$B315)+Sheet2!D315</f>
         <v>41218.711805555555</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A316" s="10">
+      <c r="A316" s="9">
         <f>DATE(2012,Sheet2!$A316,Sheet2!$B316)+Sheet2!C316</f>
         <v>41219.25277777778</v>
       </c>
-      <c r="B316" s="10">
+      <c r="B316" s="9">
         <f>DATE(2012,Sheet2!$A316,Sheet2!$B316)+Sheet2!D316</f>
         <v>41219.711805555555</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A317" s="10">
+      <c r="A317" s="9">
         <f>DATE(2012,Sheet2!$A317,Sheet2!$B317)+Sheet2!C317</f>
         <v>41220.253472222219</v>
       </c>
-      <c r="B317" s="10">
+      <c r="B317" s="9">
         <f>DATE(2012,Sheet2!$A317,Sheet2!$B317)+Sheet2!D317</f>
         <v>41220.711111111108</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A318" s="10">
+      <c r="A318" s="9">
         <f>DATE(2012,Sheet2!$A318,Sheet2!$B318)+Sheet2!C318</f>
         <v>41221.254166666666</v>
       </c>
-      <c r="B318" s="10">
+      <c r="B318" s="9">
         <f>DATE(2012,Sheet2!$A318,Sheet2!$B318)+Sheet2!D318</f>
         <v>41221.710416666669</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A319" s="10">
+      <c r="A319" s="9">
         <f>DATE(2012,Sheet2!$A319,Sheet2!$B319)+Sheet2!C319</f>
         <v>41222.254861111112</v>
       </c>
-      <c r="B319" s="10">
+      <c r="B319" s="9">
         <f>DATE(2012,Sheet2!$A319,Sheet2!$B319)+Sheet2!D319</f>
         <v>41222.709722222222</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A320" s="10">
+      <c r="A320" s="9">
         <f>DATE(2012,Sheet2!$A320,Sheet2!$B320)+Sheet2!C320</f>
         <v>41223.255555555559</v>
       </c>
-      <c r="B320" s="10">
+      <c r="B320" s="9">
         <f>DATE(2012,Sheet2!$A320,Sheet2!$B320)+Sheet2!D320</f>
         <v>41223.709027777775</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A321" s="10">
+      <c r="A321" s="9">
         <f>DATE(2012,Sheet2!$A321,Sheet2!$B321)+Sheet2!C321</f>
         <v>41224.256249999999</v>
       </c>
-      <c r="B321" s="10">
+      <c r="B321" s="9">
         <f>DATE(2012,Sheet2!$A321,Sheet2!$B321)+Sheet2!D321</f>
         <v>41224.709027777775</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A322" s="10">
+      <c r="A322" s="9">
         <f>DATE(2012,Sheet2!$A322,Sheet2!$B322)+Sheet2!C322</f>
         <v>41225.25</v>
       </c>
-      <c r="B322" s="10">
+      <c r="B322" s="9">
         <f>DATE(2012,Sheet2!$A322,Sheet2!$B322)+Sheet2!D322</f>
         <v>41225.708333333336</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A323" s="10">
+      <c r="A323" s="9">
         <f>DATE(2012,Sheet2!$A323,Sheet2!$B323)+Sheet2!C323</f>
         <v>41226.250694444447</v>
       </c>
-      <c r="B323" s="10">
+      <c r="B323" s="9">
         <f>DATE(2012,Sheet2!$A323,Sheet2!$B323)+Sheet2!D323</f>
         <v>41226.714583333334</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A324" s="10">
+      <c r="A324" s="9">
         <f>DATE(2012,Sheet2!$A324,Sheet2!$B324)+Sheet2!C324</f>
         <v>41227.251388888886</v>
       </c>
-      <c r="B324" s="10">
+      <c r="B324" s="9">
         <f>DATE(2012,Sheet2!$A324,Sheet2!$B324)+Sheet2!D324</f>
         <v>41227.713888888888</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A325" s="10">
+      <c r="A325" s="9">
         <f>DATE(2012,Sheet2!$A325,Sheet2!$B325)+Sheet2!C325</f>
         <v>41228.252083333333</v>
       </c>
-      <c r="B325" s="10">
+      <c r="B325" s="9">
         <f>DATE(2012,Sheet2!$A325,Sheet2!$B325)+Sheet2!D325</f>
         <v>41228.713888888888</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A326" s="10">
+      <c r="A326" s="9">
         <f>DATE(2012,Sheet2!$A326,Sheet2!$B326)+Sheet2!C326</f>
         <v>41229.25277777778</v>
       </c>
-      <c r="B326" s="10">
+      <c r="B326" s="9">
         <f>DATE(2012,Sheet2!$A326,Sheet2!$B326)+Sheet2!D326</f>
         <v>41229.713194444441</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A327" s="10">
+      <c r="A327" s="9">
         <f>DATE(2012,Sheet2!$A327,Sheet2!$B327)+Sheet2!C327</f>
         <v>41230.253472222219</v>
       </c>
-      <c r="B327" s="10">
+      <c r="B327" s="9">
         <f>DATE(2012,Sheet2!$A327,Sheet2!$B327)+Sheet2!D327</f>
         <v>41230.713194444441</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A328" s="10">
+      <c r="A328" s="9">
         <f>DATE(2012,Sheet2!$A328,Sheet2!$B328)+Sheet2!C328</f>
         <v>41231.254166666666</v>
       </c>
-      <c r="B328" s="10">
+      <c r="B328" s="9">
         <f>DATE(2012,Sheet2!$A328,Sheet2!$B328)+Sheet2!D328</f>
         <v>41231.712500000001</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A329" s="10">
+      <c r="A329" s="9">
         <f>DATE(2012,Sheet2!$A329,Sheet2!$B329)+Sheet2!C329</f>
         <v>41232.254861111112</v>
       </c>
-      <c r="B329" s="10">
+      <c r="B329" s="9">
         <f>DATE(2012,Sheet2!$A329,Sheet2!$B329)+Sheet2!D329</f>
         <v>41232.711805555555</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A330" s="10">
+      <c r="A330" s="9">
         <f>DATE(2012,Sheet2!$A330,Sheet2!$B330)+Sheet2!C330</f>
         <v>41233.255555555559</v>
       </c>
-      <c r="B330" s="10">
+      <c r="B330" s="9">
         <f>DATE(2012,Sheet2!$A330,Sheet2!$B330)+Sheet2!D330</f>
         <v>41233.711805555555</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A331" s="10">
+      <c r="A331" s="9">
         <f>DATE(2012,Sheet2!$A331,Sheet2!$B331)+Sheet2!C331</f>
         <v>41234.256249999999</v>
       </c>
-      <c r="B331" s="10">
+      <c r="B331" s="9">
         <f>DATE(2012,Sheet2!$A331,Sheet2!$B331)+Sheet2!D331</f>
         <v>41234.711111111108</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A332" s="10">
+      <c r="A332" s="9">
         <f>DATE(2012,Sheet2!$A332,Sheet2!$B332)+Sheet2!C332</f>
         <v>41235.291666666664</v>
       </c>
-      <c r="B332" s="10">
+      <c r="B332" s="9">
         <f>DATE(2012,Sheet2!$A332,Sheet2!$B332)+Sheet2!D332</f>
         <v>41235.711111111108</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A333" s="10">
+      <c r="A333" s="9">
         <f>DATE(2012,Sheet2!$A333,Sheet2!$B333)+Sheet2!C333</f>
         <v>41236.292361111111</v>
       </c>
-      <c r="B333" s="10">
+      <c r="B333" s="9">
         <f>DATE(2012,Sheet2!$A333,Sheet2!$B333)+Sheet2!D333</f>
         <v>41236.711111111108</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A334" s="10">
+      <c r="A334" s="9">
         <f>DATE(2012,Sheet2!$A334,Sheet2!$B334)+Sheet2!C334</f>
         <v>41237.293055555558</v>
       </c>
-      <c r="B334" s="10">
+      <c r="B334" s="9">
         <f>DATE(2012,Sheet2!$A334,Sheet2!$B334)+Sheet2!D334</f>
         <v>41237.710416666669</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A335" s="10">
+      <c r="A335" s="9">
         <f>DATE(2012,Sheet2!$A335,Sheet2!$B335)+Sheet2!C335</f>
         <v>41238.293749999997</v>
       </c>
-      <c r="B335" s="10">
+      <c r="B335" s="9">
         <f>DATE(2012,Sheet2!$A335,Sheet2!$B335)+Sheet2!D335</f>
         <v>41238.710416666669</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A336" s="10">
+      <c r="A336" s="9">
         <f>DATE(2012,Sheet2!$A336,Sheet2!$B336)+Sheet2!C336</f>
         <v>41239.293749999997</v>
       </c>
-      <c r="B336" s="10">
+      <c r="B336" s="9">
         <f>DATE(2012,Sheet2!$A336,Sheet2!$B336)+Sheet2!D336</f>
         <v>41239.710416666669</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A337" s="10">
+      <c r="A337" s="9">
         <f>DATE(2012,Sheet2!$A337,Sheet2!$B337)+Sheet2!C337</f>
         <v>41240.294444444444</v>
       </c>
-      <c r="B337" s="10">
+      <c r="B337" s="9">
         <f>DATE(2012,Sheet2!$A337,Sheet2!$B337)+Sheet2!D337</f>
         <v>41240.709722222222</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A338" s="10">
+      <c r="A338" s="9">
         <f>DATE(2012,Sheet2!$A338,Sheet2!$B338)+Sheet2!C338</f>
         <v>41241.295138888891</v>
       </c>
-      <c r="B338" s="10">
+      <c r="B338" s="9">
         <f>DATE(2012,Sheet2!$A338,Sheet2!$B338)+Sheet2!D338</f>
         <v>41241.709722222222</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A339" s="10">
+      <c r="A339" s="9">
         <f>DATE(2012,Sheet2!$A339,Sheet2!$B339)+Sheet2!C339</f>
         <v>41242.29583333333</v>
       </c>
-      <c r="B339" s="10">
+      <c r="B339" s="9">
         <f>DATE(2012,Sheet2!$A339,Sheet2!$B339)+Sheet2!D339</f>
         <v>41242.709722222222</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A340" s="10">
+      <c r="A340" s="9">
         <f>DATE(2012,Sheet2!$A340,Sheet2!$B340)+Sheet2!C340</f>
         <v>41243.296527777777</v>
       </c>
-      <c r="B340" s="10">
+      <c r="B340" s="9">
         <f>DATE(2012,Sheet2!$A340,Sheet2!$B340)+Sheet2!D340</f>
         <v>41243.709722222222</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A341" s="10">
+      <c r="A341" s="9">
         <f>DATE(2012,Sheet2!$A341,Sheet2!$B341)+Sheet2!C341</f>
         <v>41244.297222222223</v>
       </c>
-      <c r="B341" s="10">
+      <c r="B341" s="9">
         <f>DATE(2012,Sheet2!$A341,Sheet2!$B341)+Sheet2!D341</f>
         <v>41244.709027777775</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A342" s="10">
+      <c r="A342" s="9">
         <f>DATE(2012,Sheet2!$A342,Sheet2!$B342)+Sheet2!C342</f>
         <v>41245.29791666667</v>
       </c>
-      <c r="B342" s="10">
+      <c r="B342" s="9">
         <f>DATE(2012,Sheet2!$A342,Sheet2!$B342)+Sheet2!D342</f>
         <v>41245.709027777775</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A343" s="10">
+      <c r="A343" s="9">
         <f>DATE(2012,Sheet2!$A343,Sheet2!$B343)+Sheet2!C343</f>
         <v>41246.291666666664</v>
       </c>
-      <c r="B343" s="10">
+      <c r="B343" s="9">
         <f>DATE(2012,Sheet2!$A343,Sheet2!$B343)+Sheet2!D343</f>
         <v>41246.709027777775</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A344" s="10">
+      <c r="A344" s="9">
         <f>DATE(2012,Sheet2!$A344,Sheet2!$B344)+Sheet2!C344</f>
         <v>41247.292361111111</v>
       </c>
-      <c r="B344" s="10">
+      <c r="B344" s="9">
         <f>DATE(2012,Sheet2!$A344,Sheet2!$B344)+Sheet2!D344</f>
         <v>41247.709027777775</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A345" s="10">
+      <c r="A345" s="9">
         <f>DATE(2012,Sheet2!$A345,Sheet2!$B345)+Sheet2!C345</f>
         <v>41248.293055555558</v>
       </c>
-      <c r="B345" s="10">
+      <c r="B345" s="9">
         <f>DATE(2012,Sheet2!$A345,Sheet2!$B345)+Sheet2!D345</f>
         <v>41248.709027777775</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A346" s="10">
+      <c r="A346" s="9">
         <f>DATE(2012,Sheet2!$A346,Sheet2!$B346)+Sheet2!C346</f>
         <v>41249.293055555558</v>
       </c>
-      <c r="B346" s="10">
+      <c r="B346" s="9">
         <f>DATE(2012,Sheet2!$A346,Sheet2!$B346)+Sheet2!D346</f>
         <v>41249.709027777775</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A347" s="10">
+      <c r="A347" s="9">
         <f>DATE(2012,Sheet2!$A347,Sheet2!$B347)+Sheet2!C347</f>
         <v>41250.293749999997</v>
       </c>
-      <c r="B347" s="10">
+      <c r="B347" s="9">
         <f>DATE(2012,Sheet2!$A347,Sheet2!$B347)+Sheet2!D347</f>
         <v>41250.709027777775</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A348" s="10">
+      <c r="A348" s="9">
         <f>DATE(2012,Sheet2!$A348,Sheet2!$B348)+Sheet2!C348</f>
         <v>41251.294444444444</v>
       </c>
-      <c r="B348" s="10">
+      <c r="B348" s="9">
         <f>DATE(2012,Sheet2!$A348,Sheet2!$B348)+Sheet2!D348</f>
         <v>41251.709027777775</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A349" s="10">
+      <c r="A349" s="9">
         <f>DATE(2012,Sheet2!$A349,Sheet2!$B349)+Sheet2!C349</f>
         <v>41252.295138888891</v>
       </c>
-      <c r="B349" s="10">
+      <c r="B349" s="9">
         <f>DATE(2012,Sheet2!$A349,Sheet2!$B349)+Sheet2!D349</f>
         <v>41252.709722222222</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A350" s="10">
+      <c r="A350" s="9">
         <f>DATE(2012,Sheet2!$A350,Sheet2!$B350)+Sheet2!C350</f>
         <v>41253.29583333333</v>
       </c>
-      <c r="B350" s="10">
+      <c r="B350" s="9">
         <f>DATE(2012,Sheet2!$A350,Sheet2!$B350)+Sheet2!D350</f>
         <v>41253.709722222222</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A351" s="10">
+      <c r="A351" s="9">
         <f>DATE(2012,Sheet2!$A351,Sheet2!$B351)+Sheet2!C351</f>
         <v>41254.29583333333</v>
       </c>
-      <c r="B351" s="10">
+      <c r="B351" s="9">
         <f>DATE(2012,Sheet2!$A351,Sheet2!$B351)+Sheet2!D351</f>
         <v>41254.709722222222</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A352" s="10">
+      <c r="A352" s="9">
         <f>DATE(2012,Sheet2!$A352,Sheet2!$B352)+Sheet2!C352</f>
         <v>41255.296527777777</v>
       </c>
-      <c r="B352" s="10">
+      <c r="B352" s="9">
         <f>DATE(2012,Sheet2!$A352,Sheet2!$B352)+Sheet2!D352</f>
         <v>41255.709722222222</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A353" s="10">
+      <c r="A353" s="9">
         <f>DATE(2012,Sheet2!$A353,Sheet2!$B353)+Sheet2!C353</f>
         <v>41256.297222222223</v>
       </c>
-      <c r="B353" s="10">
+      <c r="B353" s="9">
         <f>DATE(2012,Sheet2!$A353,Sheet2!$B353)+Sheet2!D353</f>
         <v>41256.709722222222</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A354" s="10">
+      <c r="A354" s="9">
         <f>DATE(2012,Sheet2!$A354,Sheet2!$B354)+Sheet2!C354</f>
         <v>41257.29791666667</v>
       </c>
-      <c r="B354" s="10">
+      <c r="B354" s="9">
         <f>DATE(2012,Sheet2!$A354,Sheet2!$B354)+Sheet2!D354</f>
         <v>41257.710416666669</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A355" s="10">
+      <c r="A355" s="9">
         <f>DATE(2012,Sheet2!$A355,Sheet2!$B355)+Sheet2!C355</f>
         <v>41258.29791666667</v>
       </c>
-      <c r="B355" s="10">
+      <c r="B355" s="9">
         <f>DATE(2012,Sheet2!$A355,Sheet2!$B355)+Sheet2!D355</f>
         <v>41258.710416666669</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A356" s="10">
+      <c r="A356" s="9">
         <f>DATE(2012,Sheet2!$A356,Sheet2!$B356)+Sheet2!C356</f>
         <v>41259.291666666664</v>
       </c>
-      <c r="B356" s="10">
+      <c r="B356" s="9">
         <f>DATE(2012,Sheet2!$A356,Sheet2!$B356)+Sheet2!D356</f>
         <v>41259.710416666669</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A357" s="10">
+      <c r="A357" s="9">
         <f>DATE(2012,Sheet2!$A357,Sheet2!$B357)+Sheet2!C357</f>
         <v>41260.291666666664</v>
       </c>
-      <c r="B357" s="10">
+      <c r="B357" s="9">
         <f>DATE(2012,Sheet2!$A357,Sheet2!$B357)+Sheet2!D357</f>
         <v>41260.711111111108</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A358" s="10">
+      <c r="A358" s="9">
         <f>DATE(2012,Sheet2!$A358,Sheet2!$B358)+Sheet2!C358</f>
         <v>41261.292361111111</v>
       </c>
-      <c r="B358" s="10">
+      <c r="B358" s="9">
         <f>DATE(2012,Sheet2!$A358,Sheet2!$B358)+Sheet2!D358</f>
         <v>41261.711111111108</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A359" s="10">
+      <c r="A359" s="9">
         <f>DATE(2012,Sheet2!$A359,Sheet2!$B359)+Sheet2!C359</f>
         <v>41262.293055555558</v>
       </c>
-      <c r="B359" s="10">
+      <c r="B359" s="9">
         <f>DATE(2012,Sheet2!$A359,Sheet2!$B359)+Sheet2!D359</f>
         <v>41262.711111111108</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A360" s="10">
+      <c r="A360" s="9">
         <f>DATE(2012,Sheet2!$A360,Sheet2!$B360)+Sheet2!C360</f>
         <v>41263.293055555558</v>
       </c>
-      <c r="B360" s="10">
+      <c r="B360" s="9">
         <f>DATE(2012,Sheet2!$A360,Sheet2!$B360)+Sheet2!D360</f>
         <v>41263.711805555555</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A361" s="10">
+      <c r="A361" s="9">
         <f>DATE(2012,Sheet2!$A361,Sheet2!$B361)+Sheet2!C361</f>
         <v>41264.293749999997</v>
       </c>
-      <c r="B361" s="10">
+      <c r="B361" s="9">
         <f>DATE(2012,Sheet2!$A361,Sheet2!$B361)+Sheet2!D361</f>
         <v>41264.711805555555</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A362" s="10">
+      <c r="A362" s="9">
         <f>DATE(2012,Sheet2!$A362,Sheet2!$B362)+Sheet2!C362</f>
         <v>41265.293749999997</v>
       </c>
-      <c r="B362" s="10">
+      <c r="B362" s="9">
         <f>DATE(2012,Sheet2!$A362,Sheet2!$B362)+Sheet2!D362</f>
         <v>41265.712500000001</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A363" s="10">
+      <c r="A363" s="9">
         <f>DATE(2012,Sheet2!$A363,Sheet2!$B363)+Sheet2!C363</f>
         <v>41266.294444444444</v>
       </c>
-      <c r="B363" s="10">
+      <c r="B363" s="9">
         <f>DATE(2012,Sheet2!$A363,Sheet2!$B363)+Sheet2!D363</f>
         <v>41266.713194444441</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A364" s="10">
+      <c r="A364" s="9">
         <f>DATE(2012,Sheet2!$A364,Sheet2!$B364)+Sheet2!C364</f>
         <v>41267.294444444444</v>
       </c>
-      <c r="B364" s="10">
+      <c r="B364" s="9">
         <f>DATE(2012,Sheet2!$A364,Sheet2!$B364)+Sheet2!D364</f>
         <v>41267.713194444441</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A365" s="10">
+      <c r="A365" s="9">
         <f>DATE(2012,Sheet2!$A365,Sheet2!$B365)+Sheet2!C365</f>
         <v>41268.294444444444</v>
       </c>
-      <c r="B365" s="10">
+      <c r="B365" s="9">
         <f>DATE(2012,Sheet2!$A365,Sheet2!$B365)+Sheet2!D365</f>
         <v>41268.713888888888</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A366" s="10">
+      <c r="A366" s="9">
         <f>DATE(2012,Sheet2!$A366,Sheet2!$B366)+Sheet2!C366</f>
         <v>41269.295138888891</v>
       </c>
-      <c r="B366" s="10">
+      <c r="B366" s="9">
         <f>DATE(2012,Sheet2!$A366,Sheet2!$B366)+Sheet2!D366</f>
         <v>41269.713888888888</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A367" s="10">
+      <c r="A367" s="9">
         <f>DATE(2012,Sheet2!$A367,Sheet2!$B367)+Sheet2!C367</f>
         <v>41270.295138888891</v>
       </c>
-      <c r="B367" s="10">
+      <c r="B367" s="9">
         <f>DATE(2012,Sheet2!$A367,Sheet2!$B367)+Sheet2!D367</f>
         <v>41270.714583333334</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A368" s="10">
+      <c r="A368" s="9">
         <f>DATE(2012,Sheet2!$A368,Sheet2!$B368)+Sheet2!C368</f>
         <v>41271.295138888891</v>
       </c>
-      <c r="B368" s="10">
+      <c r="B368" s="9">
         <f>DATE(2012,Sheet2!$A368,Sheet2!$B368)+Sheet2!D368</f>
         <v>41271.708333333336</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A369" s="10">
+      <c r="A369" s="9">
         <f>DATE(2012,Sheet2!$A369,Sheet2!$B369)+Sheet2!C369</f>
         <v>41272.29583333333</v>
       </c>
-      <c r="B369" s="10">
+      <c r="B369" s="9">
         <f>DATE(2012,Sheet2!$A369,Sheet2!$B369)+Sheet2!D369</f>
         <v>41272.708333333336</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A370" s="10">
+      <c r="A370" s="9">
         <f>DATE(2012,Sheet2!$A370,Sheet2!$B370)+Sheet2!C370</f>
         <v>41273.29583333333</v>
       </c>
-      <c r="B370" s="10">
+      <c r="B370" s="9">
         <f>DATE(2012,Sheet2!$A370,Sheet2!$B370)+Sheet2!D370</f>
         <v>41273.709027777775</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A371" s="10">
+      <c r="A371" s="9">
         <f>DATE(2012,Sheet2!$A371,Sheet2!$B371)+Sheet2!C371</f>
         <v>41274.29583333333</v>
       </c>
-      <c r="B371" s="10">
+      <c r="B371" s="9">
         <f>DATE(2012,Sheet2!$A371,Sheet2!$B371)+Sheet2!D371</f>
         <v>41274.709722222222</v>
       </c>
@@ -17691,7 +17691,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E370"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
@@ -17703,11 +17703,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
       <c r="D1" t="s">
         <v>315</v>
       </c>
@@ -17716,28 +17716,28 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="12" t="s">
         <v>314</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="10">
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="9">
         <f>DATE(2012,3,11)+TIME(2,0,0)</f>
         <v>40979.083333333336</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E2" s="9">
         <f>DATE(2012,11,4)+TIME(1,0,0)</f>
         <v>41217.041666666664</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -17748,3661 +17748,3661 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="10">
+      <c r="A5" s="9">
         <f>IF(AND(EST!A6&gt;='ET - DST adjusted'!$D$2,EST!A6&lt;='ET - DST adjusted'!$E$2),EST!A6+1/24,EST!A6)</f>
         <v>40909.29583333333</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="9">
         <f>IF(AND(EST!B6&gt;='ET - DST adjusted'!$D$2,EST!B6&lt;='ET - DST adjusted'!$E$2),EST!B6+1/24,EST!B6)</f>
         <v>40909.709722222222</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="10">
+      <c r="A6" s="9">
         <f>IF(AND(EST!A7&gt;='ET - DST adjusted'!$D$2,EST!A7&lt;='ET - DST adjusted'!$E$2),EST!A7+1/24,EST!A7)</f>
         <v>40910.29583333333</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="9">
         <f>IF(AND(EST!B7&gt;='ET - DST adjusted'!$D$2,EST!B7&lt;='ET - DST adjusted'!$E$2),EST!B7+1/24,EST!B7)</f>
         <v>40910.710416666669</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="10">
+      <c r="A7" s="9">
         <f>IF(AND(EST!A8&gt;='ET - DST adjusted'!$D$2,EST!A8&lt;='ET - DST adjusted'!$E$2),EST!A8+1/24,EST!A8)</f>
         <v>40911.296527777777</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="9">
         <f>IF(AND(EST!B8&gt;='ET - DST adjusted'!$D$2,EST!B8&lt;='ET - DST adjusted'!$E$2),EST!B8+1/24,EST!B8)</f>
         <v>40911.711111111108</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="10">
+      <c r="A8" s="9">
         <f>IF(AND(EST!A9&gt;='ET - DST adjusted'!$D$2,EST!A9&lt;='ET - DST adjusted'!$E$2),EST!A9+1/24,EST!A9)</f>
         <v>40912.296527777777</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="9">
         <f>IF(AND(EST!B9&gt;='ET - DST adjusted'!$D$2,EST!B9&lt;='ET - DST adjusted'!$E$2),EST!B9+1/24,EST!B9)</f>
         <v>40912.711111111108</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="10">
+      <c r="A9" s="9">
         <f>IF(AND(EST!A10&gt;='ET - DST adjusted'!$D$2,EST!A10&lt;='ET - DST adjusted'!$E$2),EST!A10+1/24,EST!A10)</f>
         <v>40913.296527777777</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="9">
         <f>IF(AND(EST!B10&gt;='ET - DST adjusted'!$D$2,EST!B10&lt;='ET - DST adjusted'!$E$2),EST!B10+1/24,EST!B10)</f>
         <v>40913.711805555555</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="10">
+      <c r="A10" s="9">
         <f>IF(AND(EST!A11&gt;='ET - DST adjusted'!$D$2,EST!A11&lt;='ET - DST adjusted'!$E$2),EST!A11+1/24,EST!A11)</f>
         <v>40914.296527777777</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10" s="9">
         <f>IF(AND(EST!B11&gt;='ET - DST adjusted'!$D$2,EST!B11&lt;='ET - DST adjusted'!$E$2),EST!B11+1/24,EST!B11)</f>
         <v>40914.712500000001</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="10">
+      <c r="A11" s="9">
         <f>IF(AND(EST!A12&gt;='ET - DST adjusted'!$D$2,EST!A12&lt;='ET - DST adjusted'!$E$2),EST!A12+1/24,EST!A12)</f>
         <v>40915.296527777777</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B11" s="9">
         <f>IF(AND(EST!B12&gt;='ET - DST adjusted'!$D$2,EST!B12&lt;='ET - DST adjusted'!$E$2),EST!B12+1/24,EST!B12)</f>
         <v>40915.713194444441</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="10">
+      <c r="A12" s="9">
         <f>IF(AND(EST!A13&gt;='ET - DST adjusted'!$D$2,EST!A13&lt;='ET - DST adjusted'!$E$2),EST!A13+1/24,EST!A13)</f>
         <v>40916.296527777777</v>
       </c>
-      <c r="B12" s="10">
+      <c r="B12" s="9">
         <f>IF(AND(EST!B13&gt;='ET - DST adjusted'!$D$2,EST!B13&lt;='ET - DST adjusted'!$E$2),EST!B13+1/24,EST!B13)</f>
         <v>40916.713888888888</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="10">
+      <c r="A13" s="9">
         <f>IF(AND(EST!A14&gt;='ET - DST adjusted'!$D$2,EST!A14&lt;='ET - DST adjusted'!$E$2),EST!A14+1/24,EST!A14)</f>
         <v>40917.296527777777</v>
       </c>
-      <c r="B13" s="10">
+      <c r="B13" s="9">
         <f>IF(AND(EST!B14&gt;='ET - DST adjusted'!$D$2,EST!B14&lt;='ET - DST adjusted'!$E$2),EST!B14+1/24,EST!B14)</f>
         <v>40917.714583333334</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="10">
+      <c r="A14" s="9">
         <f>IF(AND(EST!A15&gt;='ET - DST adjusted'!$D$2,EST!A15&lt;='ET - DST adjusted'!$E$2),EST!A15+1/24,EST!A15)</f>
         <v>40918.296527777777</v>
       </c>
-      <c r="B14" s="10">
+      <c r="B14" s="9">
         <f>IF(AND(EST!B15&gt;='ET - DST adjusted'!$D$2,EST!B15&lt;='ET - DST adjusted'!$E$2),EST!B15+1/24,EST!B15)</f>
         <v>40918.708333333336</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="10">
+      <c r="A15" s="9">
         <f>IF(AND(EST!A16&gt;='ET - DST adjusted'!$D$2,EST!A16&lt;='ET - DST adjusted'!$E$2),EST!A16+1/24,EST!A16)</f>
         <v>40919.29583333333</v>
       </c>
-      <c r="B15" s="10">
+      <c r="B15" s="9">
         <f>IF(AND(EST!B16&gt;='ET - DST adjusted'!$D$2,EST!B16&lt;='ET - DST adjusted'!$E$2),EST!B16+1/24,EST!B16)</f>
         <v>40919.709027777775</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="10">
+      <c r="A16" s="9">
         <f>IF(AND(EST!A17&gt;='ET - DST adjusted'!$D$2,EST!A17&lt;='ET - DST adjusted'!$E$2),EST!A17+1/24,EST!A17)</f>
         <v>40920.29583333333</v>
       </c>
-      <c r="B16" s="10">
+      <c r="B16" s="9">
         <f>IF(AND(EST!B17&gt;='ET - DST adjusted'!$D$2,EST!B17&lt;='ET - DST adjusted'!$E$2),EST!B17+1/24,EST!B17)</f>
         <v>40920.709722222222</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="10">
+      <c r="A17" s="9">
         <f>IF(AND(EST!A18&gt;='ET - DST adjusted'!$D$2,EST!A18&lt;='ET - DST adjusted'!$E$2),EST!A18+1/24,EST!A18)</f>
         <v>40921.29583333333</v>
       </c>
-      <c r="B17" s="10">
+      <c r="B17" s="9">
         <f>IF(AND(EST!B18&gt;='ET - DST adjusted'!$D$2,EST!B18&lt;='ET - DST adjusted'!$E$2),EST!B18+1/24,EST!B18)</f>
         <v>40921.710416666669</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="10">
+      <c r="A18" s="9">
         <f>IF(AND(EST!A19&gt;='ET - DST adjusted'!$D$2,EST!A19&lt;='ET - DST adjusted'!$E$2),EST!A19+1/24,EST!A19)</f>
         <v>40922.29583333333</v>
       </c>
-      <c r="B18" s="10">
+      <c r="B18" s="9">
         <f>IF(AND(EST!B19&gt;='ET - DST adjusted'!$D$2,EST!B19&lt;='ET - DST adjusted'!$E$2),EST!B19+1/24,EST!B19)</f>
         <v>40922.711111111108</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="10">
+      <c r="A19" s="9">
         <f>IF(AND(EST!A20&gt;='ET - DST adjusted'!$D$2,EST!A20&lt;='ET - DST adjusted'!$E$2),EST!A20+1/24,EST!A20)</f>
         <v>40923.29583333333</v>
       </c>
-      <c r="B19" s="10">
+      <c r="B19" s="9">
         <f>IF(AND(EST!B20&gt;='ET - DST adjusted'!$D$2,EST!B20&lt;='ET - DST adjusted'!$E$2),EST!B20+1/24,EST!B20)</f>
         <v>40923.711111111108</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="10">
+      <c r="A20" s="9">
         <f>IF(AND(EST!A21&gt;='ET - DST adjusted'!$D$2,EST!A21&lt;='ET - DST adjusted'!$E$2),EST!A21+1/24,EST!A21)</f>
         <v>40924.295138888891</v>
       </c>
-      <c r="B20" s="10">
+      <c r="B20" s="9">
         <f>IF(AND(EST!B21&gt;='ET - DST adjusted'!$D$2,EST!B21&lt;='ET - DST adjusted'!$E$2),EST!B21+1/24,EST!B21)</f>
         <v>40924.711805555555</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="10">
+      <c r="A21" s="9">
         <f>IF(AND(EST!A22&gt;='ET - DST adjusted'!$D$2,EST!A22&lt;='ET - DST adjusted'!$E$2),EST!A22+1/24,EST!A22)</f>
         <v>40925.295138888891</v>
       </c>
-      <c r="B21" s="10">
+      <c r="B21" s="9">
         <f>IF(AND(EST!B22&gt;='ET - DST adjusted'!$D$2,EST!B22&lt;='ET - DST adjusted'!$E$2),EST!B22+1/24,EST!B22)</f>
         <v>40925.712500000001</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="10">
+      <c r="A22" s="9">
         <f>IF(AND(EST!A23&gt;='ET - DST adjusted'!$D$2,EST!A23&lt;='ET - DST adjusted'!$E$2),EST!A23+1/24,EST!A23)</f>
         <v>40926.295138888891</v>
       </c>
-      <c r="B22" s="10">
+      <c r="B22" s="9">
         <f>IF(AND(EST!B23&gt;='ET - DST adjusted'!$D$2,EST!B23&lt;='ET - DST adjusted'!$E$2),EST!B23+1/24,EST!B23)</f>
         <v>40926.713194444441</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="10">
+      <c r="A23" s="9">
         <f>IF(AND(EST!A24&gt;='ET - DST adjusted'!$D$2,EST!A24&lt;='ET - DST adjusted'!$E$2),EST!A24+1/24,EST!A24)</f>
         <v>40927.294444444444</v>
       </c>
-      <c r="B23" s="10">
+      <c r="B23" s="9">
         <f>IF(AND(EST!B24&gt;='ET - DST adjusted'!$D$2,EST!B24&lt;='ET - DST adjusted'!$E$2),EST!B24+1/24,EST!B24)</f>
         <v>40927.714583333334</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="10">
+      <c r="A24" s="9">
         <f>IF(AND(EST!A25&gt;='ET - DST adjusted'!$D$2,EST!A25&lt;='ET - DST adjusted'!$E$2),EST!A25+1/24,EST!A25)</f>
         <v>40928.294444444444</v>
       </c>
-      <c r="B24" s="10">
+      <c r="B24" s="9">
         <f>IF(AND(EST!B25&gt;='ET - DST adjusted'!$D$2,EST!B25&lt;='ET - DST adjusted'!$E$2),EST!B25+1/24,EST!B25)</f>
         <v>40928.708333333336</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="10">
+      <c r="A25" s="9">
         <f>IF(AND(EST!A26&gt;='ET - DST adjusted'!$D$2,EST!A26&lt;='ET - DST adjusted'!$E$2),EST!A26+1/24,EST!A26)</f>
         <v>40929.293749999997</v>
       </c>
-      <c r="B25" s="10">
+      <c r="B25" s="9">
         <f>IF(AND(EST!B26&gt;='ET - DST adjusted'!$D$2,EST!B26&lt;='ET - DST adjusted'!$E$2),EST!B26+1/24,EST!B26)</f>
         <v>40929.709027777775</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="10">
+      <c r="A26" s="9">
         <f>IF(AND(EST!A27&gt;='ET - DST adjusted'!$D$2,EST!A27&lt;='ET - DST adjusted'!$E$2),EST!A27+1/24,EST!A27)</f>
         <v>40930.293749999997</v>
       </c>
-      <c r="B26" s="10">
+      <c r="B26" s="9">
         <f>IF(AND(EST!B27&gt;='ET - DST adjusted'!$D$2,EST!B27&lt;='ET - DST adjusted'!$E$2),EST!B27+1/24,EST!B27)</f>
         <v>40930.709722222222</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="10">
+      <c r="A27" s="9">
         <f>IF(AND(EST!A28&gt;='ET - DST adjusted'!$D$2,EST!A28&lt;='ET - DST adjusted'!$E$2),EST!A28+1/24,EST!A28)</f>
         <v>40931.293055555558</v>
       </c>
-      <c r="B27" s="10">
+      <c r="B27" s="9">
         <f>IF(AND(EST!B28&gt;='ET - DST adjusted'!$D$2,EST!B28&lt;='ET - DST adjusted'!$E$2),EST!B28+1/24,EST!B28)</f>
         <v>40931.710416666669</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="10">
+      <c r="A28" s="9">
         <f>IF(AND(EST!A29&gt;='ET - DST adjusted'!$D$2,EST!A29&lt;='ET - DST adjusted'!$E$2),EST!A29+1/24,EST!A29)</f>
         <v>40932.293055555558</v>
       </c>
-      <c r="B28" s="10">
+      <c r="B28" s="9">
         <f>IF(AND(EST!B29&gt;='ET - DST adjusted'!$D$2,EST!B29&lt;='ET - DST adjusted'!$E$2),EST!B29+1/24,EST!B29)</f>
         <v>40932.711111111108</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="10">
+      <c r="A29" s="9">
         <f>IF(AND(EST!A30&gt;='ET - DST adjusted'!$D$2,EST!A30&lt;='ET - DST adjusted'!$E$2),EST!A30+1/24,EST!A30)</f>
         <v>40933.292361111111</v>
       </c>
-      <c r="B29" s="10">
+      <c r="B29" s="9">
         <f>IF(AND(EST!B30&gt;='ET - DST adjusted'!$D$2,EST!B30&lt;='ET - DST adjusted'!$E$2),EST!B30+1/24,EST!B30)</f>
         <v>40933.711805555555</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="10">
+      <c r="A30" s="9">
         <f>IF(AND(EST!A31&gt;='ET - DST adjusted'!$D$2,EST!A31&lt;='ET - DST adjusted'!$E$2),EST!A31+1/24,EST!A31)</f>
         <v>40934.292361111111</v>
       </c>
-      <c r="B30" s="10">
+      <c r="B30" s="9">
         <f>IF(AND(EST!B31&gt;='ET - DST adjusted'!$D$2,EST!B31&lt;='ET - DST adjusted'!$E$2),EST!B31+1/24,EST!B31)</f>
         <v>40934.712500000001</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="10">
+      <c r="A31" s="9">
         <f>IF(AND(EST!A32&gt;='ET - DST adjusted'!$D$2,EST!A32&lt;='ET - DST adjusted'!$E$2),EST!A32+1/24,EST!A32)</f>
         <v>40935.291666666664</v>
       </c>
-      <c r="B31" s="10">
+      <c r="B31" s="9">
         <f>IF(AND(EST!B32&gt;='ET - DST adjusted'!$D$2,EST!B32&lt;='ET - DST adjusted'!$E$2),EST!B32+1/24,EST!B32)</f>
         <v>40935.713194444441</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="10">
+      <c r="A32" s="9">
         <f>IF(AND(EST!A33&gt;='ET - DST adjusted'!$D$2,EST!A33&lt;='ET - DST adjusted'!$E$2),EST!A33+1/24,EST!A33)</f>
         <v>40936.291666666664</v>
       </c>
-      <c r="B32" s="10">
+      <c r="B32" s="9">
         <f>IF(AND(EST!B33&gt;='ET - DST adjusted'!$D$2,EST!B33&lt;='ET - DST adjusted'!$E$2),EST!B33+1/24,EST!B33)</f>
         <v>40936.713888888888</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="10">
+      <c r="A33" s="9">
         <f>IF(AND(EST!A34&gt;='ET - DST adjusted'!$D$2,EST!A34&lt;='ET - DST adjusted'!$E$2),EST!A34+1/24,EST!A34)</f>
         <v>40937.29791666667</v>
       </c>
-      <c r="B33" s="10">
+      <c r="B33" s="9">
         <f>IF(AND(EST!B34&gt;='ET - DST adjusted'!$D$2,EST!B34&lt;='ET - DST adjusted'!$E$2),EST!B34+1/24,EST!B34)</f>
         <v>40937.714583333334</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="10">
+      <c r="A34" s="9">
         <f>IF(AND(EST!A35&gt;='ET - DST adjusted'!$D$2,EST!A35&lt;='ET - DST adjusted'!$E$2),EST!A35+1/24,EST!A35)</f>
         <v>40938.297222222223</v>
       </c>
-      <c r="B34" s="10">
+      <c r="B34" s="9">
         <f>IF(AND(EST!B35&gt;='ET - DST adjusted'!$D$2,EST!B35&lt;='ET - DST adjusted'!$E$2),EST!B35+1/24,EST!B35)</f>
         <v>40938.708333333336</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="10">
+      <c r="A35" s="9">
         <f>IF(AND(EST!A36&gt;='ET - DST adjusted'!$D$2,EST!A36&lt;='ET - DST adjusted'!$E$2),EST!A36+1/24,EST!A36)</f>
         <v>40939.296527777777</v>
       </c>
-      <c r="B35" s="10">
+      <c r="B35" s="9">
         <f>IF(AND(EST!B36&gt;='ET - DST adjusted'!$D$2,EST!B36&lt;='ET - DST adjusted'!$E$2),EST!B36+1/24,EST!B36)</f>
         <v>40939.709027777775</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="10">
+      <c r="A36" s="9">
         <f>IF(AND(EST!A37&gt;='ET - DST adjusted'!$D$2,EST!A37&lt;='ET - DST adjusted'!$E$2),EST!A37+1/24,EST!A37)</f>
         <v>40940.296527777777</v>
       </c>
-      <c r="B36" s="10">
+      <c r="B36" s="9">
         <f>IF(AND(EST!B37&gt;='ET - DST adjusted'!$D$2,EST!B37&lt;='ET - DST adjusted'!$E$2),EST!B37+1/24,EST!B37)</f>
         <v>40940.709722222222</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="10">
+      <c r="A37" s="9">
         <f>IF(AND(EST!A38&gt;='ET - DST adjusted'!$D$2,EST!A38&lt;='ET - DST adjusted'!$E$2),EST!A38+1/24,EST!A38)</f>
         <v>40941.29583333333</v>
       </c>
-      <c r="B37" s="10">
+      <c r="B37" s="9">
         <f>IF(AND(EST!B38&gt;='ET - DST adjusted'!$D$2,EST!B38&lt;='ET - DST adjusted'!$E$2),EST!B38+1/24,EST!B38)</f>
         <v>40941.710416666669</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="10">
+      <c r="A38" s="9">
         <f>IF(AND(EST!A39&gt;='ET - DST adjusted'!$D$2,EST!A39&lt;='ET - DST adjusted'!$E$2),EST!A39+1/24,EST!A39)</f>
         <v>40942.295138888891</v>
       </c>
-      <c r="B38" s="10">
+      <c r="B38" s="9">
         <f>IF(AND(EST!B39&gt;='ET - DST adjusted'!$D$2,EST!B39&lt;='ET - DST adjusted'!$E$2),EST!B39+1/24,EST!B39)</f>
         <v>40942.711111111108</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="10">
+      <c r="A39" s="9">
         <f>IF(AND(EST!A40&gt;='ET - DST adjusted'!$D$2,EST!A40&lt;='ET - DST adjusted'!$E$2),EST!A40+1/24,EST!A40)</f>
         <v>40943.294444444444</v>
       </c>
-      <c r="B39" s="10">
+      <c r="B39" s="9">
         <f>IF(AND(EST!B40&gt;='ET - DST adjusted'!$D$2,EST!B40&lt;='ET - DST adjusted'!$E$2),EST!B40+1/24,EST!B40)</f>
         <v>40943.711805555555</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="10">
+      <c r="A40" s="9">
         <f>IF(AND(EST!A41&gt;='ET - DST adjusted'!$D$2,EST!A41&lt;='ET - DST adjusted'!$E$2),EST!A41+1/24,EST!A41)</f>
         <v>40944.293749999997</v>
       </c>
-      <c r="B40" s="10">
+      <c r="B40" s="9">
         <f>IF(AND(EST!B41&gt;='ET - DST adjusted'!$D$2,EST!B41&lt;='ET - DST adjusted'!$E$2),EST!B41+1/24,EST!B41)</f>
         <v>40944.712500000001</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="10">
+      <c r="A41" s="9">
         <f>IF(AND(EST!A42&gt;='ET - DST adjusted'!$D$2,EST!A42&lt;='ET - DST adjusted'!$E$2),EST!A42+1/24,EST!A42)</f>
         <v>40945.293055555558</v>
       </c>
-      <c r="B41" s="10">
+      <c r="B41" s="9">
         <f>IF(AND(EST!B42&gt;='ET - DST adjusted'!$D$2,EST!B42&lt;='ET - DST adjusted'!$E$2),EST!B42+1/24,EST!B42)</f>
         <v>40945.713194444441</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="10">
+      <c r="A42" s="9">
         <f>IF(AND(EST!A43&gt;='ET - DST adjusted'!$D$2,EST!A43&lt;='ET - DST adjusted'!$E$2),EST!A43+1/24,EST!A43)</f>
         <v>40946.293055555558</v>
       </c>
-      <c r="B42" s="10">
+      <c r="B42" s="9">
         <f>IF(AND(EST!B43&gt;='ET - DST adjusted'!$D$2,EST!B43&lt;='ET - DST adjusted'!$E$2),EST!B43+1/24,EST!B43)</f>
         <v>40946.713888888888</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="10">
+      <c r="A43" s="9">
         <f>IF(AND(EST!A44&gt;='ET - DST adjusted'!$D$2,EST!A44&lt;='ET - DST adjusted'!$E$2),EST!A44+1/24,EST!A44)</f>
         <v>40947.292361111111</v>
       </c>
-      <c r="B43" s="10">
+      <c r="B43" s="9">
         <f>IF(AND(EST!B44&gt;='ET - DST adjusted'!$D$2,EST!B44&lt;='ET - DST adjusted'!$E$2),EST!B44+1/24,EST!B44)</f>
         <v>40947.714583333334</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="10">
+      <c r="A44" s="9">
         <f>IF(AND(EST!A45&gt;='ET - DST adjusted'!$D$2,EST!A45&lt;='ET - DST adjusted'!$E$2),EST!A45+1/24,EST!A45)</f>
         <v>40948.291666666664</v>
       </c>
-      <c r="B44" s="10">
+      <c r="B44" s="9">
         <f>IF(AND(EST!B45&gt;='ET - DST adjusted'!$D$2,EST!B45&lt;='ET - DST adjusted'!$E$2),EST!B45+1/24,EST!B45)</f>
         <v>40948.708333333336</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="10">
+      <c r="A45" s="9">
         <f>IF(AND(EST!A46&gt;='ET - DST adjusted'!$D$2,EST!A46&lt;='ET - DST adjusted'!$E$2),EST!A46+1/24,EST!A46)</f>
         <v>40949.29791666667</v>
       </c>
-      <c r="B45" s="10">
+      <c r="B45" s="9">
         <f>IF(AND(EST!B46&gt;='ET - DST adjusted'!$D$2,EST!B46&lt;='ET - DST adjusted'!$E$2),EST!B46+1/24,EST!B46)</f>
         <v>40949.709027777775</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="10">
+      <c r="A46" s="9">
         <f>IF(AND(EST!A47&gt;='ET - DST adjusted'!$D$2,EST!A47&lt;='ET - DST adjusted'!$E$2),EST!A47+1/24,EST!A47)</f>
         <v>40950.297222222223</v>
       </c>
-      <c r="B46" s="10">
+      <c r="B46" s="9">
         <f>IF(AND(EST!B47&gt;='ET - DST adjusted'!$D$2,EST!B47&lt;='ET - DST adjusted'!$E$2),EST!B47+1/24,EST!B47)</f>
         <v>40950.710416666669</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="10">
+      <c r="A47" s="9">
         <f>IF(AND(EST!A48&gt;='ET - DST adjusted'!$D$2,EST!A48&lt;='ET - DST adjusted'!$E$2),EST!A48+1/24,EST!A48)</f>
         <v>40951.296527777777</v>
       </c>
-      <c r="B47" s="10">
+      <c r="B47" s="9">
         <f>IF(AND(EST!B48&gt;='ET - DST adjusted'!$D$2,EST!B48&lt;='ET - DST adjusted'!$E$2),EST!B48+1/24,EST!B48)</f>
         <v>40951.711111111108</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="10">
+      <c r="A48" s="9">
         <f>IF(AND(EST!A49&gt;='ET - DST adjusted'!$D$2,EST!A49&lt;='ET - DST adjusted'!$E$2),EST!A49+1/24,EST!A49)</f>
         <v>40952.29583333333</v>
       </c>
-      <c r="B48" s="10">
+      <c r="B48" s="9">
         <f>IF(AND(EST!B49&gt;='ET - DST adjusted'!$D$2,EST!B49&lt;='ET - DST adjusted'!$E$2),EST!B49+1/24,EST!B49)</f>
         <v>40952.711805555555</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="10">
+      <c r="A49" s="9">
         <f>IF(AND(EST!A50&gt;='ET - DST adjusted'!$D$2,EST!A50&lt;='ET - DST adjusted'!$E$2),EST!A50+1/24,EST!A50)</f>
         <v>40953.295138888891</v>
       </c>
-      <c r="B49" s="10">
+      <c r="B49" s="9">
         <f>IF(AND(EST!B50&gt;='ET - DST adjusted'!$D$2,EST!B50&lt;='ET - DST adjusted'!$E$2),EST!B50+1/24,EST!B50)</f>
         <v>40953.712500000001</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="10">
+      <c r="A50" s="9">
         <f>IF(AND(EST!A51&gt;='ET - DST adjusted'!$D$2,EST!A51&lt;='ET - DST adjusted'!$E$2),EST!A51+1/24,EST!A51)</f>
         <v>40954.293749999997</v>
       </c>
-      <c r="B50" s="10">
+      <c r="B50" s="9">
         <f>IF(AND(EST!B51&gt;='ET - DST adjusted'!$D$2,EST!B51&lt;='ET - DST adjusted'!$E$2),EST!B51+1/24,EST!B51)</f>
         <v>40954.713194444441</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="10">
+      <c r="A51" s="9">
         <f>IF(AND(EST!A52&gt;='ET - DST adjusted'!$D$2,EST!A52&lt;='ET - DST adjusted'!$E$2),EST!A52+1/24,EST!A52)</f>
         <v>40955.293055555558</v>
       </c>
-      <c r="B51" s="10">
+      <c r="B51" s="9">
         <f>IF(AND(EST!B52&gt;='ET - DST adjusted'!$D$2,EST!B52&lt;='ET - DST adjusted'!$E$2),EST!B52+1/24,EST!B52)</f>
         <v>40955.713888888888</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="10">
+      <c r="A52" s="9">
         <f>IF(AND(EST!A53&gt;='ET - DST adjusted'!$D$2,EST!A53&lt;='ET - DST adjusted'!$E$2),EST!A53+1/24,EST!A53)</f>
         <v>40956.292361111111</v>
       </c>
-      <c r="B52" s="10">
+      <c r="B52" s="9">
         <f>IF(AND(EST!B53&gt;='ET - DST adjusted'!$D$2,EST!B53&lt;='ET - DST adjusted'!$E$2),EST!B53+1/24,EST!B53)</f>
         <v>40956.714583333334</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="10">
+      <c r="A53" s="9">
         <f>IF(AND(EST!A54&gt;='ET - DST adjusted'!$D$2,EST!A54&lt;='ET - DST adjusted'!$E$2),EST!A54+1/24,EST!A54)</f>
         <v>40957.291666666664</v>
       </c>
-      <c r="B53" s="10">
+      <c r="B53" s="9">
         <f>IF(AND(EST!B54&gt;='ET - DST adjusted'!$D$2,EST!B54&lt;='ET - DST adjusted'!$E$2),EST!B54+1/24,EST!B54)</f>
         <v>40957.75</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="10">
+      <c r="A54" s="9">
         <f>IF(AND(EST!A55&gt;='ET - DST adjusted'!$D$2,EST!A55&lt;='ET - DST adjusted'!$E$2),EST!A55+1/24,EST!A55)</f>
         <v>40958.256249999999</v>
       </c>
-      <c r="B54" s="10">
+      <c r="B54" s="9">
         <f>IF(AND(EST!B55&gt;='ET - DST adjusted'!$D$2,EST!B55&lt;='ET - DST adjusted'!$E$2),EST!B55+1/24,EST!B55)</f>
         <v>40958.750694444447</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="10">
+      <c r="A55" s="9">
         <f>IF(AND(EST!A56&gt;='ET - DST adjusted'!$D$2,EST!A56&lt;='ET - DST adjusted'!$E$2),EST!A56+1/24,EST!A56)</f>
         <v>40959.255555555559</v>
       </c>
-      <c r="B55" s="10">
+      <c r="B55" s="9">
         <f>IF(AND(EST!B56&gt;='ET - DST adjusted'!$D$2,EST!B56&lt;='ET - DST adjusted'!$E$2),EST!B56+1/24,EST!B56)</f>
         <v>40959.751388888886</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="10">
+      <c r="A56" s="9">
         <f>IF(AND(EST!A57&gt;='ET - DST adjusted'!$D$2,EST!A57&lt;='ET - DST adjusted'!$E$2),EST!A57+1/24,EST!A57)</f>
         <v>40960.254861111112</v>
       </c>
-      <c r="B56" s="10">
+      <c r="B56" s="9">
         <f>IF(AND(EST!B57&gt;='ET - DST adjusted'!$D$2,EST!B57&lt;='ET - DST adjusted'!$E$2),EST!B57+1/24,EST!B57)</f>
         <v>40960.752083333333</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="10">
+      <c r="A57" s="9">
         <f>IF(AND(EST!A58&gt;='ET - DST adjusted'!$D$2,EST!A58&lt;='ET - DST adjusted'!$E$2),EST!A58+1/24,EST!A58)</f>
         <v>40961.253472222219</v>
       </c>
-      <c r="B57" s="10">
+      <c r="B57" s="9">
         <f>IF(AND(EST!B58&gt;='ET - DST adjusted'!$D$2,EST!B58&lt;='ET - DST adjusted'!$E$2),EST!B58+1/24,EST!B58)</f>
         <v>40961.752083333333</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="10">
+      <c r="A58" s="9">
         <f>IF(AND(EST!A59&gt;='ET - DST adjusted'!$D$2,EST!A59&lt;='ET - DST adjusted'!$E$2),EST!A59+1/24,EST!A59)</f>
         <v>40962.25277777778</v>
       </c>
-      <c r="B58" s="10">
+      <c r="B58" s="9">
         <f>IF(AND(EST!B59&gt;='ET - DST adjusted'!$D$2,EST!B59&lt;='ET - DST adjusted'!$E$2),EST!B59+1/24,EST!B59)</f>
         <v>40962.75277777778</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="10">
+      <c r="A59" s="9">
         <f>IF(AND(EST!A60&gt;='ET - DST adjusted'!$D$2,EST!A60&lt;='ET - DST adjusted'!$E$2),EST!A60+1/24,EST!A60)</f>
         <v>40963.252083333333</v>
       </c>
-      <c r="B59" s="10">
+      <c r="B59" s="9">
         <f>IF(AND(EST!B60&gt;='ET - DST adjusted'!$D$2,EST!B60&lt;='ET - DST adjusted'!$E$2),EST!B60+1/24,EST!B60)</f>
         <v>40963.753472222219</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="10">
+      <c r="A60" s="9">
         <f>IF(AND(EST!A61&gt;='ET - DST adjusted'!$D$2,EST!A61&lt;='ET - DST adjusted'!$E$2),EST!A61+1/24,EST!A61)</f>
         <v>40964.251388888886</v>
       </c>
-      <c r="B60" s="10">
+      <c r="B60" s="9">
         <f>IF(AND(EST!B61&gt;='ET - DST adjusted'!$D$2,EST!B61&lt;='ET - DST adjusted'!$E$2),EST!B61+1/24,EST!B61)</f>
         <v>40964.754166666666</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="10">
+      <c r="A61" s="9">
         <f>IF(AND(EST!A62&gt;='ET - DST adjusted'!$D$2,EST!A62&lt;='ET - DST adjusted'!$E$2),EST!A62+1/24,EST!A62)</f>
         <v>40965.25</v>
       </c>
-      <c r="B61" s="10">
+      <c r="B61" s="9">
         <f>IF(AND(EST!B62&gt;='ET - DST adjusted'!$D$2,EST!B62&lt;='ET - DST adjusted'!$E$2),EST!B62+1/24,EST!B62)</f>
         <v>40965.754861111112</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="10">
+      <c r="A62" s="9">
         <f>IF(AND(EST!A63&gt;='ET - DST adjusted'!$D$2,EST!A63&lt;='ET - DST adjusted'!$E$2),EST!A63+1/24,EST!A63)</f>
         <v>40966.256249999999</v>
       </c>
-      <c r="B62" s="10">
+      <c r="B62" s="9">
         <f>IF(AND(EST!B63&gt;='ET - DST adjusted'!$D$2,EST!B63&lt;='ET - DST adjusted'!$E$2),EST!B63+1/24,EST!B63)</f>
         <v>40966.755555555559</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="10">
+      <c r="A63" s="9">
         <f>IF(AND(EST!A64&gt;='ET - DST adjusted'!$D$2,EST!A64&lt;='ET - DST adjusted'!$E$2),EST!A64+1/24,EST!A64)</f>
         <v>40967.255555555559</v>
       </c>
-      <c r="B63" s="10">
+      <c r="B63" s="9">
         <f>IF(AND(EST!B64&gt;='ET - DST adjusted'!$D$2,EST!B64&lt;='ET - DST adjusted'!$E$2),EST!B64+1/24,EST!B64)</f>
         <v>40967.756249999999</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="10">
+      <c r="A64" s="9">
         <f>IF(AND(EST!A65&gt;='ET - DST adjusted'!$D$2,EST!A65&lt;='ET - DST adjusted'!$E$2),EST!A65+1/24,EST!A65)</f>
         <v>40968.254166666666</v>
       </c>
-      <c r="B64" s="10">
+      <c r="B64" s="9">
         <f>IF(AND(EST!B65&gt;='ET - DST adjusted'!$D$2,EST!B65&lt;='ET - DST adjusted'!$E$2),EST!B65+1/24,EST!B65)</f>
         <v>40968.75</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="10">
+      <c r="A65" s="9">
         <f>IF(AND(EST!A66&gt;='ET - DST adjusted'!$D$2,EST!A66&lt;='ET - DST adjusted'!$E$2),EST!A66+1/24,EST!A66)</f>
         <v>40969.253472222219</v>
       </c>
-      <c r="B65" s="10">
+      <c r="B65" s="9">
         <f>IF(AND(EST!B66&gt;='ET - DST adjusted'!$D$2,EST!B66&lt;='ET - DST adjusted'!$E$2),EST!B66+1/24,EST!B66)</f>
         <v>40969.750694444447</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="10">
+      <c r="A66" s="9">
         <f>IF(AND(EST!A67&gt;='ET - DST adjusted'!$D$2,EST!A67&lt;='ET - DST adjusted'!$E$2),EST!A67+1/24,EST!A67)</f>
         <v>40970.25277777778</v>
       </c>
-      <c r="B66" s="10">
+      <c r="B66" s="9">
         <f>IF(AND(EST!B67&gt;='ET - DST adjusted'!$D$2,EST!B67&lt;='ET - DST adjusted'!$E$2),EST!B67+1/24,EST!B67)</f>
         <v>40970.751388888886</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="10">
+      <c r="A67" s="9">
         <f>IF(AND(EST!A68&gt;='ET - DST adjusted'!$D$2,EST!A68&lt;='ET - DST adjusted'!$E$2),EST!A68+1/24,EST!A68)</f>
         <v>40971.252083333333</v>
       </c>
-      <c r="B67" s="10">
+      <c r="B67" s="9">
         <f>IF(AND(EST!B68&gt;='ET - DST adjusted'!$D$2,EST!B68&lt;='ET - DST adjusted'!$E$2),EST!B68+1/24,EST!B68)</f>
         <v>40971.752083333333</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="10">
+      <c r="A68" s="9">
         <f>IF(AND(EST!A69&gt;='ET - DST adjusted'!$D$2,EST!A69&lt;='ET - DST adjusted'!$E$2),EST!A69+1/24,EST!A69)</f>
         <v>40972.250694444447</v>
       </c>
-      <c r="B68" s="10">
+      <c r="B68" s="9">
         <f>IF(AND(EST!B69&gt;='ET - DST adjusted'!$D$2,EST!B69&lt;='ET - DST adjusted'!$E$2),EST!B69+1/24,EST!B69)</f>
         <v>40972.75277777778</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="10">
+      <c r="A69" s="9">
         <f>IF(AND(EST!A70&gt;='ET - DST adjusted'!$D$2,EST!A70&lt;='ET - DST adjusted'!$E$2),EST!A70+1/24,EST!A70)</f>
         <v>40973.25</v>
       </c>
-      <c r="B69" s="10">
+      <c r="B69" s="9">
         <f>IF(AND(EST!B70&gt;='ET - DST adjusted'!$D$2,EST!B70&lt;='ET - DST adjusted'!$E$2),EST!B70+1/24,EST!B70)</f>
         <v>40973.753472222219</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="10">
+      <c r="A70" s="9">
         <f>IF(AND(EST!A71&gt;='ET - DST adjusted'!$D$2,EST!A71&lt;='ET - DST adjusted'!$E$2),EST!A71+1/24,EST!A71)</f>
         <v>40974.255555555559</v>
       </c>
-      <c r="B70" s="10">
+      <c r="B70" s="9">
         <f>IF(AND(EST!B71&gt;='ET - DST adjusted'!$D$2,EST!B71&lt;='ET - DST adjusted'!$E$2),EST!B71+1/24,EST!B71)</f>
         <v>40974.754166666666</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="10">
+      <c r="A71" s="9">
         <f>IF(AND(EST!A72&gt;='ET - DST adjusted'!$D$2,EST!A72&lt;='ET - DST adjusted'!$E$2),EST!A72+1/24,EST!A72)</f>
         <v>40975.254861111112</v>
       </c>
-      <c r="B71" s="10">
+      <c r="B71" s="9">
         <f>IF(AND(EST!B72&gt;='ET - DST adjusted'!$D$2,EST!B72&lt;='ET - DST adjusted'!$E$2),EST!B72+1/24,EST!B72)</f>
         <v>40975.754861111112</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="10">
+      <c r="A72" s="9">
         <f>IF(AND(EST!A73&gt;='ET - DST adjusted'!$D$2,EST!A73&lt;='ET - DST adjusted'!$E$2),EST!A73+1/24,EST!A73)</f>
         <v>40976.254166666666</v>
       </c>
-      <c r="B72" s="10">
+      <c r="B72" s="9">
         <f>IF(AND(EST!B73&gt;='ET - DST adjusted'!$D$2,EST!B73&lt;='ET - DST adjusted'!$E$2),EST!B73+1/24,EST!B73)</f>
         <v>40976.754861111112</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="10">
+      <c r="A73" s="9">
         <f>IF(AND(EST!A74&gt;='ET - DST adjusted'!$D$2,EST!A74&lt;='ET - DST adjusted'!$E$2),EST!A74+1/24,EST!A74)</f>
         <v>40977.25277777778</v>
       </c>
-      <c r="B73" s="10">
+      <c r="B73" s="9">
         <f>IF(AND(EST!B74&gt;='ET - DST adjusted'!$D$2,EST!B74&lt;='ET - DST adjusted'!$E$2),EST!B74+1/24,EST!B74)</f>
         <v>40977.755555555559</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="10">
+      <c r="A74" s="9">
         <f>IF(AND(EST!A75&gt;='ET - DST adjusted'!$D$2,EST!A75&lt;='ET - DST adjusted'!$E$2),EST!A75+1/24,EST!A75)</f>
         <v>40978.252083333333</v>
       </c>
-      <c r="B74" s="10">
+      <c r="B74" s="9">
         <f>IF(AND(EST!B75&gt;='ET - DST adjusted'!$D$2,EST!B75&lt;='ET - DST adjusted'!$E$2),EST!B75+1/24,EST!B75)</f>
         <v>40978.756249999999</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="10">
+      <c r="A75" s="9">
         <f>IF(AND(EST!A76&gt;='ET - DST adjusted'!$D$2,EST!A76&lt;='ET - DST adjusted'!$E$2),EST!A76+1/24,EST!A76)</f>
         <v>40979.292361111111</v>
       </c>
-      <c r="B75" s="10">
+      <c r="B75" s="9">
         <f>IF(AND(EST!B76&gt;='ET - DST adjusted'!$D$2,EST!B76&lt;='ET - DST adjusted'!$E$2),EST!B76+1/24,EST!B76)</f>
         <v>40979.791666666664</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="10">
+      <c r="A76" s="9">
         <f>IF(AND(EST!A77&gt;='ET - DST adjusted'!$D$2,EST!A77&lt;='ET - DST adjusted'!$E$2),EST!A77+1/24,EST!A77)</f>
         <v>40980.291666666664</v>
       </c>
-      <c r="B76" s="10">
+      <c r="B76" s="9">
         <f>IF(AND(EST!B77&gt;='ET - DST adjusted'!$D$2,EST!B77&lt;='ET - DST adjusted'!$E$2),EST!B77+1/24,EST!B77)</f>
         <v>40980.792361111111</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="10">
+      <c r="A77" s="9">
         <f>IF(AND(EST!A78&gt;='ET - DST adjusted'!$D$2,EST!A78&lt;='ET - DST adjusted'!$E$2),EST!A78+1/24,EST!A78)</f>
         <v>40981.297916666663</v>
       </c>
-      <c r="B77" s="10">
+      <c r="B77" s="9">
         <f>IF(AND(EST!B78&gt;='ET - DST adjusted'!$D$2,EST!B78&lt;='ET - DST adjusted'!$E$2),EST!B78+1/24,EST!B78)</f>
         <v>40981.79305555555</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="10">
+      <c r="A78" s="9">
         <f>IF(AND(EST!A79&gt;='ET - DST adjusted'!$D$2,EST!A79&lt;='ET - DST adjusted'!$E$2),EST!A79+1/24,EST!A79)</f>
         <v>40982.296527777777</v>
       </c>
-      <c r="B78" s="10">
+      <c r="B78" s="9">
         <f>IF(AND(EST!B79&gt;='ET - DST adjusted'!$D$2,EST!B79&lt;='ET - DST adjusted'!$E$2),EST!B79+1/24,EST!B79)</f>
         <v>40982.793749999997</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" s="10">
+      <c r="A79" s="9">
         <f>IF(AND(EST!A80&gt;='ET - DST adjusted'!$D$2,EST!A80&lt;='ET - DST adjusted'!$E$2),EST!A80+1/24,EST!A80)</f>
         <v>40983.29583333333</v>
       </c>
-      <c r="B79" s="10">
+      <c r="B79" s="9">
         <f>IF(AND(EST!B80&gt;='ET - DST adjusted'!$D$2,EST!B80&lt;='ET - DST adjusted'!$E$2),EST!B80+1/24,EST!B80)</f>
         <v>40983.794444444444</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" s="10">
+      <c r="A80" s="9">
         <f>IF(AND(EST!A81&gt;='ET - DST adjusted'!$D$2,EST!A81&lt;='ET - DST adjusted'!$E$2),EST!A81+1/24,EST!A81)</f>
         <v>40984.294444444444</v>
       </c>
-      <c r="B80" s="10">
+      <c r="B80" s="9">
         <f>IF(AND(EST!B81&gt;='ET - DST adjusted'!$D$2,EST!B81&lt;='ET - DST adjusted'!$E$2),EST!B81+1/24,EST!B81)</f>
         <v>40984.794444444444</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="10">
+      <c r="A81" s="9">
         <f>IF(AND(EST!A82&gt;='ET - DST adjusted'!$D$2,EST!A82&lt;='ET - DST adjusted'!$E$2),EST!A82+1/24,EST!A82)</f>
         <v>40985.293749999997</v>
       </c>
-      <c r="B81" s="10">
+      <c r="B81" s="9">
         <f>IF(AND(EST!B82&gt;='ET - DST adjusted'!$D$2,EST!B82&lt;='ET - DST adjusted'!$E$2),EST!B82+1/24,EST!B82)</f>
         <v>40985.795138888883</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="10">
+      <c r="A82" s="9">
         <f>IF(AND(EST!A83&gt;='ET - DST adjusted'!$D$2,EST!A83&lt;='ET - DST adjusted'!$E$2),EST!A83+1/24,EST!A83)</f>
         <v>40986.292361111111</v>
       </c>
-      <c r="B82" s="10">
+      <c r="B82" s="9">
         <f>IF(AND(EST!B83&gt;='ET - DST adjusted'!$D$2,EST!B83&lt;='ET - DST adjusted'!$E$2),EST!B83+1/24,EST!B83)</f>
         <v>40986.79583333333</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" s="10">
+      <c r="A83" s="9">
         <f>IF(AND(EST!A84&gt;='ET - DST adjusted'!$D$2,EST!A84&lt;='ET - DST adjusted'!$E$2),EST!A84+1/24,EST!A84)</f>
         <v>40987.291666666664</v>
       </c>
-      <c r="B83" s="10">
+      <c r="B83" s="9">
         <f>IF(AND(EST!B84&gt;='ET - DST adjusted'!$D$2,EST!B84&lt;='ET - DST adjusted'!$E$2),EST!B84+1/24,EST!B84)</f>
         <v>40987.796527777777</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" s="10">
+      <c r="A84" s="9">
         <f>IF(AND(EST!A85&gt;='ET - DST adjusted'!$D$2,EST!A85&lt;='ET - DST adjusted'!$E$2),EST!A85+1/24,EST!A85)</f>
         <v>40988.297916666663</v>
       </c>
-      <c r="B84" s="10">
+      <c r="B84" s="9">
         <f>IF(AND(EST!B85&gt;='ET - DST adjusted'!$D$2,EST!B85&lt;='ET - DST adjusted'!$E$2),EST!B85+1/24,EST!B85)</f>
         <v>40988.797222222223</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" s="10">
+      <c r="A85" s="9">
         <f>IF(AND(EST!A86&gt;='ET - DST adjusted'!$D$2,EST!A86&lt;='ET - DST adjusted'!$E$2),EST!A86+1/24,EST!A86)</f>
         <v>40989.296527777777</v>
       </c>
-      <c r="B85" s="10">
+      <c r="B85" s="9">
         <f>IF(AND(EST!B86&gt;='ET - DST adjusted'!$D$2,EST!B86&lt;='ET - DST adjusted'!$E$2),EST!B86+1/24,EST!B86)</f>
         <v>40989.797916666663</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" s="10">
+      <c r="A86" s="9">
         <f>IF(AND(EST!A87&gt;='ET - DST adjusted'!$D$2,EST!A87&lt;='ET - DST adjusted'!$E$2),EST!A87+1/24,EST!A87)</f>
         <v>40990.29583333333</v>
       </c>
-      <c r="B86" s="10">
+      <c r="B86" s="9">
         <f>IF(AND(EST!B87&gt;='ET - DST adjusted'!$D$2,EST!B87&lt;='ET - DST adjusted'!$E$2),EST!B87+1/24,EST!B87)</f>
         <v>40990.791666666664</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" s="10">
+      <c r="A87" s="9">
         <f>IF(AND(EST!A88&gt;='ET - DST adjusted'!$D$2,EST!A88&lt;='ET - DST adjusted'!$E$2),EST!A88+1/24,EST!A88)</f>
         <v>40991.294444444444</v>
       </c>
-      <c r="B87" s="10">
+      <c r="B87" s="9">
         <f>IF(AND(EST!B88&gt;='ET - DST adjusted'!$D$2,EST!B88&lt;='ET - DST adjusted'!$E$2),EST!B88+1/24,EST!B88)</f>
         <v>40991.791666666664</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" s="10">
+      <c r="A88" s="9">
         <f>IF(AND(EST!A89&gt;='ET - DST adjusted'!$D$2,EST!A89&lt;='ET - DST adjusted'!$E$2),EST!A89+1/24,EST!A89)</f>
         <v>40992.293749999997</v>
       </c>
-      <c r="B88" s="10">
+      <c r="B88" s="9">
         <f>IF(AND(EST!B89&gt;='ET - DST adjusted'!$D$2,EST!B89&lt;='ET - DST adjusted'!$E$2),EST!B89+1/24,EST!B89)</f>
         <v>40992.792361111111</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" s="10">
+      <c r="A89" s="9">
         <f>IF(AND(EST!A90&gt;='ET - DST adjusted'!$D$2,EST!A90&lt;='ET - DST adjusted'!$E$2),EST!A90+1/24,EST!A90)</f>
         <v>40993.292361111111</v>
       </c>
-      <c r="B89" s="10">
+      <c r="B89" s="9">
         <f>IF(AND(EST!B90&gt;='ET - DST adjusted'!$D$2,EST!B90&lt;='ET - DST adjusted'!$E$2),EST!B90+1/24,EST!B90)</f>
         <v>40993.79305555555</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" s="10">
+      <c r="A90" s="9">
         <f>IF(AND(EST!A91&gt;='ET - DST adjusted'!$D$2,EST!A91&lt;='ET - DST adjusted'!$E$2),EST!A91+1/24,EST!A91)</f>
         <v>40994.291666666664</v>
       </c>
-      <c r="B90" s="10">
+      <c r="B90" s="9">
         <f>IF(AND(EST!B91&gt;='ET - DST adjusted'!$D$2,EST!B91&lt;='ET - DST adjusted'!$E$2),EST!B91+1/24,EST!B91)</f>
         <v>40994.793749999997</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" s="10">
+      <c r="A91" s="9">
         <f>IF(AND(EST!A92&gt;='ET - DST adjusted'!$D$2,EST!A92&lt;='ET - DST adjusted'!$E$2),EST!A92+1/24,EST!A92)</f>
         <v>40995.297222222223</v>
       </c>
-      <c r="B91" s="10">
+      <c r="B91" s="9">
         <f>IF(AND(EST!B92&gt;='ET - DST adjusted'!$D$2,EST!B92&lt;='ET - DST adjusted'!$E$2),EST!B92+1/24,EST!B92)</f>
         <v>40995.794444444444</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" s="10">
+      <c r="A92" s="9">
         <f>IF(AND(EST!A93&gt;='ET - DST adjusted'!$D$2,EST!A93&lt;='ET - DST adjusted'!$E$2),EST!A93+1/24,EST!A93)</f>
         <v>40996.296527777777</v>
       </c>
-      <c r="B92" s="10">
+      <c r="B92" s="9">
         <f>IF(AND(EST!B93&gt;='ET - DST adjusted'!$D$2,EST!B93&lt;='ET - DST adjusted'!$E$2),EST!B93+1/24,EST!B93)</f>
         <v>40996.795138888883</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" s="10">
+      <c r="A93" s="9">
         <f>IF(AND(EST!A94&gt;='ET - DST adjusted'!$D$2,EST!A94&lt;='ET - DST adjusted'!$E$2),EST!A94+1/24,EST!A94)</f>
         <v>40997.29583333333</v>
       </c>
-      <c r="B93" s="10">
+      <c r="B93" s="9">
         <f>IF(AND(EST!B94&gt;='ET - DST adjusted'!$D$2,EST!B94&lt;='ET - DST adjusted'!$E$2),EST!B94+1/24,EST!B94)</f>
         <v>40997.795138888883</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" s="10">
+      <c r="A94" s="9">
         <f>IF(AND(EST!A95&gt;='ET - DST adjusted'!$D$2,EST!A95&lt;='ET - DST adjusted'!$E$2),EST!A95+1/24,EST!A95)</f>
         <v>40998.294444444444</v>
       </c>
-      <c r="B94" s="10">
+      <c r="B94" s="9">
         <f>IF(AND(EST!B95&gt;='ET - DST adjusted'!$D$2,EST!B95&lt;='ET - DST adjusted'!$E$2),EST!B95+1/24,EST!B95)</f>
         <v>40998.79583333333</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" s="10">
+      <c r="A95" s="9">
         <f>IF(AND(EST!A96&gt;='ET - DST adjusted'!$D$2,EST!A96&lt;='ET - DST adjusted'!$E$2),EST!A96+1/24,EST!A96)</f>
         <v>40999.293749999997</v>
       </c>
-      <c r="B95" s="10">
+      <c r="B95" s="9">
         <f>IF(AND(EST!B96&gt;='ET - DST adjusted'!$D$2,EST!B96&lt;='ET - DST adjusted'!$E$2),EST!B96+1/24,EST!B96)</f>
         <v>40999.796527777777</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" s="10">
+      <c r="A96" s="9">
         <f>IF(AND(EST!A97&gt;='ET - DST adjusted'!$D$2,EST!A97&lt;='ET - DST adjusted'!$E$2),EST!A97+1/24,EST!A97)</f>
         <v>41000.292361111111</v>
       </c>
-      <c r="B96" s="10">
+      <c r="B96" s="9">
         <f>IF(AND(EST!B97&gt;='ET - DST adjusted'!$D$2,EST!B97&lt;='ET - DST adjusted'!$E$2),EST!B97+1/24,EST!B97)</f>
         <v>41000.797222222223</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" s="10">
+      <c r="A97" s="9">
         <f>IF(AND(EST!A98&gt;='ET - DST adjusted'!$D$2,EST!A98&lt;='ET - DST adjusted'!$E$2),EST!A98+1/24,EST!A98)</f>
         <v>41001.291666666664</v>
       </c>
-      <c r="B97" s="10">
+      <c r="B97" s="9">
         <f>IF(AND(EST!B98&gt;='ET - DST adjusted'!$D$2,EST!B98&lt;='ET - DST adjusted'!$E$2),EST!B98+1/24,EST!B98)</f>
         <v>41001.797916666663</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" s="10">
+      <c r="A98" s="9">
         <f>IF(AND(EST!A99&gt;='ET - DST adjusted'!$D$2,EST!A99&lt;='ET - DST adjusted'!$E$2),EST!A99+1/24,EST!A99)</f>
         <v>41002.255555555552</v>
       </c>
-      <c r="B98" s="10">
+      <c r="B98" s="9">
         <f>IF(AND(EST!B99&gt;='ET - DST adjusted'!$D$2,EST!B99&lt;='ET - DST adjusted'!$E$2),EST!B99+1/24,EST!B99)</f>
         <v>41002.791666666664</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" s="10">
+      <c r="A99" s="9">
         <f>IF(AND(EST!A100&gt;='ET - DST adjusted'!$D$2,EST!A100&lt;='ET - DST adjusted'!$E$2),EST!A100+1/24,EST!A100)</f>
         <v>41003.254861111105</v>
       </c>
-      <c r="B99" s="10">
+      <c r="B99" s="9">
         <f>IF(AND(EST!B100&gt;='ET - DST adjusted'!$D$2,EST!B100&lt;='ET - DST adjusted'!$E$2),EST!B100+1/24,EST!B100)</f>
         <v>41003.791666666664</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" s="10">
+      <c r="A100" s="9">
         <f>IF(AND(EST!A101&gt;='ET - DST adjusted'!$D$2,EST!A101&lt;='ET - DST adjusted'!$E$2),EST!A101+1/24,EST!A101)</f>
         <v>41004.254166666666</v>
       </c>
-      <c r="B100" s="10">
+      <c r="B100" s="9">
         <f>IF(AND(EST!B101&gt;='ET - DST adjusted'!$D$2,EST!B101&lt;='ET - DST adjusted'!$E$2),EST!B101+1/24,EST!B101)</f>
         <v>41004.792361111111</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" s="10">
+      <c r="A101" s="9">
         <f>IF(AND(EST!A102&gt;='ET - DST adjusted'!$D$2,EST!A102&lt;='ET - DST adjusted'!$E$2),EST!A102+1/24,EST!A102)</f>
         <v>41005.252777777772</v>
       </c>
-      <c r="B101" s="10">
+      <c r="B101" s="9">
         <f>IF(AND(EST!B102&gt;='ET - DST adjusted'!$D$2,EST!B102&lt;='ET - DST adjusted'!$E$2),EST!B102+1/24,EST!B102)</f>
         <v>41005.79305555555</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102" s="10">
+      <c r="A102" s="9">
         <f>IF(AND(EST!A103&gt;='ET - DST adjusted'!$D$2,EST!A103&lt;='ET - DST adjusted'!$E$2),EST!A103+1/24,EST!A103)</f>
         <v>41006.252083333333</v>
       </c>
-      <c r="B102" s="10">
+      <c r="B102" s="9">
         <f>IF(AND(EST!B103&gt;='ET - DST adjusted'!$D$2,EST!B103&lt;='ET - DST adjusted'!$E$2),EST!B103+1/24,EST!B103)</f>
         <v>41006.793749999997</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103" s="10">
+      <c r="A103" s="9">
         <f>IF(AND(EST!A104&gt;='ET - DST adjusted'!$D$2,EST!A104&lt;='ET - DST adjusted'!$E$2),EST!A104+1/24,EST!A104)</f>
         <v>41007.250694444439</v>
       </c>
-      <c r="B103" s="10">
+      <c r="B103" s="9">
         <f>IF(AND(EST!B104&gt;='ET - DST adjusted'!$D$2,EST!B104&lt;='ET - DST adjusted'!$E$2),EST!B104+1/24,EST!B104)</f>
         <v>41007.794444444444</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104" s="10">
+      <c r="A104" s="9">
         <f>IF(AND(EST!A105&gt;='ET - DST adjusted'!$D$2,EST!A105&lt;='ET - DST adjusted'!$E$2),EST!A105+1/24,EST!A105)</f>
         <v>41008.25</v>
       </c>
-      <c r="B104" s="10">
+      <c r="B104" s="9">
         <f>IF(AND(EST!B105&gt;='ET - DST adjusted'!$D$2,EST!B105&lt;='ET - DST adjusted'!$E$2),EST!B105+1/24,EST!B105)</f>
         <v>41008.795138888883</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105" s="10">
+      <c r="A105" s="9">
         <f>IF(AND(EST!A106&gt;='ET - DST adjusted'!$D$2,EST!A106&lt;='ET - DST adjusted'!$E$2),EST!A106+1/24,EST!A106)</f>
         <v>41009.256249999999</v>
       </c>
-      <c r="B105" s="10">
+      <c r="B105" s="9">
         <f>IF(AND(EST!B106&gt;='ET - DST adjusted'!$D$2,EST!B106&lt;='ET - DST adjusted'!$E$2),EST!B106+1/24,EST!B106)</f>
         <v>41009.795138888883</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106" s="10">
+      <c r="A106" s="9">
         <f>IF(AND(EST!A107&gt;='ET - DST adjusted'!$D$2,EST!A107&lt;='ET - DST adjusted'!$E$2),EST!A107+1/24,EST!A107)</f>
         <v>41010.254861111105</v>
       </c>
-      <c r="B106" s="10">
+      <c r="B106" s="9">
         <f>IF(AND(EST!B107&gt;='ET - DST adjusted'!$D$2,EST!B107&lt;='ET - DST adjusted'!$E$2),EST!B107+1/24,EST!B107)</f>
         <v>41010.79583333333</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107" s="10">
+      <c r="A107" s="9">
         <f>IF(AND(EST!A108&gt;='ET - DST adjusted'!$D$2,EST!A108&lt;='ET - DST adjusted'!$E$2),EST!A108+1/24,EST!A108)</f>
         <v>41011.254166666666</v>
       </c>
-      <c r="B107" s="10">
+      <c r="B107" s="9">
         <f>IF(AND(EST!B108&gt;='ET - DST adjusted'!$D$2,EST!B108&lt;='ET - DST adjusted'!$E$2),EST!B108+1/24,EST!B108)</f>
         <v>41011.796527777777</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108" s="10">
+      <c r="A108" s="9">
         <f>IF(AND(EST!A109&gt;='ET - DST adjusted'!$D$2,EST!A109&lt;='ET - DST adjusted'!$E$2),EST!A109+1/24,EST!A109)</f>
         <v>41012.253472222219</v>
       </c>
-      <c r="B108" s="10">
+      <c r="B108" s="9">
         <f>IF(AND(EST!B109&gt;='ET - DST adjusted'!$D$2,EST!B109&lt;='ET - DST adjusted'!$E$2),EST!B109+1/24,EST!B109)</f>
         <v>41012.797222222223</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109" s="10">
+      <c r="A109" s="9">
         <f>IF(AND(EST!A110&gt;='ET - DST adjusted'!$D$2,EST!A110&lt;='ET - DST adjusted'!$E$2),EST!A110+1/24,EST!A110)</f>
         <v>41013.252083333333</v>
       </c>
-      <c r="B109" s="10">
+      <c r="B109" s="9">
         <f>IF(AND(EST!B110&gt;='ET - DST adjusted'!$D$2,EST!B110&lt;='ET - DST adjusted'!$E$2),EST!B110+1/24,EST!B110)</f>
         <v>41013.797916666663</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A110" s="10">
+      <c r="A110" s="9">
         <f>IF(AND(EST!A111&gt;='ET - DST adjusted'!$D$2,EST!A111&lt;='ET - DST adjusted'!$E$2),EST!A111+1/24,EST!A111)</f>
         <v>41014.251388888886</v>
       </c>
-      <c r="B110" s="10">
+      <c r="B110" s="9">
         <f>IF(AND(EST!B111&gt;='ET - DST adjusted'!$D$2,EST!B111&lt;='ET - DST adjusted'!$E$2),EST!B111+1/24,EST!B111)</f>
         <v>41014.791666666664</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A111" s="10">
+      <c r="A111" s="9">
         <f>IF(AND(EST!A112&gt;='ET - DST adjusted'!$D$2,EST!A112&lt;='ET - DST adjusted'!$E$2),EST!A112+1/24,EST!A112)</f>
         <v>41015.250694444439</v>
       </c>
-      <c r="B111" s="10">
+      <c r="B111" s="9">
         <f>IF(AND(EST!B112&gt;='ET - DST adjusted'!$D$2,EST!B112&lt;='ET - DST adjusted'!$E$2),EST!B112+1/24,EST!B112)</f>
         <v>41015.792361111111</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112" s="10">
+      <c r="A112" s="9">
         <f>IF(AND(EST!A113&gt;='ET - DST adjusted'!$D$2,EST!A113&lt;='ET - DST adjusted'!$E$2),EST!A113+1/24,EST!A113)</f>
         <v>41016.256249999999</v>
       </c>
-      <c r="B112" s="10">
+      <c r="B112" s="9">
         <f>IF(AND(EST!B113&gt;='ET - DST adjusted'!$D$2,EST!B113&lt;='ET - DST adjusted'!$E$2),EST!B113+1/24,EST!B113)</f>
         <v>41016.792361111111</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A113" s="10">
+      <c r="A113" s="9">
         <f>IF(AND(EST!A114&gt;='ET - DST adjusted'!$D$2,EST!A114&lt;='ET - DST adjusted'!$E$2),EST!A114+1/24,EST!A114)</f>
         <v>41017.255555555552</v>
       </c>
-      <c r="B113" s="10">
+      <c r="B113" s="9">
         <f>IF(AND(EST!B114&gt;='ET - DST adjusted'!$D$2,EST!B114&lt;='ET - DST adjusted'!$E$2),EST!B114+1/24,EST!B114)</f>
         <v>41017.79305555555</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114" s="10">
+      <c r="A114" s="9">
         <f>IF(AND(EST!A115&gt;='ET - DST adjusted'!$D$2,EST!A115&lt;='ET - DST adjusted'!$E$2),EST!A115+1/24,EST!A115)</f>
         <v>41018.254861111105</v>
       </c>
-      <c r="B114" s="10">
+      <c r="B114" s="9">
         <f>IF(AND(EST!B115&gt;='ET - DST adjusted'!$D$2,EST!B115&lt;='ET - DST adjusted'!$E$2),EST!B115+1/24,EST!B115)</f>
         <v>41018.793749999997</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115" s="10">
+      <c r="A115" s="9">
         <f>IF(AND(EST!A116&gt;='ET - DST adjusted'!$D$2,EST!A116&lt;='ET - DST adjusted'!$E$2),EST!A116+1/24,EST!A116)</f>
         <v>41019.254166666666</v>
       </c>
-      <c r="B115" s="10">
+      <c r="B115" s="9">
         <f>IF(AND(EST!B116&gt;='ET - DST adjusted'!$D$2,EST!B116&lt;='ET - DST adjusted'!$E$2),EST!B116+1/24,EST!B116)</f>
         <v>41019.794444444444</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A116" s="10">
+      <c r="A116" s="9">
         <f>IF(AND(EST!A117&gt;='ET - DST adjusted'!$D$2,EST!A117&lt;='ET - DST adjusted'!$E$2),EST!A117+1/24,EST!A117)</f>
         <v>41020.252777777772</v>
       </c>
-      <c r="B116" s="10">
+      <c r="B116" s="9">
         <f>IF(AND(EST!B117&gt;='ET - DST adjusted'!$D$2,EST!B117&lt;='ET - DST adjusted'!$E$2),EST!B117+1/24,EST!B117)</f>
         <v>41020.795138888883</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A117" s="10">
+      <c r="A117" s="9">
         <f>IF(AND(EST!A118&gt;='ET - DST adjusted'!$D$2,EST!A118&lt;='ET - DST adjusted'!$E$2),EST!A118+1/24,EST!A118)</f>
         <v>41021.252083333333</v>
       </c>
-      <c r="B117" s="10">
+      <c r="B117" s="9">
         <f>IF(AND(EST!B118&gt;='ET - DST adjusted'!$D$2,EST!B118&lt;='ET - DST adjusted'!$E$2),EST!B118+1/24,EST!B118)</f>
         <v>41021.79583333333</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A118" s="10">
+      <c r="A118" s="9">
         <f>IF(AND(EST!A119&gt;='ET - DST adjusted'!$D$2,EST!A119&lt;='ET - DST adjusted'!$E$2),EST!A119+1/24,EST!A119)</f>
         <v>41022.251388888886</v>
       </c>
-      <c r="B118" s="10">
+      <c r="B118" s="9">
         <f>IF(AND(EST!B119&gt;='ET - DST adjusted'!$D$2,EST!B119&lt;='ET - DST adjusted'!$E$2),EST!B119+1/24,EST!B119)</f>
         <v>41022.79583333333</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A119" s="10">
+      <c r="A119" s="9">
         <f>IF(AND(EST!A120&gt;='ET - DST adjusted'!$D$2,EST!A120&lt;='ET - DST adjusted'!$E$2),EST!A120+1/24,EST!A120)</f>
         <v>41023.250694444439</v>
       </c>
-      <c r="B119" s="10">
+      <c r="B119" s="9">
         <f>IF(AND(EST!B120&gt;='ET - DST adjusted'!$D$2,EST!B120&lt;='ET - DST adjusted'!$E$2),EST!B120+1/24,EST!B120)</f>
         <v>41023.796527777777</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A120" s="10">
+      <c r="A120" s="9">
         <f>IF(AND(EST!A121&gt;='ET - DST adjusted'!$D$2,EST!A121&lt;='ET - DST adjusted'!$E$2),EST!A121+1/24,EST!A121)</f>
         <v>41024.256249999999</v>
       </c>
-      <c r="B120" s="10">
+      <c r="B120" s="9">
         <f>IF(AND(EST!B121&gt;='ET - DST adjusted'!$D$2,EST!B121&lt;='ET - DST adjusted'!$E$2),EST!B121+1/24,EST!B121)</f>
         <v>41024.797222222223</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A121" s="10">
+      <c r="A121" s="9">
         <f>IF(AND(EST!A122&gt;='ET - DST adjusted'!$D$2,EST!A122&lt;='ET - DST adjusted'!$E$2),EST!A122+1/24,EST!A122)</f>
         <v>41025.255555555552</v>
       </c>
-      <c r="B121" s="10">
+      <c r="B121" s="9">
         <f>IF(AND(EST!B122&gt;='ET - DST adjusted'!$D$2,EST!B122&lt;='ET - DST adjusted'!$E$2),EST!B122+1/24,EST!B122)</f>
         <v>41025.797916666663</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A122" s="10">
+      <c r="A122" s="9">
         <f>IF(AND(EST!A123&gt;='ET - DST adjusted'!$D$2,EST!A123&lt;='ET - DST adjusted'!$E$2),EST!A123+1/24,EST!A123)</f>
         <v>41026.254861111105</v>
       </c>
-      <c r="B122" s="10">
+      <c r="B122" s="9">
         <f>IF(AND(EST!B123&gt;='ET - DST adjusted'!$D$2,EST!B123&lt;='ET - DST adjusted'!$E$2),EST!B123+1/24,EST!B123)</f>
         <v>41026.833333333328</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A123" s="10">
+      <c r="A123" s="9">
         <f>IF(AND(EST!A124&gt;='ET - DST adjusted'!$D$2,EST!A124&lt;='ET - DST adjusted'!$E$2),EST!A124+1/24,EST!A124)</f>
         <v>41027.254166666666</v>
       </c>
-      <c r="B123" s="10">
+      <c r="B123" s="9">
         <f>IF(AND(EST!B124&gt;='ET - DST adjusted'!$D$2,EST!B124&lt;='ET - DST adjusted'!$E$2),EST!B124+1/24,EST!B124)</f>
         <v>41027.834027777775</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A124" s="10">
+      <c r="A124" s="9">
         <f>IF(AND(EST!A125&gt;='ET - DST adjusted'!$D$2,EST!A125&lt;='ET - DST adjusted'!$E$2),EST!A125+1/24,EST!A125)</f>
         <v>41028.253472222219</v>
       </c>
-      <c r="B124" s="10">
+      <c r="B124" s="9">
         <f>IF(AND(EST!B125&gt;='ET - DST adjusted'!$D$2,EST!B125&lt;='ET - DST adjusted'!$E$2),EST!B125+1/24,EST!B125)</f>
         <v>41028.834722222222</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A125" s="10">
+      <c r="A125" s="9">
         <f>IF(AND(EST!A126&gt;='ET - DST adjusted'!$D$2,EST!A126&lt;='ET - DST adjusted'!$E$2),EST!A126+1/24,EST!A126)</f>
         <v>41029.252777777772</v>
       </c>
-      <c r="B125" s="10">
+      <c r="B125" s="9">
         <f>IF(AND(EST!B126&gt;='ET - DST adjusted'!$D$2,EST!B126&lt;='ET - DST adjusted'!$E$2),EST!B126+1/24,EST!B126)</f>
         <v>41029.834722222222</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A126" s="10">
+      <c r="A126" s="9">
         <f>IF(AND(EST!A127&gt;='ET - DST adjusted'!$D$2,EST!A127&lt;='ET - DST adjusted'!$E$2),EST!A127+1/24,EST!A127)</f>
         <v>41030.252083333333</v>
       </c>
-      <c r="B126" s="10">
+      <c r="B126" s="9">
         <f>IF(AND(EST!B127&gt;='ET - DST adjusted'!$D$2,EST!B127&lt;='ET - DST adjusted'!$E$2),EST!B127+1/24,EST!B127)</f>
         <v>41030.835416666661</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A127" s="10">
+      <c r="A127" s="9">
         <f>IF(AND(EST!A128&gt;='ET - DST adjusted'!$D$2,EST!A128&lt;='ET - DST adjusted'!$E$2),EST!A128+1/24,EST!A128)</f>
         <v>41031.251388888886</v>
       </c>
-      <c r="B127" s="10">
+      <c r="B127" s="9">
         <f>IF(AND(EST!B128&gt;='ET - DST adjusted'!$D$2,EST!B128&lt;='ET - DST adjusted'!$E$2),EST!B128+1/24,EST!B128)</f>
         <v>41031.836111111108</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A128" s="10">
+      <c r="A128" s="9">
         <f>IF(AND(EST!A129&gt;='ET - DST adjusted'!$D$2,EST!A129&lt;='ET - DST adjusted'!$E$2),EST!A129+1/24,EST!A129)</f>
         <v>41032.25</v>
       </c>
-      <c r="B128" s="10">
+      <c r="B128" s="9">
         <f>IF(AND(EST!B129&gt;='ET - DST adjusted'!$D$2,EST!B129&lt;='ET - DST adjusted'!$E$2),EST!B129+1/24,EST!B129)</f>
         <v>41032.836805555555</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A129" s="10">
+      <c r="A129" s="9">
         <f>IF(AND(EST!A130&gt;='ET - DST adjusted'!$D$2,EST!A130&lt;='ET - DST adjusted'!$E$2),EST!A130+1/24,EST!A130)</f>
         <v>41033.256249999999</v>
       </c>
-      <c r="B129" s="10">
+      <c r="B129" s="9">
         <f>IF(AND(EST!B130&gt;='ET - DST adjusted'!$D$2,EST!B130&lt;='ET - DST adjusted'!$E$2),EST!B130+1/24,EST!B130)</f>
         <v>41033.837499999994</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A130" s="10">
+      <c r="A130" s="9">
         <f>IF(AND(EST!A131&gt;='ET - DST adjusted'!$D$2,EST!A131&lt;='ET - DST adjusted'!$E$2),EST!A131+1/24,EST!A131)</f>
         <v>41034.255555555552</v>
       </c>
-      <c r="B130" s="10">
+      <c r="B130" s="9">
         <f>IF(AND(EST!B131&gt;='ET - DST adjusted'!$D$2,EST!B131&lt;='ET - DST adjusted'!$E$2),EST!B131+1/24,EST!B131)</f>
         <v>41034.838194444441</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A131" s="10">
+      <c r="A131" s="9">
         <f>IF(AND(EST!A132&gt;='ET - DST adjusted'!$D$2,EST!A132&lt;='ET - DST adjusted'!$E$2),EST!A132+1/24,EST!A132)</f>
         <v>41035.254861111105</v>
       </c>
-      <c r="B131" s="10">
+      <c r="B131" s="9">
         <f>IF(AND(EST!B132&gt;='ET - DST adjusted'!$D$2,EST!B132&lt;='ET - DST adjusted'!$E$2),EST!B132+1/24,EST!B132)</f>
         <v>41035.838194444441</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A132" s="10">
+      <c r="A132" s="9">
         <f>IF(AND(EST!A133&gt;='ET - DST adjusted'!$D$2,EST!A133&lt;='ET - DST adjusted'!$E$2),EST!A133+1/24,EST!A133)</f>
         <v>41036.254166666666</v>
       </c>
-      <c r="B132" s="10">
+      <c r="B132" s="9">
         <f>IF(AND(EST!B133&gt;='ET - DST adjusted'!$D$2,EST!B133&lt;='ET - DST adjusted'!$E$2),EST!B133+1/24,EST!B133)</f>
         <v>41036.838888888888</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A133" s="10">
+      <c r="A133" s="9">
         <f>IF(AND(EST!A134&gt;='ET - DST adjusted'!$D$2,EST!A134&lt;='ET - DST adjusted'!$E$2),EST!A134+1/24,EST!A134)</f>
         <v>41037.254166666666</v>
       </c>
-      <c r="B133" s="10">
+      <c r="B133" s="9">
         <f>IF(AND(EST!B134&gt;='ET - DST adjusted'!$D$2,EST!B134&lt;='ET - DST adjusted'!$E$2),EST!B134+1/24,EST!B134)</f>
         <v>41037.839583333334</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A134" s="10">
+      <c r="A134" s="9">
         <f>IF(AND(EST!A135&gt;='ET - DST adjusted'!$D$2,EST!A135&lt;='ET - DST adjusted'!$E$2),EST!A135+1/24,EST!A135)</f>
         <v>41038.253472222219</v>
       </c>
-      <c r="B134" s="10">
+      <c r="B134" s="9">
         <f>IF(AND(EST!B135&gt;='ET - DST adjusted'!$D$2,EST!B135&lt;='ET - DST adjusted'!$E$2),EST!B135+1/24,EST!B135)</f>
         <v>41038.833333333328</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A135" s="10">
+      <c r="A135" s="9">
         <f>IF(AND(EST!A136&gt;='ET - DST adjusted'!$D$2,EST!A136&lt;='ET - DST adjusted'!$E$2),EST!A136+1/24,EST!A136)</f>
         <v>41039.252777777772</v>
       </c>
-      <c r="B135" s="10">
+      <c r="B135" s="9">
         <f>IF(AND(EST!B136&gt;='ET - DST adjusted'!$D$2,EST!B136&lt;='ET - DST adjusted'!$E$2),EST!B136+1/24,EST!B136)</f>
         <v>41039.834027777775</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A136" s="10">
+      <c r="A136" s="9">
         <f>IF(AND(EST!A137&gt;='ET - DST adjusted'!$D$2,EST!A137&lt;='ET - DST adjusted'!$E$2),EST!A137+1/24,EST!A137)</f>
         <v>41040.252083333333</v>
       </c>
-      <c r="B136" s="10">
+      <c r="B136" s="9">
         <f>IF(AND(EST!B137&gt;='ET - DST adjusted'!$D$2,EST!B137&lt;='ET - DST adjusted'!$E$2),EST!B137+1/24,EST!B137)</f>
         <v>41040.834722222222</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A137" s="10">
+      <c r="A137" s="9">
         <f>IF(AND(EST!A138&gt;='ET - DST adjusted'!$D$2,EST!A138&lt;='ET - DST adjusted'!$E$2),EST!A138+1/24,EST!A138)</f>
         <v>41041.251388888886</v>
       </c>
-      <c r="B137" s="10">
+      <c r="B137" s="9">
         <f>IF(AND(EST!B138&gt;='ET - DST adjusted'!$D$2,EST!B138&lt;='ET - DST adjusted'!$E$2),EST!B138+1/24,EST!B138)</f>
         <v>41041.834722222222</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A138" s="10">
+      <c r="A138" s="9">
         <f>IF(AND(EST!A139&gt;='ET - DST adjusted'!$D$2,EST!A139&lt;='ET - DST adjusted'!$E$2),EST!A139+1/24,EST!A139)</f>
         <v>41042.250694444439</v>
       </c>
-      <c r="B138" s="10">
+      <c r="B138" s="9">
         <f>IF(AND(EST!B139&gt;='ET - DST adjusted'!$D$2,EST!B139&lt;='ET - DST adjusted'!$E$2),EST!B139+1/24,EST!B139)</f>
         <v>41042.835416666661</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A139" s="10">
+      <c r="A139" s="9">
         <f>IF(AND(EST!A140&gt;='ET - DST adjusted'!$D$2,EST!A140&lt;='ET - DST adjusted'!$E$2),EST!A140+1/24,EST!A140)</f>
         <v>41043.25</v>
       </c>
-      <c r="B139" s="10">
+      <c r="B139" s="9">
         <f>IF(AND(EST!B140&gt;='ET - DST adjusted'!$D$2,EST!B140&lt;='ET - DST adjusted'!$E$2),EST!B140+1/24,EST!B140)</f>
         <v>41043.836111111108</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A140" s="10">
+      <c r="A140" s="9">
         <f>IF(AND(EST!A141&gt;='ET - DST adjusted'!$D$2,EST!A141&lt;='ET - DST adjusted'!$E$2),EST!A141+1/24,EST!A141)</f>
         <v>41044.25</v>
       </c>
-      <c r="B140" s="10">
+      <c r="B140" s="9">
         <f>IF(AND(EST!B141&gt;='ET - DST adjusted'!$D$2,EST!B141&lt;='ET - DST adjusted'!$E$2),EST!B141+1/24,EST!B141)</f>
         <v>41044.836805555555</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A141" s="10">
+      <c r="A141" s="9">
         <f>IF(AND(EST!A142&gt;='ET - DST adjusted'!$D$2,EST!A142&lt;='ET - DST adjusted'!$E$2),EST!A142+1/24,EST!A142)</f>
         <v>41045.256249999999</v>
       </c>
-      <c r="B141" s="10">
+      <c r="B141" s="9">
         <f>IF(AND(EST!B142&gt;='ET - DST adjusted'!$D$2,EST!B142&lt;='ET - DST adjusted'!$E$2),EST!B142+1/24,EST!B142)</f>
         <v>41045.837499999994</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A142" s="10">
+      <c r="A142" s="9">
         <f>IF(AND(EST!A143&gt;='ET - DST adjusted'!$D$2,EST!A143&lt;='ET - DST adjusted'!$E$2),EST!A143+1/24,EST!A143)</f>
         <v>41046.255555555552</v>
       </c>
-      <c r="B142" s="10">
+      <c r="B142" s="9">
         <f>IF(AND(EST!B143&gt;='ET - DST adjusted'!$D$2,EST!B143&lt;='ET - DST adjusted'!$E$2),EST!B143+1/24,EST!B143)</f>
         <v>41046.838194444441</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A143" s="10">
+      <c r="A143" s="9">
         <f>IF(AND(EST!A144&gt;='ET - DST adjusted'!$D$2,EST!A144&lt;='ET - DST adjusted'!$E$2),EST!A144+1/24,EST!A144)</f>
         <v>41047.254861111105</v>
       </c>
-      <c r="B143" s="10">
+      <c r="B143" s="9">
         <f>IF(AND(EST!B144&gt;='ET - DST adjusted'!$D$2,EST!B144&lt;='ET - DST adjusted'!$E$2),EST!B144+1/24,EST!B144)</f>
         <v>41047.838194444441</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A144" s="10">
+      <c r="A144" s="9">
         <f>IF(AND(EST!A145&gt;='ET - DST adjusted'!$D$2,EST!A145&lt;='ET - DST adjusted'!$E$2),EST!A145+1/24,EST!A145)</f>
         <v>41048.254861111105</v>
       </c>
-      <c r="B144" s="10">
+      <c r="B144" s="9">
         <f>IF(AND(EST!B145&gt;='ET - DST adjusted'!$D$2,EST!B145&lt;='ET - DST adjusted'!$E$2),EST!B145+1/24,EST!B145)</f>
         <v>41048.838888888888</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A145" s="10">
+      <c r="A145" s="9">
         <f>IF(AND(EST!A146&gt;='ET - DST adjusted'!$D$2,EST!A146&lt;='ET - DST adjusted'!$E$2),EST!A146+1/24,EST!A146)</f>
         <v>41049.254166666666</v>
       </c>
-      <c r="B145" s="10">
+      <c r="B145" s="9">
         <f>IF(AND(EST!B146&gt;='ET - DST adjusted'!$D$2,EST!B146&lt;='ET - DST adjusted'!$E$2),EST!B146+1/24,EST!B146)</f>
         <v>41049.839583333334</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A146" s="10">
+      <c r="A146" s="9">
         <f>IF(AND(EST!A147&gt;='ET - DST adjusted'!$D$2,EST!A147&lt;='ET - DST adjusted'!$E$2),EST!A147+1/24,EST!A147)</f>
         <v>41050.253472222219</v>
       </c>
-      <c r="B146" s="10">
+      <c r="B146" s="9">
         <f>IF(AND(EST!B147&gt;='ET - DST adjusted'!$D$2,EST!B147&lt;='ET - DST adjusted'!$E$2),EST!B147+1/24,EST!B147)</f>
         <v>41050.833333333328</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A147" s="10">
+      <c r="A147" s="9">
         <f>IF(AND(EST!A148&gt;='ET - DST adjusted'!$D$2,EST!A148&lt;='ET - DST adjusted'!$E$2),EST!A148+1/24,EST!A148)</f>
         <v>41051.253472222219</v>
       </c>
-      <c r="B147" s="10">
+      <c r="B147" s="9">
         <f>IF(AND(EST!B148&gt;='ET - DST adjusted'!$D$2,EST!B148&lt;='ET - DST adjusted'!$E$2),EST!B148+1/24,EST!B148)</f>
         <v>41051.833333333328</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A148" s="10">
+      <c r="A148" s="9">
         <f>IF(AND(EST!A149&gt;='ET - DST adjusted'!$D$2,EST!A149&lt;='ET - DST adjusted'!$E$2),EST!A149+1/24,EST!A149)</f>
         <v>41052.252777777772</v>
       </c>
-      <c r="B148" s="10">
+      <c r="B148" s="9">
         <f>IF(AND(EST!B149&gt;='ET - DST adjusted'!$D$2,EST!B149&lt;='ET - DST adjusted'!$E$2),EST!B149+1/24,EST!B149)</f>
         <v>41052.834027777775</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A149" s="10">
+      <c r="A149" s="9">
         <f>IF(AND(EST!A150&gt;='ET - DST adjusted'!$D$2,EST!A150&lt;='ET - DST adjusted'!$E$2),EST!A150+1/24,EST!A150)</f>
         <v>41053.252777777772</v>
       </c>
-      <c r="B149" s="10">
+      <c r="B149" s="9">
         <f>IF(AND(EST!B150&gt;='ET - DST adjusted'!$D$2,EST!B150&lt;='ET - DST adjusted'!$E$2),EST!B150+1/24,EST!B150)</f>
         <v>41053.834722222222</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A150" s="10">
+      <c r="A150" s="9">
         <f>IF(AND(EST!A151&gt;='ET - DST adjusted'!$D$2,EST!A151&lt;='ET - DST adjusted'!$E$2),EST!A151+1/24,EST!A151)</f>
         <v>41054.252083333333</v>
       </c>
-      <c r="B150" s="10">
+      <c r="B150" s="9">
         <f>IF(AND(EST!B151&gt;='ET - DST adjusted'!$D$2,EST!B151&lt;='ET - DST adjusted'!$E$2),EST!B151+1/24,EST!B151)</f>
         <v>41054.835416666661</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A151" s="10">
+      <c r="A151" s="9">
         <f>IF(AND(EST!A152&gt;='ET - DST adjusted'!$D$2,EST!A152&lt;='ET - DST adjusted'!$E$2),EST!A152+1/24,EST!A152)</f>
         <v>41055.252083333333</v>
       </c>
-      <c r="B151" s="10">
+      <c r="B151" s="9">
         <f>IF(AND(EST!B152&gt;='ET - DST adjusted'!$D$2,EST!B152&lt;='ET - DST adjusted'!$E$2),EST!B152+1/24,EST!B152)</f>
         <v>41055.835416666661</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A152" s="10">
+      <c r="A152" s="9">
         <f>IF(AND(EST!A153&gt;='ET - DST adjusted'!$D$2,EST!A153&lt;='ET - DST adjusted'!$E$2),EST!A153+1/24,EST!A153)</f>
         <v>41056.251388888886</v>
       </c>
-      <c r="B152" s="10">
+      <c r="B152" s="9">
         <f>IF(AND(EST!B153&gt;='ET - DST adjusted'!$D$2,EST!B153&lt;='ET - DST adjusted'!$E$2),EST!B153+1/24,EST!B153)</f>
         <v>41056.836111111108</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A153" s="10">
+      <c r="A153" s="9">
         <f>IF(AND(EST!A154&gt;='ET - DST adjusted'!$D$2,EST!A154&lt;='ET - DST adjusted'!$E$2),EST!A154+1/24,EST!A154)</f>
         <v>41057.251388888886</v>
       </c>
-      <c r="B153" s="10">
+      <c r="B153" s="9">
         <f>IF(AND(EST!B154&gt;='ET - DST adjusted'!$D$2,EST!B154&lt;='ET - DST adjusted'!$E$2),EST!B154+1/24,EST!B154)</f>
         <v>41057.836805555555</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A154" s="10">
+      <c r="A154" s="9">
         <f>IF(AND(EST!A155&gt;='ET - DST adjusted'!$D$2,EST!A155&lt;='ET - DST adjusted'!$E$2),EST!A155+1/24,EST!A155)</f>
         <v>41058.250694444439</v>
       </c>
-      <c r="B154" s="10">
+      <c r="B154" s="9">
         <f>IF(AND(EST!B155&gt;='ET - DST adjusted'!$D$2,EST!B155&lt;='ET - DST adjusted'!$E$2),EST!B155+1/24,EST!B155)</f>
         <v>41058.836805555555</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A155" s="10">
+      <c r="A155" s="9">
         <f>IF(AND(EST!A156&gt;='ET - DST adjusted'!$D$2,EST!A156&lt;='ET - DST adjusted'!$E$2),EST!A156+1/24,EST!A156)</f>
         <v>41059.250694444439</v>
       </c>
-      <c r="B155" s="10">
+      <c r="B155" s="9">
         <f>IF(AND(EST!B156&gt;='ET - DST adjusted'!$D$2,EST!B156&lt;='ET - DST adjusted'!$E$2),EST!B156+1/24,EST!B156)</f>
         <v>41059.837499999994</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A156" s="10">
+      <c r="A156" s="9">
         <f>IF(AND(EST!A157&gt;='ET - DST adjusted'!$D$2,EST!A157&lt;='ET - DST adjusted'!$E$2),EST!A157+1/24,EST!A157)</f>
         <v>41060.25</v>
       </c>
-      <c r="B156" s="10">
+      <c r="B156" s="9">
         <f>IF(AND(EST!B157&gt;='ET - DST adjusted'!$D$2,EST!B157&lt;='ET - DST adjusted'!$E$2),EST!B157+1/24,EST!B157)</f>
         <v>41060.838194444441</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A157" s="10">
+      <c r="A157" s="9">
         <f>IF(AND(EST!A158&gt;='ET - DST adjusted'!$D$2,EST!A158&lt;='ET - DST adjusted'!$E$2),EST!A158+1/24,EST!A158)</f>
         <v>41061.25</v>
       </c>
-      <c r="B157" s="10">
+      <c r="B157" s="9">
         <f>IF(AND(EST!B158&gt;='ET - DST adjusted'!$D$2,EST!B158&lt;='ET - DST adjusted'!$E$2),EST!B158+1/24,EST!B158)</f>
         <v>41061.838194444441</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A158" s="10">
+      <c r="A158" s="9">
         <f>IF(AND(EST!A159&gt;='ET - DST adjusted'!$D$2,EST!A159&lt;='ET - DST adjusted'!$E$2),EST!A159+1/24,EST!A159)</f>
         <v>41062.25</v>
       </c>
-      <c r="B158" s="10">
+      <c r="B158" s="9">
         <f>IF(AND(EST!B159&gt;='ET - DST adjusted'!$D$2,EST!B159&lt;='ET - DST adjusted'!$E$2),EST!B159+1/24,EST!B159)</f>
         <v>41062.838888888888</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A159" s="10">
+      <c r="A159" s="9">
         <f>IF(AND(EST!A160&gt;='ET - DST adjusted'!$D$2,EST!A160&lt;='ET - DST adjusted'!$E$2),EST!A160+1/24,EST!A160)</f>
         <v>41063.25</v>
       </c>
-      <c r="B159" s="10">
+      <c r="B159" s="9">
         <f>IF(AND(EST!B160&gt;='ET - DST adjusted'!$D$2,EST!B160&lt;='ET - DST adjusted'!$E$2),EST!B160+1/24,EST!B160)</f>
         <v>41063.839583333334</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A160" s="10">
+      <c r="A160" s="9">
         <f>IF(AND(EST!A161&gt;='ET - DST adjusted'!$D$2,EST!A161&lt;='ET - DST adjusted'!$E$2),EST!A161+1/24,EST!A161)</f>
         <v>41064.214583333334</v>
       </c>
-      <c r="B160" s="10">
+      <c r="B160" s="9">
         <f>IF(AND(EST!B161&gt;='ET - DST adjusted'!$D$2,EST!B161&lt;='ET - DST adjusted'!$E$2),EST!B161+1/24,EST!B161)</f>
         <v>41064.839583333334</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A161" s="10">
+      <c r="A161" s="9">
         <f>IF(AND(EST!A162&gt;='ET - DST adjusted'!$D$2,EST!A162&lt;='ET - DST adjusted'!$E$2),EST!A162+1/24,EST!A162)</f>
         <v>41065.214583333334</v>
       </c>
-      <c r="B161" s="10">
+      <c r="B161" s="9">
         <f>IF(AND(EST!B162&gt;='ET - DST adjusted'!$D$2,EST!B162&lt;='ET - DST adjusted'!$E$2),EST!B162+1/24,EST!B162)</f>
         <v>41065.833333333328</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A162" s="10">
+      <c r="A162" s="9">
         <f>IF(AND(EST!A163&gt;='ET - DST adjusted'!$D$2,EST!A163&lt;='ET - DST adjusted'!$E$2),EST!A163+1/24,EST!A163)</f>
         <v>41066.214583333334</v>
       </c>
-      <c r="B162" s="10">
+      <c r="B162" s="9">
         <f>IF(AND(EST!B163&gt;='ET - DST adjusted'!$D$2,EST!B163&lt;='ET - DST adjusted'!$E$2),EST!B163+1/24,EST!B163)</f>
         <v>41066.833333333328</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A163" s="10">
+      <c r="A163" s="9">
         <f>IF(AND(EST!A164&gt;='ET - DST adjusted'!$D$2,EST!A164&lt;='ET - DST adjusted'!$E$2),EST!A164+1/24,EST!A164)</f>
         <v>41067.214583333334</v>
       </c>
-      <c r="B163" s="10">
+      <c r="B163" s="9">
         <f>IF(AND(EST!B164&gt;='ET - DST adjusted'!$D$2,EST!B164&lt;='ET - DST adjusted'!$E$2),EST!B164+1/24,EST!B164)</f>
         <v>41067.834027777775</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A164" s="10">
+      <c r="A164" s="9">
         <f>IF(AND(EST!A165&gt;='ET - DST adjusted'!$D$2,EST!A165&lt;='ET - DST adjusted'!$E$2),EST!A165+1/24,EST!A165)</f>
         <v>41068.214583333334</v>
       </c>
-      <c r="B164" s="10">
+      <c r="B164" s="9">
         <f>IF(AND(EST!B165&gt;='ET - DST adjusted'!$D$2,EST!B165&lt;='ET - DST adjusted'!$E$2),EST!B165+1/24,EST!B165)</f>
         <v>41068.834027777775</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A165" s="10">
+      <c r="A165" s="9">
         <f>IF(AND(EST!A166&gt;='ET - DST adjusted'!$D$2,EST!A166&lt;='ET - DST adjusted'!$E$2),EST!A166+1/24,EST!A166)</f>
         <v>41069.213888888888</v>
       </c>
-      <c r="B165" s="10">
+      <c r="B165" s="9">
         <f>IF(AND(EST!B166&gt;='ET - DST adjusted'!$D$2,EST!B166&lt;='ET - DST adjusted'!$E$2),EST!B166+1/24,EST!B166)</f>
         <v>41069.834722222222</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A166" s="10">
+      <c r="A166" s="9">
         <f>IF(AND(EST!A167&gt;='ET - DST adjusted'!$D$2,EST!A167&lt;='ET - DST adjusted'!$E$2),EST!A167+1/24,EST!A167)</f>
         <v>41070.213888888888</v>
       </c>
-      <c r="B166" s="10">
+      <c r="B166" s="9">
         <f>IF(AND(EST!B167&gt;='ET - DST adjusted'!$D$2,EST!B167&lt;='ET - DST adjusted'!$E$2),EST!B167+1/24,EST!B167)</f>
         <v>41070.834722222222</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A167" s="10">
+      <c r="A167" s="9">
         <f>IF(AND(EST!A168&gt;='ET - DST adjusted'!$D$2,EST!A168&lt;='ET - DST adjusted'!$E$2),EST!A168+1/24,EST!A168)</f>
         <v>41071.213888888888</v>
       </c>
-      <c r="B167" s="10">
+      <c r="B167" s="9">
         <f>IF(AND(EST!B168&gt;='ET - DST adjusted'!$D$2,EST!B168&lt;='ET - DST adjusted'!$E$2),EST!B168+1/24,EST!B168)</f>
         <v>41071.835416666661</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A168" s="10">
+      <c r="A168" s="9">
         <f>IF(AND(EST!A169&gt;='ET - DST adjusted'!$D$2,EST!A169&lt;='ET - DST adjusted'!$E$2),EST!A169+1/24,EST!A169)</f>
         <v>41072.213888888888</v>
       </c>
-      <c r="B168" s="10">
+      <c r="B168" s="9">
         <f>IF(AND(EST!B169&gt;='ET - DST adjusted'!$D$2,EST!B169&lt;='ET - DST adjusted'!$E$2),EST!B169+1/24,EST!B169)</f>
         <v>41072.835416666661</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A169" s="10">
+      <c r="A169" s="9">
         <f>IF(AND(EST!A170&gt;='ET - DST adjusted'!$D$2,EST!A170&lt;='ET - DST adjusted'!$E$2),EST!A170+1/24,EST!A170)</f>
         <v>41073.213888888888</v>
       </c>
-      <c r="B169" s="10">
+      <c r="B169" s="9">
         <f>IF(AND(EST!B170&gt;='ET - DST adjusted'!$D$2,EST!B170&lt;='ET - DST adjusted'!$E$2),EST!B170+1/24,EST!B170)</f>
         <v>41073.835416666661</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A170" s="10">
+      <c r="A170" s="9">
         <f>IF(AND(EST!A171&gt;='ET - DST adjusted'!$D$2,EST!A171&lt;='ET - DST adjusted'!$E$2),EST!A171+1/24,EST!A171)</f>
         <v>41074.213888888888</v>
       </c>
-      <c r="B170" s="10">
+      <c r="B170" s="9">
         <f>IF(AND(EST!B171&gt;='ET - DST adjusted'!$D$2,EST!B171&lt;='ET - DST adjusted'!$E$2),EST!B171+1/24,EST!B171)</f>
         <v>41074.836111111108</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A171" s="10">
+      <c r="A171" s="9">
         <f>IF(AND(EST!A172&gt;='ET - DST adjusted'!$D$2,EST!A172&lt;='ET - DST adjusted'!$E$2),EST!A172+1/24,EST!A172)</f>
         <v>41075.213888888888</v>
       </c>
-      <c r="B171" s="10">
+      <c r="B171" s="9">
         <f>IF(AND(EST!B172&gt;='ET - DST adjusted'!$D$2,EST!B172&lt;='ET - DST adjusted'!$E$2),EST!B172+1/24,EST!B172)</f>
         <v>41075.836111111108</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A172" s="10">
+      <c r="A172" s="9">
         <f>IF(AND(EST!A173&gt;='ET - DST adjusted'!$D$2,EST!A173&lt;='ET - DST adjusted'!$E$2),EST!A173+1/24,EST!A173)</f>
         <v>41076.214583333334</v>
       </c>
-      <c r="B172" s="10">
+      <c r="B172" s="9">
         <f>IF(AND(EST!B173&gt;='ET - DST adjusted'!$D$2,EST!B173&lt;='ET - DST adjusted'!$E$2),EST!B173+1/24,EST!B173)</f>
         <v>41076.836111111108</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A173" s="10">
+      <c r="A173" s="9">
         <f>IF(AND(EST!A174&gt;='ET - DST adjusted'!$D$2,EST!A174&lt;='ET - DST adjusted'!$E$2),EST!A174+1/24,EST!A174)</f>
         <v>41077.214583333334</v>
       </c>
-      <c r="B173" s="10">
+      <c r="B173" s="9">
         <f>IF(AND(EST!B174&gt;='ET - DST adjusted'!$D$2,EST!B174&lt;='ET - DST adjusted'!$E$2),EST!B174+1/24,EST!B174)</f>
         <v>41077.836805555555</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A174" s="10">
+      <c r="A174" s="9">
         <f>IF(AND(EST!A175&gt;='ET - DST adjusted'!$D$2,EST!A175&lt;='ET - DST adjusted'!$E$2),EST!A175+1/24,EST!A175)</f>
         <v>41078.214583333334</v>
       </c>
-      <c r="B174" s="10">
+      <c r="B174" s="9">
         <f>IF(AND(EST!B175&gt;='ET - DST adjusted'!$D$2,EST!B175&lt;='ET - DST adjusted'!$E$2),EST!B175+1/24,EST!B175)</f>
         <v>41078.836805555555</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A175" s="10">
+      <c r="A175" s="9">
         <f>IF(AND(EST!A176&gt;='ET - DST adjusted'!$D$2,EST!A176&lt;='ET - DST adjusted'!$E$2),EST!A176+1/24,EST!A176)</f>
         <v>41079.214583333334</v>
       </c>
-      <c r="B175" s="10">
+      <c r="B175" s="9">
         <f>IF(AND(EST!B176&gt;='ET - DST adjusted'!$D$2,EST!B176&lt;='ET - DST adjusted'!$E$2),EST!B176+1/24,EST!B176)</f>
         <v>41079.836805555555</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A176" s="10">
+      <c r="A176" s="9">
         <f>IF(AND(EST!A177&gt;='ET - DST adjusted'!$D$2,EST!A177&lt;='ET - DST adjusted'!$E$2),EST!A177+1/24,EST!A177)</f>
         <v>41080.214583333334</v>
       </c>
-      <c r="B176" s="10">
+      <c r="B176" s="9">
         <f>IF(AND(EST!B177&gt;='ET - DST adjusted'!$D$2,EST!B177&lt;='ET - DST adjusted'!$E$2),EST!B177+1/24,EST!B177)</f>
         <v>41080.837499999994</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A177" s="10">
+      <c r="A177" s="9">
         <f>IF(AND(EST!A178&gt;='ET - DST adjusted'!$D$2,EST!A178&lt;='ET - DST adjusted'!$E$2),EST!A178+1/24,EST!A178)</f>
         <v>41081.214583333334</v>
       </c>
-      <c r="B177" s="10">
+      <c r="B177" s="9">
         <f>IF(AND(EST!B178&gt;='ET - DST adjusted'!$D$2,EST!B178&lt;='ET - DST adjusted'!$E$2),EST!B178+1/24,EST!B178)</f>
         <v>41081.837499999994</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A178" s="10">
+      <c r="A178" s="9">
         <f>IF(AND(EST!A179&gt;='ET - DST adjusted'!$D$2,EST!A179&lt;='ET - DST adjusted'!$E$2),EST!A179+1/24,EST!A179)</f>
         <v>41082.25</v>
       </c>
-      <c r="B178" s="10">
+      <c r="B178" s="9">
         <f>IF(AND(EST!B179&gt;='ET - DST adjusted'!$D$2,EST!B179&lt;='ET - DST adjusted'!$E$2),EST!B179+1/24,EST!B179)</f>
         <v>41082.837499999994</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A179" s="10">
+      <c r="A179" s="9">
         <f>IF(AND(EST!A180&gt;='ET - DST adjusted'!$D$2,EST!A180&lt;='ET - DST adjusted'!$E$2),EST!A180+1/24,EST!A180)</f>
         <v>41083.25</v>
       </c>
-      <c r="B179" s="10">
+      <c r="B179" s="9">
         <f>IF(AND(EST!B180&gt;='ET - DST adjusted'!$D$2,EST!B180&lt;='ET - DST adjusted'!$E$2),EST!B180+1/24,EST!B180)</f>
         <v>41083.837499999994</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A180" s="10">
+      <c r="A180" s="9">
         <f>IF(AND(EST!A181&gt;='ET - DST adjusted'!$D$2,EST!A181&lt;='ET - DST adjusted'!$E$2),EST!A181+1/24,EST!A181)</f>
         <v>41084.25</v>
       </c>
-      <c r="B180" s="10">
+      <c r="B180" s="9">
         <f>IF(AND(EST!B181&gt;='ET - DST adjusted'!$D$2,EST!B181&lt;='ET - DST adjusted'!$E$2),EST!B181+1/24,EST!B181)</f>
         <v>41084.837499999994</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A181" s="10">
+      <c r="A181" s="9">
         <f>IF(AND(EST!A182&gt;='ET - DST adjusted'!$D$2,EST!A182&lt;='ET - DST adjusted'!$E$2),EST!A182+1/24,EST!A182)</f>
         <v>41085.25</v>
       </c>
-      <c r="B181" s="10">
+      <c r="B181" s="9">
         <f>IF(AND(EST!B182&gt;='ET - DST adjusted'!$D$2,EST!B182&lt;='ET - DST adjusted'!$E$2),EST!B182+1/24,EST!B182)</f>
         <v>41085.837499999994</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A182" s="10">
+      <c r="A182" s="9">
         <f>IF(AND(EST!A183&gt;='ET - DST adjusted'!$D$2,EST!A183&lt;='ET - DST adjusted'!$E$2),EST!A183+1/24,EST!A183)</f>
         <v>41086.250694444439</v>
       </c>
-      <c r="B182" s="10">
+      <c r="B182" s="9">
         <f>IF(AND(EST!B183&gt;='ET - DST adjusted'!$D$2,EST!B183&lt;='ET - DST adjusted'!$E$2),EST!B183+1/24,EST!B183)</f>
         <v>41086.837499999994</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A183" s="10">
+      <c r="A183" s="9">
         <f>IF(AND(EST!A184&gt;='ET - DST adjusted'!$D$2,EST!A184&lt;='ET - DST adjusted'!$E$2),EST!A184+1/24,EST!A184)</f>
         <v>41087.250694444439</v>
       </c>
-      <c r="B183" s="10">
+      <c r="B183" s="9">
         <f>IF(AND(EST!B184&gt;='ET - DST adjusted'!$D$2,EST!B184&lt;='ET - DST adjusted'!$E$2),EST!B184+1/24,EST!B184)</f>
         <v>41087.837499999994</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A184" s="10">
+      <c r="A184" s="9">
         <f>IF(AND(EST!A185&gt;='ET - DST adjusted'!$D$2,EST!A185&lt;='ET - DST adjusted'!$E$2),EST!A185+1/24,EST!A185)</f>
         <v>41088.251388888886</v>
       </c>
-      <c r="B184" s="10">
+      <c r="B184" s="9">
         <f>IF(AND(EST!B185&gt;='ET - DST adjusted'!$D$2,EST!B185&lt;='ET - DST adjusted'!$E$2),EST!B185+1/24,EST!B185)</f>
         <v>41088.837499999994</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A185" s="10">
+      <c r="A185" s="9">
         <f>IF(AND(EST!A186&gt;='ET - DST adjusted'!$D$2,EST!A186&lt;='ET - DST adjusted'!$E$2),EST!A186+1/24,EST!A186)</f>
         <v>41089.251388888886</v>
       </c>
-      <c r="B185" s="10">
+      <c r="B185" s="9">
         <f>IF(AND(EST!B186&gt;='ET - DST adjusted'!$D$2,EST!B186&lt;='ET - DST adjusted'!$E$2),EST!B186+1/24,EST!B186)</f>
         <v>41089.837499999994</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A186" s="10">
+      <c r="A186" s="9">
         <f>IF(AND(EST!A187&gt;='ET - DST adjusted'!$D$2,EST!A187&lt;='ET - DST adjusted'!$E$2),EST!A187+1/24,EST!A187)</f>
         <v>41090.251388888886</v>
       </c>
-      <c r="B186" s="10">
+      <c r="B186" s="9">
         <f>IF(AND(EST!B187&gt;='ET - DST adjusted'!$D$2,EST!B187&lt;='ET - DST adjusted'!$E$2),EST!B187+1/24,EST!B187)</f>
         <v>41090.837499999994</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A187" s="10">
+      <c r="A187" s="9">
         <f>IF(AND(EST!A188&gt;='ET - DST adjusted'!$D$2,EST!A188&lt;='ET - DST adjusted'!$E$2),EST!A188+1/24,EST!A188)</f>
         <v>41091.252083333333</v>
       </c>
-      <c r="B187" s="10">
+      <c r="B187" s="9">
         <f>IF(AND(EST!B188&gt;='ET - DST adjusted'!$D$2,EST!B188&lt;='ET - DST adjusted'!$E$2),EST!B188+1/24,EST!B188)</f>
         <v>41091.837499999994</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A188" s="10">
+      <c r="A188" s="9">
         <f>IF(AND(EST!A189&gt;='ET - DST adjusted'!$D$2,EST!A189&lt;='ET - DST adjusted'!$E$2),EST!A189+1/24,EST!A189)</f>
         <v>41092.252083333333</v>
       </c>
-      <c r="B188" s="10">
+      <c r="B188" s="9">
         <f>IF(AND(EST!B189&gt;='ET - DST adjusted'!$D$2,EST!B189&lt;='ET - DST adjusted'!$E$2),EST!B189+1/24,EST!B189)</f>
         <v>41092.837499999994</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A189" s="10">
+      <c r="A189" s="9">
         <f>IF(AND(EST!A190&gt;='ET - DST adjusted'!$D$2,EST!A190&lt;='ET - DST adjusted'!$E$2),EST!A190+1/24,EST!A190)</f>
         <v>41093.252777777772</v>
       </c>
-      <c r="B189" s="10">
+      <c r="B189" s="9">
         <f>IF(AND(EST!B190&gt;='ET - DST adjusted'!$D$2,EST!B190&lt;='ET - DST adjusted'!$E$2),EST!B190+1/24,EST!B190)</f>
         <v>41093.837499999994</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A190" s="10">
+      <c r="A190" s="9">
         <f>IF(AND(EST!A191&gt;='ET - DST adjusted'!$D$2,EST!A191&lt;='ET - DST adjusted'!$E$2),EST!A191+1/24,EST!A191)</f>
         <v>41094.252777777772</v>
       </c>
-      <c r="B190" s="10">
+      <c r="B190" s="9">
         <f>IF(AND(EST!B191&gt;='ET - DST adjusted'!$D$2,EST!B191&lt;='ET - DST adjusted'!$E$2),EST!B191+1/24,EST!B191)</f>
         <v>41094.837499999994</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A191" s="10">
+      <c r="A191" s="9">
         <f>IF(AND(EST!A192&gt;='ET - DST adjusted'!$D$2,EST!A192&lt;='ET - DST adjusted'!$E$2),EST!A192+1/24,EST!A192)</f>
         <v>41095.253472222219</v>
       </c>
-      <c r="B191" s="10">
+      <c r="B191" s="9">
         <f>IF(AND(EST!B192&gt;='ET - DST adjusted'!$D$2,EST!B192&lt;='ET - DST adjusted'!$E$2),EST!B192+1/24,EST!B192)</f>
         <v>41095.837499999994</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A192" s="10">
+      <c r="A192" s="9">
         <f>IF(AND(EST!A193&gt;='ET - DST adjusted'!$D$2,EST!A193&lt;='ET - DST adjusted'!$E$2),EST!A193+1/24,EST!A193)</f>
         <v>41096.253472222219</v>
       </c>
-      <c r="B192" s="10">
+      <c r="B192" s="9">
         <f>IF(AND(EST!B193&gt;='ET - DST adjusted'!$D$2,EST!B193&lt;='ET - DST adjusted'!$E$2),EST!B193+1/24,EST!B193)</f>
         <v>41096.836805555555</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A193" s="10">
+      <c r="A193" s="9">
         <f>IF(AND(EST!A194&gt;='ET - DST adjusted'!$D$2,EST!A194&lt;='ET - DST adjusted'!$E$2),EST!A194+1/24,EST!A194)</f>
         <v>41097.254166666666</v>
       </c>
-      <c r="B193" s="10">
+      <c r="B193" s="9">
         <f>IF(AND(EST!B194&gt;='ET - DST adjusted'!$D$2,EST!B194&lt;='ET - DST adjusted'!$E$2),EST!B194+1/24,EST!B194)</f>
         <v>41097.836805555555</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A194" s="10">
+      <c r="A194" s="9">
         <f>IF(AND(EST!A195&gt;='ET - DST adjusted'!$D$2,EST!A195&lt;='ET - DST adjusted'!$E$2),EST!A195+1/24,EST!A195)</f>
         <v>41098.254166666666</v>
       </c>
-      <c r="B194" s="10">
+      <c r="B194" s="9">
         <f>IF(AND(EST!B195&gt;='ET - DST adjusted'!$D$2,EST!B195&lt;='ET - DST adjusted'!$E$2),EST!B195+1/24,EST!B195)</f>
         <v>41098.836805555555</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A195" s="10">
+      <c r="A195" s="9">
         <f>IF(AND(EST!A196&gt;='ET - DST adjusted'!$D$2,EST!A196&lt;='ET - DST adjusted'!$E$2),EST!A196+1/24,EST!A196)</f>
         <v>41099.254861111105</v>
       </c>
-      <c r="B195" s="10">
+      <c r="B195" s="9">
         <f>IF(AND(EST!B196&gt;='ET - DST adjusted'!$D$2,EST!B196&lt;='ET - DST adjusted'!$E$2),EST!B196+1/24,EST!B196)</f>
         <v>41099.836805555555</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A196" s="10">
+      <c r="A196" s="9">
         <f>IF(AND(EST!A197&gt;='ET - DST adjusted'!$D$2,EST!A197&lt;='ET - DST adjusted'!$E$2),EST!A197+1/24,EST!A197)</f>
         <v>41100.255555555552</v>
       </c>
-      <c r="B196" s="10">
+      <c r="B196" s="9">
         <f>IF(AND(EST!B197&gt;='ET - DST adjusted'!$D$2,EST!B197&lt;='ET - DST adjusted'!$E$2),EST!B197+1/24,EST!B197)</f>
         <v>41100.836111111108</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A197" s="10">
+      <c r="A197" s="9">
         <f>IF(AND(EST!A198&gt;='ET - DST adjusted'!$D$2,EST!A198&lt;='ET - DST adjusted'!$E$2),EST!A198+1/24,EST!A198)</f>
         <v>41101.255555555552</v>
       </c>
-      <c r="B197" s="10">
+      <c r="B197" s="9">
         <f>IF(AND(EST!B198&gt;='ET - DST adjusted'!$D$2,EST!B198&lt;='ET - DST adjusted'!$E$2),EST!B198+1/24,EST!B198)</f>
         <v>41101.836111111108</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A198" s="10">
+      <c r="A198" s="9">
         <f>IF(AND(EST!A199&gt;='ET - DST adjusted'!$D$2,EST!A199&lt;='ET - DST adjusted'!$E$2),EST!A199+1/24,EST!A199)</f>
         <v>41102.256249999999</v>
       </c>
-      <c r="B198" s="10">
+      <c r="B198" s="9">
         <f>IF(AND(EST!B199&gt;='ET - DST adjusted'!$D$2,EST!B199&lt;='ET - DST adjusted'!$E$2),EST!B199+1/24,EST!B199)</f>
         <v>41102.836111111108</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A199" s="10">
+      <c r="A199" s="9">
         <f>IF(AND(EST!A200&gt;='ET - DST adjusted'!$D$2,EST!A200&lt;='ET - DST adjusted'!$E$2),EST!A200+1/24,EST!A200)</f>
         <v>41103.256249999999</v>
       </c>
-      <c r="B199" s="10">
+      <c r="B199" s="9">
         <f>IF(AND(EST!B200&gt;='ET - DST adjusted'!$D$2,EST!B200&lt;='ET - DST adjusted'!$E$2),EST!B200+1/24,EST!B200)</f>
         <v>41103.835416666661</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A200" s="10">
+      <c r="A200" s="9">
         <f>IF(AND(EST!A201&gt;='ET - DST adjusted'!$D$2,EST!A201&lt;='ET - DST adjusted'!$E$2),EST!A201+1/24,EST!A201)</f>
         <v>41104.25</v>
       </c>
-      <c r="B200" s="10">
+      <c r="B200" s="9">
         <f>IF(AND(EST!B201&gt;='ET - DST adjusted'!$D$2,EST!B201&lt;='ET - DST adjusted'!$E$2),EST!B201+1/24,EST!B201)</f>
         <v>41104.835416666661</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A201" s="10">
+      <c r="A201" s="9">
         <f>IF(AND(EST!A202&gt;='ET - DST adjusted'!$D$2,EST!A202&lt;='ET - DST adjusted'!$E$2),EST!A202+1/24,EST!A202)</f>
         <v>41105.250694444439</v>
       </c>
-      <c r="B201" s="10">
+      <c r="B201" s="9">
         <f>IF(AND(EST!B202&gt;='ET - DST adjusted'!$D$2,EST!B202&lt;='ET - DST adjusted'!$E$2),EST!B202+1/24,EST!B202)</f>
         <v>41105.834722222222</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A202" s="10">
+      <c r="A202" s="9">
         <f>IF(AND(EST!A203&gt;='ET - DST adjusted'!$D$2,EST!A203&lt;='ET - DST adjusted'!$E$2),EST!A203+1/24,EST!A203)</f>
         <v>41106.250694444439</v>
       </c>
-      <c r="B202" s="10">
+      <c r="B202" s="9">
         <f>IF(AND(EST!B203&gt;='ET - DST adjusted'!$D$2,EST!B203&lt;='ET - DST adjusted'!$E$2),EST!B203+1/24,EST!B203)</f>
         <v>41106.834722222222</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A203" s="10">
+      <c r="A203" s="9">
         <f>IF(AND(EST!A204&gt;='ET - DST adjusted'!$D$2,EST!A204&lt;='ET - DST adjusted'!$E$2),EST!A204+1/24,EST!A204)</f>
         <v>41107.251388888886</v>
       </c>
-      <c r="B203" s="10">
+      <c r="B203" s="9">
         <f>IF(AND(EST!B204&gt;='ET - DST adjusted'!$D$2,EST!B204&lt;='ET - DST adjusted'!$E$2),EST!B204+1/24,EST!B204)</f>
         <v>41107.834027777775</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A204" s="10">
+      <c r="A204" s="9">
         <f>IF(AND(EST!A205&gt;='ET - DST adjusted'!$D$2,EST!A205&lt;='ET - DST adjusted'!$E$2),EST!A205+1/24,EST!A205)</f>
         <v>41108.252083333333</v>
       </c>
-      <c r="B204" s="10">
+      <c r="B204" s="9">
         <f>IF(AND(EST!B205&gt;='ET - DST adjusted'!$D$2,EST!B205&lt;='ET - DST adjusted'!$E$2),EST!B205+1/24,EST!B205)</f>
         <v>41108.834027777775</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A205" s="10">
+      <c r="A205" s="9">
         <f>IF(AND(EST!A206&gt;='ET - DST adjusted'!$D$2,EST!A206&lt;='ET - DST adjusted'!$E$2),EST!A206+1/24,EST!A206)</f>
         <v>41109.252777777772</v>
       </c>
-      <c r="B205" s="10">
+      <c r="B205" s="9">
         <f>IF(AND(EST!B206&gt;='ET - DST adjusted'!$D$2,EST!B206&lt;='ET - DST adjusted'!$E$2),EST!B206+1/24,EST!B206)</f>
         <v>41109.833333333328</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A206" s="10">
+      <c r="A206" s="9">
         <f>IF(AND(EST!A207&gt;='ET - DST adjusted'!$D$2,EST!A207&lt;='ET - DST adjusted'!$E$2),EST!A207+1/24,EST!A207)</f>
         <v>41110.252777777772</v>
       </c>
-      <c r="B206" s="10">
+      <c r="B206" s="9">
         <f>IF(AND(EST!B207&gt;='ET - DST adjusted'!$D$2,EST!B207&lt;='ET - DST adjusted'!$E$2),EST!B207+1/24,EST!B207)</f>
         <v>41110.839583333334</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A207" s="10">
+      <c r="A207" s="9">
         <f>IF(AND(EST!A208&gt;='ET - DST adjusted'!$D$2,EST!A208&lt;='ET - DST adjusted'!$E$2),EST!A208+1/24,EST!A208)</f>
         <v>41111.253472222219</v>
       </c>
-      <c r="B207" s="10">
+      <c r="B207" s="9">
         <f>IF(AND(EST!B208&gt;='ET - DST adjusted'!$D$2,EST!B208&lt;='ET - DST adjusted'!$E$2),EST!B208+1/24,EST!B208)</f>
         <v>41111.839583333334</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A208" s="10">
+      <c r="A208" s="9">
         <f>IF(AND(EST!A209&gt;='ET - DST adjusted'!$D$2,EST!A209&lt;='ET - DST adjusted'!$E$2),EST!A209+1/24,EST!A209)</f>
         <v>41112.254166666666</v>
       </c>
-      <c r="B208" s="10">
+      <c r="B208" s="9">
         <f>IF(AND(EST!B209&gt;='ET - DST adjusted'!$D$2,EST!B209&lt;='ET - DST adjusted'!$E$2),EST!B209+1/24,EST!B209)</f>
         <v>41112.838888888888</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A209" s="10">
+      <c r="A209" s="9">
         <f>IF(AND(EST!A210&gt;='ET - DST adjusted'!$D$2,EST!A210&lt;='ET - DST adjusted'!$E$2),EST!A210+1/24,EST!A210)</f>
         <v>41113.254166666666</v>
       </c>
-      <c r="B209" s="10">
+      <c r="B209" s="9">
         <f>IF(AND(EST!B210&gt;='ET - DST adjusted'!$D$2,EST!B210&lt;='ET - DST adjusted'!$E$2),EST!B210+1/24,EST!B210)</f>
         <v>41113.838194444441</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A210" s="10">
+      <c r="A210" s="9">
         <f>IF(AND(EST!A211&gt;='ET - DST adjusted'!$D$2,EST!A211&lt;='ET - DST adjusted'!$E$2),EST!A211+1/24,EST!A211)</f>
         <v>41114.254861111105</v>
       </c>
-      <c r="B210" s="10">
+      <c r="B210" s="9">
         <f>IF(AND(EST!B211&gt;='ET - DST adjusted'!$D$2,EST!B211&lt;='ET - DST adjusted'!$E$2),EST!B211+1/24,EST!B211)</f>
         <v>41114.838194444441</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A211" s="10">
+      <c r="A211" s="9">
         <f>IF(AND(EST!A212&gt;='ET - DST adjusted'!$D$2,EST!A212&lt;='ET - DST adjusted'!$E$2),EST!A212+1/24,EST!A212)</f>
         <v>41115.255555555552</v>
       </c>
-      <c r="B211" s="10">
+      <c r="B211" s="9">
         <f>IF(AND(EST!B212&gt;='ET - DST adjusted'!$D$2,EST!B212&lt;='ET - DST adjusted'!$E$2),EST!B212+1/24,EST!B212)</f>
         <v>41115.837499999994</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A212" s="10">
+      <c r="A212" s="9">
         <f>IF(AND(EST!A213&gt;='ET - DST adjusted'!$D$2,EST!A213&lt;='ET - DST adjusted'!$E$2),EST!A213+1/24,EST!A213)</f>
         <v>41116.256249999999</v>
       </c>
-      <c r="B212" s="10">
+      <c r="B212" s="9">
         <f>IF(AND(EST!B213&gt;='ET - DST adjusted'!$D$2,EST!B213&lt;='ET - DST adjusted'!$E$2),EST!B213+1/24,EST!B213)</f>
         <v>41116.836805555555</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A213" s="10">
+      <c r="A213" s="9">
         <f>IF(AND(EST!A214&gt;='ET - DST adjusted'!$D$2,EST!A214&lt;='ET - DST adjusted'!$E$2),EST!A214+1/24,EST!A214)</f>
         <v>41117.25</v>
       </c>
-      <c r="B213" s="10">
+      <c r="B213" s="9">
         <f>IF(AND(EST!B214&gt;='ET - DST adjusted'!$D$2,EST!B214&lt;='ET - DST adjusted'!$E$2),EST!B214+1/24,EST!B214)</f>
         <v>41117.836111111108</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A214" s="10">
+      <c r="A214" s="9">
         <f>IF(AND(EST!A215&gt;='ET - DST adjusted'!$D$2,EST!A215&lt;='ET - DST adjusted'!$E$2),EST!A215+1/24,EST!A215)</f>
         <v>41118.25</v>
       </c>
-      <c r="B214" s="10">
+      <c r="B214" s="9">
         <f>IF(AND(EST!B215&gt;='ET - DST adjusted'!$D$2,EST!B215&lt;='ET - DST adjusted'!$E$2),EST!B215+1/24,EST!B215)</f>
         <v>41118.836111111108</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A215" s="10">
+      <c r="A215" s="9">
         <f>IF(AND(EST!A216&gt;='ET - DST adjusted'!$D$2,EST!A216&lt;='ET - DST adjusted'!$E$2),EST!A216+1/24,EST!A216)</f>
         <v>41119.250694444439</v>
       </c>
-      <c r="B215" s="10">
+      <c r="B215" s="9">
         <f>IF(AND(EST!B216&gt;='ET - DST adjusted'!$D$2,EST!B216&lt;='ET - DST adjusted'!$E$2),EST!B216+1/24,EST!B216)</f>
         <v>41119.835416666661</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A216" s="10">
+      <c r="A216" s="9">
         <f>IF(AND(EST!A217&gt;='ET - DST adjusted'!$D$2,EST!A217&lt;='ET - DST adjusted'!$E$2),EST!A217+1/24,EST!A217)</f>
         <v>41120.251388888886</v>
       </c>
-      <c r="B216" s="10">
+      <c r="B216" s="9">
         <f>IF(AND(EST!B217&gt;='ET - DST adjusted'!$D$2,EST!B217&lt;='ET - DST adjusted'!$E$2),EST!B217+1/24,EST!B217)</f>
         <v>41120.834722222222</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A217" s="10">
+      <c r="A217" s="9">
         <f>IF(AND(EST!A218&gt;='ET - DST adjusted'!$D$2,EST!A218&lt;='ET - DST adjusted'!$E$2),EST!A218+1/24,EST!A218)</f>
         <v>41121.252083333333</v>
       </c>
-      <c r="B217" s="10">
+      <c r="B217" s="9">
         <f>IF(AND(EST!B218&gt;='ET - DST adjusted'!$D$2,EST!B218&lt;='ET - DST adjusted'!$E$2),EST!B218+1/24,EST!B218)</f>
         <v>41121.834027777775</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A218" s="10">
+      <c r="A218" s="9">
         <f>IF(AND(EST!A219&gt;='ET - DST adjusted'!$D$2,EST!A219&lt;='ET - DST adjusted'!$E$2),EST!A219+1/24,EST!A219)</f>
         <v>41122.252083333333</v>
       </c>
-      <c r="B218" s="10">
+      <c r="B218" s="9">
         <f>IF(AND(EST!B219&gt;='ET - DST adjusted'!$D$2,EST!B219&lt;='ET - DST adjusted'!$E$2),EST!B219+1/24,EST!B219)</f>
         <v>41122.833333333328</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A219" s="10">
+      <c r="A219" s="9">
         <f>IF(AND(EST!A220&gt;='ET - DST adjusted'!$D$2,EST!A220&lt;='ET - DST adjusted'!$E$2),EST!A220+1/24,EST!A220)</f>
         <v>41123.252777777772</v>
       </c>
-      <c r="B219" s="10">
+      <c r="B219" s="9">
         <f>IF(AND(EST!B220&gt;='ET - DST adjusted'!$D$2,EST!B220&lt;='ET - DST adjusted'!$E$2),EST!B220+1/24,EST!B220)</f>
         <v>41123.839583333334</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A220" s="10">
+      <c r="A220" s="9">
         <f>IF(AND(EST!A221&gt;='ET - DST adjusted'!$D$2,EST!A221&lt;='ET - DST adjusted'!$E$2),EST!A221+1/24,EST!A221)</f>
         <v>41124.253472222219</v>
       </c>
-      <c r="B220" s="10">
+      <c r="B220" s="9">
         <f>IF(AND(EST!B221&gt;='ET - DST adjusted'!$D$2,EST!B221&lt;='ET - DST adjusted'!$E$2),EST!B221+1/24,EST!B221)</f>
         <v>41124.838888888888</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A221" s="10">
+      <c r="A221" s="9">
         <f>IF(AND(EST!A222&gt;='ET - DST adjusted'!$D$2,EST!A222&lt;='ET - DST adjusted'!$E$2),EST!A222+1/24,EST!A222)</f>
         <v>41125.254166666666</v>
       </c>
-      <c r="B221" s="10">
+      <c r="B221" s="9">
         <f>IF(AND(EST!B222&gt;='ET - DST adjusted'!$D$2,EST!B222&lt;='ET - DST adjusted'!$E$2),EST!B222+1/24,EST!B222)</f>
         <v>41125.838194444441</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A222" s="10">
+      <c r="A222" s="9">
         <f>IF(AND(EST!A223&gt;='ET - DST adjusted'!$D$2,EST!A223&lt;='ET - DST adjusted'!$E$2),EST!A223+1/24,EST!A223)</f>
         <v>41126.254861111105</v>
       </c>
-      <c r="B222" s="10">
+      <c r="B222" s="9">
         <f>IF(AND(EST!B223&gt;='ET - DST adjusted'!$D$2,EST!B223&lt;='ET - DST adjusted'!$E$2),EST!B223+1/24,EST!B223)</f>
         <v>41126.837499999994</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A223" s="10">
+      <c r="A223" s="9">
         <f>IF(AND(EST!A224&gt;='ET - DST adjusted'!$D$2,EST!A224&lt;='ET - DST adjusted'!$E$2),EST!A224+1/24,EST!A224)</f>
         <v>41127.254861111105</v>
       </c>
-      <c r="B223" s="10">
+      <c r="B223" s="9">
         <f>IF(AND(EST!B224&gt;='ET - DST adjusted'!$D$2,EST!B224&lt;='ET - DST adjusted'!$E$2),EST!B224+1/24,EST!B224)</f>
         <v>41127.836805555555</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A224" s="10">
+      <c r="A224" s="9">
         <f>IF(AND(EST!A225&gt;='ET - DST adjusted'!$D$2,EST!A225&lt;='ET - DST adjusted'!$E$2),EST!A225+1/24,EST!A225)</f>
         <v>41128.255555555552</v>
       </c>
-      <c r="B224" s="10">
+      <c r="B224" s="9">
         <f>IF(AND(EST!B225&gt;='ET - DST adjusted'!$D$2,EST!B225&lt;='ET - DST adjusted'!$E$2),EST!B225+1/24,EST!B225)</f>
         <v>41128.836111111108</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A225" s="10">
+      <c r="A225" s="9">
         <f>IF(AND(EST!A226&gt;='ET - DST adjusted'!$D$2,EST!A226&lt;='ET - DST adjusted'!$E$2),EST!A226+1/24,EST!A226)</f>
         <v>41129.256249999999</v>
       </c>
-      <c r="B225" s="10">
+      <c r="B225" s="9">
         <f>IF(AND(EST!B226&gt;='ET - DST adjusted'!$D$2,EST!B226&lt;='ET - DST adjusted'!$E$2),EST!B226+1/24,EST!B226)</f>
         <v>41129.835416666661</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A226" s="10">
+      <c r="A226" s="9">
         <f>IF(AND(EST!A227&gt;='ET - DST adjusted'!$D$2,EST!A227&lt;='ET - DST adjusted'!$E$2),EST!A227+1/24,EST!A227)</f>
         <v>41130.25</v>
       </c>
-      <c r="B226" s="10">
+      <c r="B226" s="9">
         <f>IF(AND(EST!B227&gt;='ET - DST adjusted'!$D$2,EST!B227&lt;='ET - DST adjusted'!$E$2),EST!B227+1/24,EST!B227)</f>
         <v>41130.834722222222</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A227" s="10">
+      <c r="A227" s="9">
         <f>IF(AND(EST!A228&gt;='ET - DST adjusted'!$D$2,EST!A228&lt;='ET - DST adjusted'!$E$2),EST!A228+1/24,EST!A228)</f>
         <v>41131.250694444439</v>
       </c>
-      <c r="B227" s="10">
+      <c r="B227" s="9">
         <f>IF(AND(EST!B228&gt;='ET - DST adjusted'!$D$2,EST!B228&lt;='ET - DST adjusted'!$E$2),EST!B228+1/24,EST!B228)</f>
         <v>41131.834027777775</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A228" s="10">
+      <c r="A228" s="9">
         <f>IF(AND(EST!A229&gt;='ET - DST adjusted'!$D$2,EST!A229&lt;='ET - DST adjusted'!$E$2),EST!A229+1/24,EST!A229)</f>
         <v>41132.250694444439</v>
       </c>
-      <c r="B228" s="10">
+      <c r="B228" s="9">
         <f>IF(AND(EST!B229&gt;='ET - DST adjusted'!$D$2,EST!B229&lt;='ET - DST adjusted'!$E$2),EST!B229+1/24,EST!B229)</f>
         <v>41132.833333333328</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A229" s="10">
+      <c r="A229" s="9">
         <f>IF(AND(EST!A230&gt;='ET - DST adjusted'!$D$2,EST!A230&lt;='ET - DST adjusted'!$E$2),EST!A230+1/24,EST!A230)</f>
         <v>41133.251388888886</v>
       </c>
-      <c r="B229" s="10">
+      <c r="B229" s="9">
         <f>IF(AND(EST!B230&gt;='ET - DST adjusted'!$D$2,EST!B230&lt;='ET - DST adjusted'!$E$2),EST!B230+1/24,EST!B230)</f>
         <v>41133.838888888888</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A230" s="10">
+      <c r="A230" s="9">
         <f>IF(AND(EST!A231&gt;='ET - DST adjusted'!$D$2,EST!A231&lt;='ET - DST adjusted'!$E$2),EST!A231+1/24,EST!A231)</f>
         <v>41134.252083333333</v>
       </c>
-      <c r="B230" s="10">
+      <c r="B230" s="9">
         <f>IF(AND(EST!B231&gt;='ET - DST adjusted'!$D$2,EST!B231&lt;='ET - DST adjusted'!$E$2),EST!B231+1/24,EST!B231)</f>
         <v>41134.838194444441</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A231" s="10">
+      <c r="A231" s="9">
         <f>IF(AND(EST!A232&gt;='ET - DST adjusted'!$D$2,EST!A232&lt;='ET - DST adjusted'!$E$2),EST!A232+1/24,EST!A232)</f>
         <v>41135.252777777772</v>
       </c>
-      <c r="B231" s="10">
+      <c r="B231" s="9">
         <f>IF(AND(EST!B232&gt;='ET - DST adjusted'!$D$2,EST!B232&lt;='ET - DST adjusted'!$E$2),EST!B232+1/24,EST!B232)</f>
         <v>41135.837499999994</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A232" s="10">
+      <c r="A232" s="9">
         <f>IF(AND(EST!A233&gt;='ET - DST adjusted'!$D$2,EST!A233&lt;='ET - DST adjusted'!$E$2),EST!A233+1/24,EST!A233)</f>
         <v>41136.252777777772</v>
       </c>
-      <c r="B232" s="10">
+      <c r="B232" s="9">
         <f>IF(AND(EST!B233&gt;='ET - DST adjusted'!$D$2,EST!B233&lt;='ET - DST adjusted'!$E$2),EST!B233+1/24,EST!B233)</f>
         <v>41136.836805555555</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A233" s="10">
+      <c r="A233" s="9">
         <f>IF(AND(EST!A234&gt;='ET - DST adjusted'!$D$2,EST!A234&lt;='ET - DST adjusted'!$E$2),EST!A234+1/24,EST!A234)</f>
         <v>41137.253472222219</v>
       </c>
-      <c r="B233" s="10">
+      <c r="B233" s="9">
         <f>IF(AND(EST!B234&gt;='ET - DST adjusted'!$D$2,EST!B234&lt;='ET - DST adjusted'!$E$2),EST!B234+1/24,EST!B234)</f>
         <v>41137.836111111108</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A234" s="10">
+      <c r="A234" s="9">
         <f>IF(AND(EST!A235&gt;='ET - DST adjusted'!$D$2,EST!A235&lt;='ET - DST adjusted'!$E$2),EST!A235+1/24,EST!A235)</f>
         <v>41138.254166666666</v>
       </c>
-      <c r="B234" s="10">
+      <c r="B234" s="9">
         <f>IF(AND(EST!B235&gt;='ET - DST adjusted'!$D$2,EST!B235&lt;='ET - DST adjusted'!$E$2),EST!B235+1/24,EST!B235)</f>
         <v>41138.834722222222</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A235" s="10">
+      <c r="A235" s="9">
         <f>IF(AND(EST!A236&gt;='ET - DST adjusted'!$D$2,EST!A236&lt;='ET - DST adjusted'!$E$2),EST!A236+1/24,EST!A236)</f>
         <v>41139.254861111105</v>
       </c>
-      <c r="B235" s="10">
+      <c r="B235" s="9">
         <f>IF(AND(EST!B236&gt;='ET - DST adjusted'!$D$2,EST!B236&lt;='ET - DST adjusted'!$E$2),EST!B236+1/24,EST!B236)</f>
         <v>41139.834027777775</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A236" s="10">
+      <c r="A236" s="9">
         <f>IF(AND(EST!A237&gt;='ET - DST adjusted'!$D$2,EST!A237&lt;='ET - DST adjusted'!$E$2),EST!A237+1/24,EST!A237)</f>
         <v>41140.255555555552</v>
       </c>
-      <c r="B236" s="10">
+      <c r="B236" s="9">
         <f>IF(AND(EST!B237&gt;='ET - DST adjusted'!$D$2,EST!B237&lt;='ET - DST adjusted'!$E$2),EST!B237+1/24,EST!B237)</f>
         <v>41140.833333333328</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A237" s="10">
+      <c r="A237" s="9">
         <f>IF(AND(EST!A238&gt;='ET - DST adjusted'!$D$2,EST!A238&lt;='ET - DST adjusted'!$E$2),EST!A238+1/24,EST!A238)</f>
         <v>41141.255555555552</v>
       </c>
-      <c r="B237" s="10">
+      <c r="B237" s="9">
         <f>IF(AND(EST!B238&gt;='ET - DST adjusted'!$D$2,EST!B238&lt;='ET - DST adjusted'!$E$2),EST!B238+1/24,EST!B238)</f>
         <v>41141.797916666663</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A238" s="10">
+      <c r="A238" s="9">
         <f>IF(AND(EST!A239&gt;='ET - DST adjusted'!$D$2,EST!A239&lt;='ET - DST adjusted'!$E$2),EST!A239+1/24,EST!A239)</f>
         <v>41142.256249999999</v>
       </c>
-      <c r="B238" s="10">
+      <c r="B238" s="9">
         <f>IF(AND(EST!B239&gt;='ET - DST adjusted'!$D$2,EST!B239&lt;='ET - DST adjusted'!$E$2),EST!B239+1/24,EST!B239)</f>
         <v>41142.796527777777</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A239" s="10">
+      <c r="A239" s="9">
         <f>IF(AND(EST!A240&gt;='ET - DST adjusted'!$D$2,EST!A240&lt;='ET - DST adjusted'!$E$2),EST!A240+1/24,EST!A240)</f>
         <v>41143.25</v>
       </c>
-      <c r="B239" s="10">
+      <c r="B239" s="9">
         <f>IF(AND(EST!B240&gt;='ET - DST adjusted'!$D$2,EST!B240&lt;='ET - DST adjusted'!$E$2),EST!B240+1/24,EST!B240)</f>
         <v>41143.79583333333</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A240" s="10">
+      <c r="A240" s="9">
         <f>IF(AND(EST!A241&gt;='ET - DST adjusted'!$D$2,EST!A241&lt;='ET - DST adjusted'!$E$2),EST!A241+1/24,EST!A241)</f>
         <v>41144.250694444439</v>
       </c>
-      <c r="B240" s="10">
+      <c r="B240" s="9">
         <f>IF(AND(EST!B241&gt;='ET - DST adjusted'!$D$2,EST!B241&lt;='ET - DST adjusted'!$E$2),EST!B241+1/24,EST!B241)</f>
         <v>41144.795138888883</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A241" s="10">
+      <c r="A241" s="9">
         <f>IF(AND(EST!A242&gt;='ET - DST adjusted'!$D$2,EST!A242&lt;='ET - DST adjusted'!$E$2),EST!A242+1/24,EST!A242)</f>
         <v>41145.251388888886</v>
       </c>
-      <c r="B241" s="10">
+      <c r="B241" s="9">
         <f>IF(AND(EST!B242&gt;='ET - DST adjusted'!$D$2,EST!B242&lt;='ET - DST adjusted'!$E$2),EST!B242+1/24,EST!B242)</f>
         <v>41145.794444444444</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A242" s="10">
+      <c r="A242" s="9">
         <f>IF(AND(EST!A243&gt;='ET - DST adjusted'!$D$2,EST!A243&lt;='ET - DST adjusted'!$E$2),EST!A243+1/24,EST!A243)</f>
         <v>41146.251388888886</v>
       </c>
-      <c r="B242" s="10">
+      <c r="B242" s="9">
         <f>IF(AND(EST!B243&gt;='ET - DST adjusted'!$D$2,EST!B243&lt;='ET - DST adjusted'!$E$2),EST!B243+1/24,EST!B243)</f>
         <v>41146.79305555555</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A243" s="10">
+      <c r="A243" s="9">
         <f>IF(AND(EST!A244&gt;='ET - DST adjusted'!$D$2,EST!A244&lt;='ET - DST adjusted'!$E$2),EST!A244+1/24,EST!A244)</f>
         <v>41147.252083333333</v>
       </c>
-      <c r="B243" s="10">
+      <c r="B243" s="9">
         <f>IF(AND(EST!B244&gt;='ET - DST adjusted'!$D$2,EST!B244&lt;='ET - DST adjusted'!$E$2),EST!B244+1/24,EST!B244)</f>
         <v>41147.792361111111</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A244" s="10">
+      <c r="A244" s="9">
         <f>IF(AND(EST!A245&gt;='ET - DST adjusted'!$D$2,EST!A245&lt;='ET - DST adjusted'!$E$2),EST!A245+1/24,EST!A245)</f>
         <v>41148.252777777772</v>
       </c>
-      <c r="B244" s="10">
+      <c r="B244" s="9">
         <f>IF(AND(EST!B245&gt;='ET - DST adjusted'!$D$2,EST!B245&lt;='ET - DST adjusted'!$E$2),EST!B245+1/24,EST!B245)</f>
         <v>41148.797916666663</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A245" s="10">
+      <c r="A245" s="9">
         <f>IF(AND(EST!A246&gt;='ET - DST adjusted'!$D$2,EST!A246&lt;='ET - DST adjusted'!$E$2),EST!A246+1/24,EST!A246)</f>
         <v>41149.253472222219</v>
       </c>
-      <c r="B245" s="10">
+      <c r="B245" s="9">
         <f>IF(AND(EST!B246&gt;='ET - DST adjusted'!$D$2,EST!B246&lt;='ET - DST adjusted'!$E$2),EST!B246+1/24,EST!B246)</f>
         <v>41149.797222222223</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A246" s="10">
+      <c r="A246" s="9">
         <f>IF(AND(EST!A247&gt;='ET - DST adjusted'!$D$2,EST!A247&lt;='ET - DST adjusted'!$E$2),EST!A247+1/24,EST!A247)</f>
         <v>41150.253472222219</v>
       </c>
-      <c r="B246" s="10">
+      <c r="B246" s="9">
         <f>IF(AND(EST!B247&gt;='ET - DST adjusted'!$D$2,EST!B247&lt;='ET - DST adjusted'!$E$2),EST!B247+1/24,EST!B247)</f>
         <v>41150.796527777777</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A247" s="10">
+      <c r="A247" s="9">
         <f>IF(AND(EST!A248&gt;='ET - DST adjusted'!$D$2,EST!A248&lt;='ET - DST adjusted'!$E$2),EST!A248+1/24,EST!A248)</f>
         <v>41151.254166666666</v>
       </c>
-      <c r="B247" s="10">
+      <c r="B247" s="9">
         <f>IF(AND(EST!B248&gt;='ET - DST adjusted'!$D$2,EST!B248&lt;='ET - DST adjusted'!$E$2),EST!B248+1/24,EST!B248)</f>
         <v>41151.795138888883</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A248" s="10">
+      <c r="A248" s="9">
         <f>IF(AND(EST!A249&gt;='ET - DST adjusted'!$D$2,EST!A249&lt;='ET - DST adjusted'!$E$2),EST!A249+1/24,EST!A249)</f>
         <v>41152.254861111105</v>
       </c>
-      <c r="B248" s="10">
+      <c r="B248" s="9">
         <f>IF(AND(EST!B249&gt;='ET - DST adjusted'!$D$2,EST!B249&lt;='ET - DST adjusted'!$E$2),EST!B249+1/24,EST!B249)</f>
         <v>41152.794444444444</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A249" s="10">
+      <c r="A249" s="9">
         <f>IF(AND(EST!A250&gt;='ET - DST adjusted'!$D$2,EST!A250&lt;='ET - DST adjusted'!$E$2),EST!A250+1/24,EST!A250)</f>
         <v>41153.255555555552</v>
       </c>
-      <c r="B249" s="10">
+      <c r="B249" s="9">
         <f>IF(AND(EST!B250&gt;='ET - DST adjusted'!$D$2,EST!B250&lt;='ET - DST adjusted'!$E$2),EST!B250+1/24,EST!B250)</f>
         <v>41153.793749999997</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A250" s="10">
+      <c r="A250" s="9">
         <f>IF(AND(EST!A251&gt;='ET - DST adjusted'!$D$2,EST!A251&lt;='ET - DST adjusted'!$E$2),EST!A251+1/24,EST!A251)</f>
         <v>41154.256249999999</v>
       </c>
-      <c r="B250" s="10">
+      <c r="B250" s="9">
         <f>IF(AND(EST!B251&gt;='ET - DST adjusted'!$D$2,EST!B251&lt;='ET - DST adjusted'!$E$2),EST!B251+1/24,EST!B251)</f>
         <v>41154.792361111111</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A251" s="10">
+      <c r="A251" s="9">
         <f>IF(AND(EST!A252&gt;='ET - DST adjusted'!$D$2,EST!A252&lt;='ET - DST adjusted'!$E$2),EST!A252+1/24,EST!A252)</f>
         <v>41155.256249999999</v>
       </c>
-      <c r="B251" s="10">
+      <c r="B251" s="9">
         <f>IF(AND(EST!B252&gt;='ET - DST adjusted'!$D$2,EST!B252&lt;='ET - DST adjusted'!$E$2),EST!B252+1/24,EST!B252)</f>
         <v>41155.791666666664</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A252" s="10">
+      <c r="A252" s="9">
         <f>IF(AND(EST!A253&gt;='ET - DST adjusted'!$D$2,EST!A253&lt;='ET - DST adjusted'!$E$2),EST!A253+1/24,EST!A253)</f>
         <v>41156.25</v>
       </c>
-      <c r="B252" s="10">
+      <c r="B252" s="9">
         <f>IF(AND(EST!B253&gt;='ET - DST adjusted'!$D$2,EST!B253&lt;='ET - DST adjusted'!$E$2),EST!B253+1/24,EST!B253)</f>
         <v>41156.797222222223</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A253" s="10">
+      <c r="A253" s="9">
         <f>IF(AND(EST!A254&gt;='ET - DST adjusted'!$D$2,EST!A254&lt;='ET - DST adjusted'!$E$2),EST!A254+1/24,EST!A254)</f>
         <v>41157.250694444439</v>
       </c>
-      <c r="B253" s="10">
+      <c r="B253" s="9">
         <f>IF(AND(EST!B254&gt;='ET - DST adjusted'!$D$2,EST!B254&lt;='ET - DST adjusted'!$E$2),EST!B254+1/24,EST!B254)</f>
         <v>41157.796527777777</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A254" s="10">
+      <c r="A254" s="9">
         <f>IF(AND(EST!A255&gt;='ET - DST adjusted'!$D$2,EST!A255&lt;='ET - DST adjusted'!$E$2),EST!A255+1/24,EST!A255)</f>
         <v>41158.251388888886</v>
       </c>
-      <c r="B254" s="10">
+      <c r="B254" s="9">
         <f>IF(AND(EST!B255&gt;='ET - DST adjusted'!$D$2,EST!B255&lt;='ET - DST adjusted'!$E$2),EST!B255+1/24,EST!B255)</f>
         <v>41158.795138888883</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A255" s="10">
+      <c r="A255" s="9">
         <f>IF(AND(EST!A256&gt;='ET - DST adjusted'!$D$2,EST!A256&lt;='ET - DST adjusted'!$E$2),EST!A256+1/24,EST!A256)</f>
         <v>41159.251388888886</v>
       </c>
-      <c r="B255" s="10">
+      <c r="B255" s="9">
         <f>IF(AND(EST!B256&gt;='ET - DST adjusted'!$D$2,EST!B256&lt;='ET - DST adjusted'!$E$2),EST!B256+1/24,EST!B256)</f>
         <v>41159.794444444444</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A256" s="10">
+      <c r="A256" s="9">
         <f>IF(AND(EST!A257&gt;='ET - DST adjusted'!$D$2,EST!A257&lt;='ET - DST adjusted'!$E$2),EST!A257+1/24,EST!A257)</f>
         <v>41160.252083333333</v>
       </c>
-      <c r="B256" s="10">
+      <c r="B256" s="9">
         <f>IF(AND(EST!B257&gt;='ET - DST adjusted'!$D$2,EST!B257&lt;='ET - DST adjusted'!$E$2),EST!B257+1/24,EST!B257)</f>
         <v>41160.79305555555</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A257" s="10">
+      <c r="A257" s="9">
         <f>IF(AND(EST!A258&gt;='ET - DST adjusted'!$D$2,EST!A258&lt;='ET - DST adjusted'!$E$2),EST!A258+1/24,EST!A258)</f>
         <v>41161.252777777772</v>
       </c>
-      <c r="B257" s="10">
+      <c r="B257" s="9">
         <f>IF(AND(EST!B258&gt;='ET - DST adjusted'!$D$2,EST!B258&lt;='ET - DST adjusted'!$E$2),EST!B258+1/24,EST!B258)</f>
         <v>41161.792361111111</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A258" s="10">
+      <c r="A258" s="9">
         <f>IF(AND(EST!A259&gt;='ET - DST adjusted'!$D$2,EST!A259&lt;='ET - DST adjusted'!$E$2),EST!A259+1/24,EST!A259)</f>
         <v>41162.253472222219</v>
       </c>
-      <c r="B258" s="10">
+      <c r="B258" s="9">
         <f>IF(AND(EST!B259&gt;='ET - DST adjusted'!$D$2,EST!B259&lt;='ET - DST adjusted'!$E$2),EST!B259+1/24,EST!B259)</f>
         <v>41162.791666666664</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A259" s="10">
+      <c r="A259" s="9">
         <f>IF(AND(EST!A260&gt;='ET - DST adjusted'!$D$2,EST!A260&lt;='ET - DST adjusted'!$E$2),EST!A260+1/24,EST!A260)</f>
         <v>41163.253472222219</v>
       </c>
-      <c r="B259" s="10">
+      <c r="B259" s="9">
         <f>IF(AND(EST!B260&gt;='ET - DST adjusted'!$D$2,EST!B260&lt;='ET - DST adjusted'!$E$2),EST!B260+1/24,EST!B260)</f>
         <v>41163.797222222223</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A260" s="10">
+      <c r="A260" s="9">
         <f>IF(AND(EST!A261&gt;='ET - DST adjusted'!$D$2,EST!A261&lt;='ET - DST adjusted'!$E$2),EST!A261+1/24,EST!A261)</f>
         <v>41164.254166666666</v>
       </c>
-      <c r="B260" s="10">
+      <c r="B260" s="9">
         <f>IF(AND(EST!B261&gt;='ET - DST adjusted'!$D$2,EST!B261&lt;='ET - DST adjusted'!$E$2),EST!B261+1/24,EST!B261)</f>
         <v>41164.796527777777</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A261" s="10">
+      <c r="A261" s="9">
         <f>IF(AND(EST!A262&gt;='ET - DST adjusted'!$D$2,EST!A262&lt;='ET - DST adjusted'!$E$2),EST!A262+1/24,EST!A262)</f>
         <v>41165.254861111105</v>
       </c>
-      <c r="B261" s="10">
+      <c r="B261" s="9">
         <f>IF(AND(EST!B262&gt;='ET - DST adjusted'!$D$2,EST!B262&lt;='ET - DST adjusted'!$E$2),EST!B262+1/24,EST!B262)</f>
         <v>41165.795138888883</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A262" s="10">
+      <c r="A262" s="9">
         <f>IF(AND(EST!A263&gt;='ET - DST adjusted'!$D$2,EST!A263&lt;='ET - DST adjusted'!$E$2),EST!A263+1/24,EST!A263)</f>
         <v>41166.255555555552</v>
       </c>
-      <c r="B262" s="10">
+      <c r="B262" s="9">
         <f>IF(AND(EST!B263&gt;='ET - DST adjusted'!$D$2,EST!B263&lt;='ET - DST adjusted'!$E$2),EST!B263+1/24,EST!B263)</f>
         <v>41166.794444444444</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A263" s="10">
+      <c r="A263" s="9">
         <f>IF(AND(EST!A264&gt;='ET - DST adjusted'!$D$2,EST!A264&lt;='ET - DST adjusted'!$E$2),EST!A264+1/24,EST!A264)</f>
         <v>41167.256249999999</v>
       </c>
-      <c r="B263" s="10">
+      <c r="B263" s="9">
         <f>IF(AND(EST!B264&gt;='ET - DST adjusted'!$D$2,EST!B264&lt;='ET - DST adjusted'!$E$2),EST!B264+1/24,EST!B264)</f>
         <v>41167.79305555555</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A264" s="10">
+      <c r="A264" s="9">
         <f>IF(AND(EST!A265&gt;='ET - DST adjusted'!$D$2,EST!A265&lt;='ET - DST adjusted'!$E$2),EST!A265+1/24,EST!A265)</f>
         <v>41168.256249999999</v>
       </c>
-      <c r="B264" s="10">
+      <c r="B264" s="9">
         <f>IF(AND(EST!B265&gt;='ET - DST adjusted'!$D$2,EST!B265&lt;='ET - DST adjusted'!$E$2),EST!B265+1/24,EST!B265)</f>
         <v>41168.792361111111</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A265" s="10">
+      <c r="A265" s="9">
         <f>IF(AND(EST!A266&gt;='ET - DST adjusted'!$D$2,EST!A266&lt;='ET - DST adjusted'!$E$2),EST!A266+1/24,EST!A266)</f>
         <v>41169.291666666664</v>
       </c>
-      <c r="B265" s="10">
+      <c r="B265" s="9">
         <f>IF(AND(EST!B266&gt;='ET - DST adjusted'!$D$2,EST!B266&lt;='ET - DST adjusted'!$E$2),EST!B266+1/24,EST!B266)</f>
         <v>41169.797916666663</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A266" s="10">
+      <c r="A266" s="9">
         <f>IF(AND(EST!A267&gt;='ET - DST adjusted'!$D$2,EST!A267&lt;='ET - DST adjusted'!$E$2),EST!A267+1/24,EST!A267)</f>
         <v>41170.292361111111</v>
       </c>
-      <c r="B266" s="10">
+      <c r="B266" s="9">
         <f>IF(AND(EST!B267&gt;='ET - DST adjusted'!$D$2,EST!B267&lt;='ET - DST adjusted'!$E$2),EST!B267+1/24,EST!B267)</f>
         <v>41170.797222222223</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A267" s="10">
+      <c r="A267" s="9">
         <f>IF(AND(EST!A268&gt;='ET - DST adjusted'!$D$2,EST!A268&lt;='ET - DST adjusted'!$E$2),EST!A268+1/24,EST!A268)</f>
         <v>41171.29305555555</v>
       </c>
-      <c r="B267" s="10">
+      <c r="B267" s="9">
         <f>IF(AND(EST!B268&gt;='ET - DST adjusted'!$D$2,EST!B268&lt;='ET - DST adjusted'!$E$2),EST!B268+1/24,EST!B268)</f>
         <v>41171.79583333333</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A268" s="10">
+      <c r="A268" s="9">
         <f>IF(AND(EST!A269&gt;='ET - DST adjusted'!$D$2,EST!A269&lt;='ET - DST adjusted'!$E$2),EST!A269+1/24,EST!A269)</f>
         <v>41172.29305555555</v>
       </c>
-      <c r="B268" s="10">
+      <c r="B268" s="9">
         <f>IF(AND(EST!B269&gt;='ET - DST adjusted'!$D$2,EST!B269&lt;='ET - DST adjusted'!$E$2),EST!B269+1/24,EST!B269)</f>
         <v>41172.795138888883</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A269" s="10">
+      <c r="A269" s="9">
         <f>IF(AND(EST!A270&gt;='ET - DST adjusted'!$D$2,EST!A270&lt;='ET - DST adjusted'!$E$2),EST!A270+1/24,EST!A270)</f>
         <v>41173.293749999997</v>
       </c>
-      <c r="B269" s="10">
+      <c r="B269" s="9">
         <f>IF(AND(EST!B270&gt;='ET - DST adjusted'!$D$2,EST!B270&lt;='ET - DST adjusted'!$E$2),EST!B270+1/24,EST!B270)</f>
         <v>41173.793749999997</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A270" s="10">
+      <c r="A270" s="9">
         <f>IF(AND(EST!A271&gt;='ET - DST adjusted'!$D$2,EST!A271&lt;='ET - DST adjusted'!$E$2),EST!A271+1/24,EST!A271)</f>
         <v>41174.294444444444</v>
       </c>
-      <c r="B270" s="10">
+      <c r="B270" s="9">
         <f>IF(AND(EST!B271&gt;='ET - DST adjusted'!$D$2,EST!B271&lt;='ET - DST adjusted'!$E$2),EST!B271+1/24,EST!B271)</f>
         <v>41174.79305555555</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A271" s="10">
+      <c r="A271" s="9">
         <f>IF(AND(EST!A272&gt;='ET - DST adjusted'!$D$2,EST!A272&lt;='ET - DST adjusted'!$E$2),EST!A272+1/24,EST!A272)</f>
         <v>41175.295138888883</v>
       </c>
-      <c r="B271" s="10">
+      <c r="B271" s="9">
         <f>IF(AND(EST!B272&gt;='ET - DST adjusted'!$D$2,EST!B272&lt;='ET - DST adjusted'!$E$2),EST!B272+1/24,EST!B272)</f>
         <v>41175.791666666664</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A272" s="10">
+      <c r="A272" s="9">
         <f>IF(AND(EST!A273&gt;='ET - DST adjusted'!$D$2,EST!A273&lt;='ET - DST adjusted'!$E$2),EST!A273+1/24,EST!A273)</f>
         <v>41176.29583333333</v>
       </c>
-      <c r="B272" s="10">
+      <c r="B272" s="9">
         <f>IF(AND(EST!B273&gt;='ET - DST adjusted'!$D$2,EST!B273&lt;='ET - DST adjusted'!$E$2),EST!B273+1/24,EST!B273)</f>
         <v>41176.797916666663</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A273" s="10">
+      <c r="A273" s="9">
         <f>IF(AND(EST!A274&gt;='ET - DST adjusted'!$D$2,EST!A274&lt;='ET - DST adjusted'!$E$2),EST!A274+1/24,EST!A274)</f>
         <v>41177.29583333333</v>
       </c>
-      <c r="B273" s="10">
+      <c r="B273" s="9">
         <f>IF(AND(EST!B274&gt;='ET - DST adjusted'!$D$2,EST!B274&lt;='ET - DST adjusted'!$E$2),EST!B274+1/24,EST!B274)</f>
         <v>41177.796527777777</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A274" s="10">
+      <c r="A274" s="9">
         <f>IF(AND(EST!A275&gt;='ET - DST adjusted'!$D$2,EST!A275&lt;='ET - DST adjusted'!$E$2),EST!A275+1/24,EST!A275)</f>
         <v>41178.296527777777</v>
       </c>
-      <c r="B274" s="10">
+      <c r="B274" s="9">
         <f>IF(AND(EST!B275&gt;='ET - DST adjusted'!$D$2,EST!B275&lt;='ET - DST adjusted'!$E$2),EST!B275+1/24,EST!B275)</f>
         <v>41178.79583333333</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A275" s="10">
+      <c r="A275" s="9">
         <f>IF(AND(EST!A276&gt;='ET - DST adjusted'!$D$2,EST!A276&lt;='ET - DST adjusted'!$E$2),EST!A276+1/24,EST!A276)</f>
         <v>41179.297222222223</v>
       </c>
-      <c r="B275" s="10">
+      <c r="B275" s="9">
         <f>IF(AND(EST!B276&gt;='ET - DST adjusted'!$D$2,EST!B276&lt;='ET - DST adjusted'!$E$2),EST!B276+1/24,EST!B276)</f>
         <v>41179.794444444444</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A276" s="10">
+      <c r="A276" s="9">
         <f>IF(AND(EST!A277&gt;='ET - DST adjusted'!$D$2,EST!A277&lt;='ET - DST adjusted'!$E$2),EST!A277+1/24,EST!A277)</f>
         <v>41180.297916666663</v>
       </c>
-      <c r="B276" s="10">
+      <c r="B276" s="9">
         <f>IF(AND(EST!B277&gt;='ET - DST adjusted'!$D$2,EST!B277&lt;='ET - DST adjusted'!$E$2),EST!B277+1/24,EST!B277)</f>
         <v>41180.793749999997</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A277" s="10">
+      <c r="A277" s="9">
         <f>IF(AND(EST!A278&gt;='ET - DST adjusted'!$D$2,EST!A278&lt;='ET - DST adjusted'!$E$2),EST!A278+1/24,EST!A278)</f>
         <v>41181.297916666663</v>
       </c>
-      <c r="B277" s="10">
+      <c r="B277" s="9">
         <f>IF(AND(EST!B278&gt;='ET - DST adjusted'!$D$2,EST!B278&lt;='ET - DST adjusted'!$E$2),EST!B278+1/24,EST!B278)</f>
         <v>41181.792361111111</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A278" s="10">
+      <c r="A278" s="9">
         <f>IF(AND(EST!A279&gt;='ET - DST adjusted'!$D$2,EST!A279&lt;='ET - DST adjusted'!$E$2),EST!A279+1/24,EST!A279)</f>
         <v>41182.291666666664</v>
       </c>
-      <c r="B278" s="10">
+      <c r="B278" s="9">
         <f>IF(AND(EST!B279&gt;='ET - DST adjusted'!$D$2,EST!B279&lt;='ET - DST adjusted'!$E$2),EST!B279+1/24,EST!B279)</f>
         <v>41182.791666666664</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A279" s="10">
+      <c r="A279" s="9">
         <f>IF(AND(EST!A280&gt;='ET - DST adjusted'!$D$2,EST!A280&lt;='ET - DST adjusted'!$E$2),EST!A280+1/24,EST!A280)</f>
         <v>41183.292361111111</v>
       </c>
-      <c r="B279" s="10">
+      <c r="B279" s="9">
         <f>IF(AND(EST!B280&gt;='ET - DST adjusted'!$D$2,EST!B280&lt;='ET - DST adjusted'!$E$2),EST!B280+1/24,EST!B280)</f>
         <v>41183.756249999999</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A280" s="10">
+      <c r="A280" s="9">
         <f>IF(AND(EST!A281&gt;='ET - DST adjusted'!$D$2,EST!A281&lt;='ET - DST adjusted'!$E$2),EST!A281+1/24,EST!A281)</f>
         <v>41184.29305555555</v>
       </c>
-      <c r="B280" s="10">
+      <c r="B280" s="9">
         <f>IF(AND(EST!B281&gt;='ET - DST adjusted'!$D$2,EST!B281&lt;='ET - DST adjusted'!$E$2),EST!B281+1/24,EST!B281)</f>
         <v>41184.754861111105</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A281" s="10">
+      <c r="A281" s="9">
         <f>IF(AND(EST!A282&gt;='ET - DST adjusted'!$D$2,EST!A282&lt;='ET - DST adjusted'!$E$2),EST!A282+1/24,EST!A282)</f>
         <v>41185.293749999997</v>
       </c>
-      <c r="B281" s="10">
+      <c r="B281" s="9">
         <f>IF(AND(EST!B282&gt;='ET - DST adjusted'!$D$2,EST!B282&lt;='ET - DST adjusted'!$E$2),EST!B282+1/24,EST!B282)</f>
         <v>41185.754166666666</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A282" s="10">
+      <c r="A282" s="9">
         <f>IF(AND(EST!A283&gt;='ET - DST adjusted'!$D$2,EST!A283&lt;='ET - DST adjusted'!$E$2),EST!A283+1/24,EST!A283)</f>
         <v>41186.294444444444</v>
       </c>
-      <c r="B282" s="10">
+      <c r="B282" s="9">
         <f>IF(AND(EST!B283&gt;='ET - DST adjusted'!$D$2,EST!B283&lt;='ET - DST adjusted'!$E$2),EST!B283+1/24,EST!B283)</f>
         <v>41186.752777777772</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A283" s="10">
+      <c r="A283" s="9">
         <f>IF(AND(EST!A284&gt;='ET - DST adjusted'!$D$2,EST!A284&lt;='ET - DST adjusted'!$E$2),EST!A284+1/24,EST!A284)</f>
         <v>41187.294444444444</v>
       </c>
-      <c r="B283" s="10">
+      <c r="B283" s="9">
         <f>IF(AND(EST!B284&gt;='ET - DST adjusted'!$D$2,EST!B284&lt;='ET - DST adjusted'!$E$2),EST!B284+1/24,EST!B284)</f>
         <v>41187.752083333333</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A284" s="10">
+      <c r="A284" s="9">
         <f>IF(AND(EST!A285&gt;='ET - DST adjusted'!$D$2,EST!A285&lt;='ET - DST adjusted'!$E$2),EST!A285+1/24,EST!A285)</f>
         <v>41188.295138888883</v>
       </c>
-      <c r="B284" s="10">
+      <c r="B284" s="9">
         <f>IF(AND(EST!B285&gt;='ET - DST adjusted'!$D$2,EST!B285&lt;='ET - DST adjusted'!$E$2),EST!B285+1/24,EST!B285)</f>
         <v>41188.750694444439</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A285" s="10">
+      <c r="A285" s="9">
         <f>IF(AND(EST!A286&gt;='ET - DST adjusted'!$D$2,EST!A286&lt;='ET - DST adjusted'!$E$2),EST!A286+1/24,EST!A286)</f>
         <v>41189.29583333333</v>
       </c>
-      <c r="B285" s="10">
+      <c r="B285" s="9">
         <f>IF(AND(EST!B286&gt;='ET - DST adjusted'!$D$2,EST!B286&lt;='ET - DST adjusted'!$E$2),EST!B286+1/24,EST!B286)</f>
         <v>41189.75</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A286" s="10">
+      <c r="A286" s="9">
         <f>IF(AND(EST!A287&gt;='ET - DST adjusted'!$D$2,EST!A287&lt;='ET - DST adjusted'!$E$2),EST!A287+1/24,EST!A287)</f>
         <v>41190.296527777777</v>
       </c>
-      <c r="B286" s="10">
+      <c r="B286" s="9">
         <f>IF(AND(EST!B287&gt;='ET - DST adjusted'!$D$2,EST!B287&lt;='ET - DST adjusted'!$E$2),EST!B287+1/24,EST!B287)</f>
         <v>41190.756249999999</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A287" s="10">
+      <c r="A287" s="9">
         <f>IF(AND(EST!A288&gt;='ET - DST adjusted'!$D$2,EST!A288&lt;='ET - DST adjusted'!$E$2),EST!A288+1/24,EST!A288)</f>
         <v>41191.297222222223</v>
       </c>
-      <c r="B287" s="10">
+      <c r="B287" s="9">
         <f>IF(AND(EST!B288&gt;='ET - DST adjusted'!$D$2,EST!B288&lt;='ET - DST adjusted'!$E$2),EST!B288+1/24,EST!B288)</f>
         <v>41191.754861111105</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A288" s="10">
+      <c r="A288" s="9">
         <f>IF(AND(EST!A289&gt;='ET - DST adjusted'!$D$2,EST!A289&lt;='ET - DST adjusted'!$E$2),EST!A289+1/24,EST!A289)</f>
         <v>41192.297916666663</v>
       </c>
-      <c r="B288" s="10">
+      <c r="B288" s="9">
         <f>IF(AND(EST!B289&gt;='ET - DST adjusted'!$D$2,EST!B289&lt;='ET - DST adjusted'!$E$2),EST!B289+1/24,EST!B289)</f>
         <v>41192.754166666666</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A289" s="10">
+      <c r="A289" s="9">
         <f>IF(AND(EST!A290&gt;='ET - DST adjusted'!$D$2,EST!A290&lt;='ET - DST adjusted'!$E$2),EST!A290+1/24,EST!A290)</f>
         <v>41193.297916666663</v>
       </c>
-      <c r="B289" s="10">
+      <c r="B289" s="9">
         <f>IF(AND(EST!B290&gt;='ET - DST adjusted'!$D$2,EST!B290&lt;='ET - DST adjusted'!$E$2),EST!B290+1/24,EST!B290)</f>
         <v>41193.753472222219</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A290" s="10">
+      <c r="A290" s="9">
         <f>IF(AND(EST!A291&gt;='ET - DST adjusted'!$D$2,EST!A291&lt;='ET - DST adjusted'!$E$2),EST!A291+1/24,EST!A291)</f>
         <v>41194.291666666664</v>
       </c>
-      <c r="B290" s="10">
+      <c r="B290" s="9">
         <f>IF(AND(EST!B291&gt;='ET - DST adjusted'!$D$2,EST!B291&lt;='ET - DST adjusted'!$E$2),EST!B291+1/24,EST!B291)</f>
         <v>41194.752083333333</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A291" s="10">
+      <c r="A291" s="9">
         <f>IF(AND(EST!A292&gt;='ET - DST adjusted'!$D$2,EST!A292&lt;='ET - DST adjusted'!$E$2),EST!A292+1/24,EST!A292)</f>
         <v>41195.292361111111</v>
       </c>
-      <c r="B291" s="10">
+      <c r="B291" s="9">
         <f>IF(AND(EST!B292&gt;='ET - DST adjusted'!$D$2,EST!B292&lt;='ET - DST adjusted'!$E$2),EST!B292+1/24,EST!B292)</f>
         <v>41195.751388888886</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A292" s="10">
+      <c r="A292" s="9">
         <f>IF(AND(EST!A293&gt;='ET - DST adjusted'!$D$2,EST!A293&lt;='ET - DST adjusted'!$E$2),EST!A293+1/24,EST!A293)</f>
         <v>41196.29305555555</v>
       </c>
-      <c r="B292" s="10">
+      <c r="B292" s="9">
         <f>IF(AND(EST!B293&gt;='ET - DST adjusted'!$D$2,EST!B293&lt;='ET - DST adjusted'!$E$2),EST!B293+1/24,EST!B293)</f>
         <v>41196.750694444439</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A293" s="10">
+      <c r="A293" s="9">
         <f>IF(AND(EST!A294&gt;='ET - DST adjusted'!$D$2,EST!A294&lt;='ET - DST adjusted'!$E$2),EST!A294+1/24,EST!A294)</f>
         <v>41197.293749999997</v>
       </c>
-      <c r="B293" s="10">
+      <c r="B293" s="9">
         <f>IF(AND(EST!B294&gt;='ET - DST adjusted'!$D$2,EST!B294&lt;='ET - DST adjusted'!$E$2),EST!B294+1/24,EST!B294)</f>
         <v>41197.756249999999</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A294" s="10">
+      <c r="A294" s="9">
         <f>IF(AND(EST!A295&gt;='ET - DST adjusted'!$D$2,EST!A295&lt;='ET - DST adjusted'!$E$2),EST!A295+1/24,EST!A295)</f>
         <v>41198.294444444444</v>
       </c>
-      <c r="B294" s="10">
+      <c r="B294" s="9">
         <f>IF(AND(EST!B295&gt;='ET - DST adjusted'!$D$2,EST!B295&lt;='ET - DST adjusted'!$E$2),EST!B295+1/24,EST!B295)</f>
         <v>41198.755555555552</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A295" s="10">
+      <c r="A295" s="9">
         <f>IF(AND(EST!A296&gt;='ET - DST adjusted'!$D$2,EST!A296&lt;='ET - DST adjusted'!$E$2),EST!A296+1/24,EST!A296)</f>
         <v>41199.295138888883</v>
       </c>
-      <c r="B295" s="10">
+      <c r="B295" s="9">
         <f>IF(AND(EST!B296&gt;='ET - DST adjusted'!$D$2,EST!B296&lt;='ET - DST adjusted'!$E$2),EST!B296+1/24,EST!B296)</f>
         <v>41199.754861111105</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A296" s="10">
+      <c r="A296" s="9">
         <f>IF(AND(EST!A297&gt;='ET - DST adjusted'!$D$2,EST!A297&lt;='ET - DST adjusted'!$E$2),EST!A297+1/24,EST!A297)</f>
         <v>41200.29583333333</v>
       </c>
-      <c r="B296" s="10">
+      <c r="B296" s="9">
         <f>IF(AND(EST!B297&gt;='ET - DST adjusted'!$D$2,EST!B297&lt;='ET - DST adjusted'!$E$2),EST!B297+1/24,EST!B297)</f>
         <v>41200.753472222219</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A297" s="10">
+      <c r="A297" s="9">
         <f>IF(AND(EST!A298&gt;='ET - DST adjusted'!$D$2,EST!A298&lt;='ET - DST adjusted'!$E$2),EST!A298+1/24,EST!A298)</f>
         <v>41201.29583333333</v>
       </c>
-      <c r="B297" s="10">
+      <c r="B297" s="9">
         <f>IF(AND(EST!B298&gt;='ET - DST adjusted'!$D$2,EST!B298&lt;='ET - DST adjusted'!$E$2),EST!B298+1/24,EST!B298)</f>
         <v>41201.752777777772</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A298" s="10">
+      <c r="A298" s="9">
         <f>IF(AND(EST!A299&gt;='ET - DST adjusted'!$D$2,EST!A299&lt;='ET - DST adjusted'!$E$2),EST!A299+1/24,EST!A299)</f>
         <v>41202.296527777777</v>
       </c>
-      <c r="B298" s="10">
+      <c r="B298" s="9">
         <f>IF(AND(EST!B299&gt;='ET - DST adjusted'!$D$2,EST!B299&lt;='ET - DST adjusted'!$E$2),EST!B299+1/24,EST!B299)</f>
         <v>41202.752083333333</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A299" s="10">
+      <c r="A299" s="9">
         <f>IF(AND(EST!A300&gt;='ET - DST adjusted'!$D$2,EST!A300&lt;='ET - DST adjusted'!$E$2),EST!A300+1/24,EST!A300)</f>
         <v>41203.297222222223</v>
       </c>
-      <c r="B299" s="10">
+      <c r="B299" s="9">
         <f>IF(AND(EST!B300&gt;='ET - DST adjusted'!$D$2,EST!B300&lt;='ET - DST adjusted'!$E$2),EST!B300+1/24,EST!B300)</f>
         <v>41203.751388888886</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A300" s="10">
+      <c r="A300" s="9">
         <f>IF(AND(EST!A301&gt;='ET - DST adjusted'!$D$2,EST!A301&lt;='ET - DST adjusted'!$E$2),EST!A301+1/24,EST!A301)</f>
         <v>41204.297916666663</v>
       </c>
-      <c r="B300" s="10">
+      <c r="B300" s="9">
         <f>IF(AND(EST!B301&gt;='ET - DST adjusted'!$D$2,EST!B301&lt;='ET - DST adjusted'!$E$2),EST!B301+1/24,EST!B301)</f>
         <v>41204.75</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A301" s="10">
+      <c r="A301" s="9">
         <f>IF(AND(EST!A302&gt;='ET - DST adjusted'!$D$2,EST!A302&lt;='ET - DST adjusted'!$E$2),EST!A302+1/24,EST!A302)</f>
         <v>41205.291666666664</v>
       </c>
-      <c r="B301" s="10">
+      <c r="B301" s="9">
         <f>IF(AND(EST!B302&gt;='ET - DST adjusted'!$D$2,EST!B302&lt;='ET - DST adjusted'!$E$2),EST!B302+1/24,EST!B302)</f>
         <v>41205.756249999999</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A302" s="10">
+      <c r="A302" s="9">
         <f>IF(AND(EST!A303&gt;='ET - DST adjusted'!$D$2,EST!A303&lt;='ET - DST adjusted'!$E$2),EST!A303+1/24,EST!A303)</f>
         <v>41206.292361111111</v>
       </c>
-      <c r="B302" s="10">
+      <c r="B302" s="9">
         <f>IF(AND(EST!B303&gt;='ET - DST adjusted'!$D$2,EST!B303&lt;='ET - DST adjusted'!$E$2),EST!B303+1/24,EST!B303)</f>
         <v>41206.755555555552</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A303" s="10">
+      <c r="A303" s="9">
         <f>IF(AND(EST!A304&gt;='ET - DST adjusted'!$D$2,EST!A304&lt;='ET - DST adjusted'!$E$2),EST!A304+1/24,EST!A304)</f>
         <v>41207.29305555555</v>
       </c>
-      <c r="B303" s="10">
+      <c r="B303" s="9">
         <f>IF(AND(EST!B304&gt;='ET - DST adjusted'!$D$2,EST!B304&lt;='ET - DST adjusted'!$E$2),EST!B304+1/24,EST!B304)</f>
         <v>41207.754861111105</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A304" s="10">
+      <c r="A304" s="9">
         <f>IF(AND(EST!A305&gt;='ET - DST adjusted'!$D$2,EST!A305&lt;='ET - DST adjusted'!$E$2),EST!A305+1/24,EST!A305)</f>
         <v>41208.293749999997</v>
       </c>
-      <c r="B304" s="10">
+      <c r="B304" s="9">
         <f>IF(AND(EST!B305&gt;='ET - DST adjusted'!$D$2,EST!B305&lt;='ET - DST adjusted'!$E$2),EST!B305+1/24,EST!B305)</f>
         <v>41208.754166666666</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A305" s="10">
+      <c r="A305" s="9">
         <f>IF(AND(EST!A306&gt;='ET - DST adjusted'!$D$2,EST!A306&lt;='ET - DST adjusted'!$E$2),EST!A306+1/24,EST!A306)</f>
         <v>41209.294444444444</v>
       </c>
-      <c r="B305" s="10">
+      <c r="B305" s="9">
         <f>IF(AND(EST!B306&gt;='ET - DST adjusted'!$D$2,EST!B306&lt;='ET - DST adjusted'!$E$2),EST!B306+1/24,EST!B306)</f>
         <v>41209.753472222219</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A306" s="10">
+      <c r="A306" s="9">
         <f>IF(AND(EST!A307&gt;='ET - DST adjusted'!$D$2,EST!A307&lt;='ET - DST adjusted'!$E$2),EST!A307+1/24,EST!A307)</f>
         <v>41210.295138888883</v>
       </c>
-      <c r="B306" s="10">
+      <c r="B306" s="9">
         <f>IF(AND(EST!B307&gt;='ET - DST adjusted'!$D$2,EST!B307&lt;='ET - DST adjusted'!$E$2),EST!B307+1/24,EST!B307)</f>
         <v>41210.752777777772</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A307" s="10">
+      <c r="A307" s="9">
         <f>IF(AND(EST!A308&gt;='ET - DST adjusted'!$D$2,EST!A308&lt;='ET - DST adjusted'!$E$2),EST!A308+1/24,EST!A308)</f>
         <v>41211.29583333333</v>
       </c>
-      <c r="B307" s="10">
+      <c r="B307" s="9">
         <f>IF(AND(EST!B308&gt;='ET - DST adjusted'!$D$2,EST!B308&lt;='ET - DST adjusted'!$E$2),EST!B308+1/24,EST!B308)</f>
         <v>41211.751388888886</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A308" s="10">
+      <c r="A308" s="9">
         <f>IF(AND(EST!A309&gt;='ET - DST adjusted'!$D$2,EST!A309&lt;='ET - DST adjusted'!$E$2),EST!A309+1/24,EST!A309)</f>
         <v>41212.296527777777</v>
       </c>
-      <c r="B308" s="10">
+      <c r="B308" s="9">
         <f>IF(AND(EST!B309&gt;='ET - DST adjusted'!$D$2,EST!B309&lt;='ET - DST adjusted'!$E$2),EST!B309+1/24,EST!B309)</f>
         <v>41212.750694444439</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A309" s="10">
+      <c r="A309" s="9">
         <f>IF(AND(EST!A310&gt;='ET - DST adjusted'!$D$2,EST!A310&lt;='ET - DST adjusted'!$E$2),EST!A310+1/24,EST!A310)</f>
         <v>41213.297222222223</v>
       </c>
-      <c r="B309" s="10">
+      <c r="B309" s="9">
         <f>IF(AND(EST!B310&gt;='ET - DST adjusted'!$D$2,EST!B310&lt;='ET - DST adjusted'!$E$2),EST!B310+1/24,EST!B310)</f>
         <v>41213.75</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A310" s="10">
+      <c r="A310" s="9">
         <f>IF(AND(EST!A311&gt;='ET - DST adjusted'!$D$2,EST!A311&lt;='ET - DST adjusted'!$E$2),EST!A311+1/24,EST!A311)</f>
         <v>41214.297916666663</v>
       </c>
-      <c r="B310" s="10">
+      <c r="B310" s="9">
         <f>IF(AND(EST!B311&gt;='ET - DST adjusted'!$D$2,EST!B311&lt;='ET - DST adjusted'!$E$2),EST!B311+1/24,EST!B311)</f>
         <v>41214.756249999999</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A311" s="10">
+      <c r="A311" s="9">
         <f>IF(AND(EST!A312&gt;='ET - DST adjusted'!$D$2,EST!A312&lt;='ET - DST adjusted'!$E$2),EST!A312+1/24,EST!A312)</f>
         <v>41215.291666666664</v>
       </c>
-      <c r="B311" s="10">
+      <c r="B311" s="9">
         <f>IF(AND(EST!B312&gt;='ET - DST adjusted'!$D$2,EST!B312&lt;='ET - DST adjusted'!$E$2),EST!B312+1/24,EST!B312)</f>
         <v>41215.755555555552</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A312" s="10">
+      <c r="A312" s="9">
         <f>IF(AND(EST!A313&gt;='ET - DST adjusted'!$D$2,EST!A313&lt;='ET - DST adjusted'!$E$2),EST!A313+1/24,EST!A313)</f>
         <v>41216.292361111111</v>
       </c>
-      <c r="B312" s="10">
+      <c r="B312" s="9">
         <f>IF(AND(EST!B313&gt;='ET - DST adjusted'!$D$2,EST!B313&lt;='ET - DST adjusted'!$E$2),EST!B313+1/24,EST!B313)</f>
         <v>41216.754861111105</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A313" s="10">
+      <c r="A313" s="9">
         <f>IF(AND(EST!A314&gt;='ET - DST adjusted'!$D$2,EST!A314&lt;='ET - DST adjusted'!$E$2),EST!A314+1/24,EST!A314)</f>
         <v>41217.251388888886</v>
       </c>
-      <c r="B313" s="10">
+      <c r="B313" s="9">
         <f>IF(AND(EST!B314&gt;='ET - DST adjusted'!$D$2,EST!B314&lt;='ET - DST adjusted'!$E$2),EST!B314+1/24,EST!B314)</f>
         <v>41217.712500000001</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A314" s="10">
+      <c r="A314" s="9">
         <f>IF(AND(EST!A315&gt;='ET - DST adjusted'!$D$2,EST!A315&lt;='ET - DST adjusted'!$E$2),EST!A315+1/24,EST!A315)</f>
         <v>41218.252083333333</v>
       </c>
-      <c r="B314" s="10">
+      <c r="B314" s="9">
         <f>IF(AND(EST!B315&gt;='ET - DST adjusted'!$D$2,EST!B315&lt;='ET - DST adjusted'!$E$2),EST!B315+1/24,EST!B315)</f>
         <v>41218.711805555555</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A315" s="10">
+      <c r="A315" s="9">
         <f>IF(AND(EST!A316&gt;='ET - DST adjusted'!$D$2,EST!A316&lt;='ET - DST adjusted'!$E$2),EST!A316+1/24,EST!A316)</f>
         <v>41219.25277777778</v>
       </c>
-      <c r="B315" s="10">
+      <c r="B315" s="9">
         <f>IF(AND(EST!B316&gt;='ET - DST adjusted'!$D$2,EST!B316&lt;='ET - DST adjusted'!$E$2),EST!B316+1/24,EST!B316)</f>
         <v>41219.711805555555</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A316" s="10">
+      <c r="A316" s="9">
         <f>IF(AND(EST!A317&gt;='ET - DST adjusted'!$D$2,EST!A317&lt;='ET - DST adjusted'!$E$2),EST!A317+1/24,EST!A317)</f>
         <v>41220.253472222219</v>
       </c>
-      <c r="B316" s="10">
+      <c r="B316" s="9">
         <f>IF(AND(EST!B317&gt;='ET - DST adjusted'!$D$2,EST!B317&lt;='ET - DST adjusted'!$E$2),EST!B317+1/24,EST!B317)</f>
         <v>41220.711111111108</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A317" s="10">
+      <c r="A317" s="9">
         <f>IF(AND(EST!A318&gt;='ET - DST adjusted'!$D$2,EST!A318&lt;='ET - DST adjusted'!$E$2),EST!A318+1/24,EST!A318)</f>
         <v>41221.254166666666</v>
       </c>
-      <c r="B317" s="10">
+      <c r="B317" s="9">
         <f>IF(AND(EST!B318&gt;='ET - DST adjusted'!$D$2,EST!B318&lt;='ET - DST adjusted'!$E$2),EST!B318+1/24,EST!B318)</f>
         <v>41221.710416666669</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A318" s="10">
+      <c r="A318" s="9">
         <f>IF(AND(EST!A319&gt;='ET - DST adjusted'!$D$2,EST!A319&lt;='ET - DST adjusted'!$E$2),EST!A319+1/24,EST!A319)</f>
         <v>41222.254861111112</v>
       </c>
-      <c r="B318" s="10">
+      <c r="B318" s="9">
         <f>IF(AND(EST!B319&gt;='ET - DST adjusted'!$D$2,EST!B319&lt;='ET - DST adjusted'!$E$2),EST!B319+1/24,EST!B319)</f>
         <v>41222.709722222222</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A319" s="10">
+      <c r="A319" s="9">
         <f>IF(AND(EST!A320&gt;='ET - DST adjusted'!$D$2,EST!A320&lt;='ET - DST adjusted'!$E$2),EST!A320+1/24,EST!A320)</f>
         <v>41223.255555555559</v>
       </c>
-      <c r="B319" s="10">
+      <c r="B319" s="9">
         <f>IF(AND(EST!B320&gt;='ET - DST adjusted'!$D$2,EST!B320&lt;='ET - DST adjusted'!$E$2),EST!B320+1/24,EST!B320)</f>
         <v>41223.709027777775</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A320" s="10">
+      <c r="A320" s="9">
         <f>IF(AND(EST!A321&gt;='ET - DST adjusted'!$D$2,EST!A321&lt;='ET - DST adjusted'!$E$2),EST!A321+1/24,EST!A321)</f>
         <v>41224.256249999999</v>
       </c>
-      <c r="B320" s="10">
+      <c r="B320" s="9">
         <f>IF(AND(EST!B321&gt;='ET - DST adjusted'!$D$2,EST!B321&lt;='ET - DST adjusted'!$E$2),EST!B321+1/24,EST!B321)</f>
         <v>41224.709027777775</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A321" s="10">
+      <c r="A321" s="9">
         <f>IF(AND(EST!A322&gt;='ET - DST adjusted'!$D$2,EST!A322&lt;='ET - DST adjusted'!$E$2),EST!A322+1/24,EST!A322)</f>
         <v>41225.25</v>
       </c>
-      <c r="B321" s="10">
+      <c r="B321" s="9">
         <f>IF(AND(EST!B322&gt;='ET - DST adjusted'!$D$2,EST!B322&lt;='ET - DST adjusted'!$E$2),EST!B322+1/24,EST!B322)</f>
         <v>41225.708333333336</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A322" s="10">
+      <c r="A322" s="9">
         <f>IF(AND(EST!A323&gt;='ET - DST adjusted'!$D$2,EST!A323&lt;='ET - DST adjusted'!$E$2),EST!A323+1/24,EST!A323)</f>
         <v>41226.250694444447</v>
       </c>
-      <c r="B322" s="10">
+      <c r="B322" s="9">
         <f>IF(AND(EST!B323&gt;='ET - DST adjusted'!$D$2,EST!B323&lt;='ET - DST adjusted'!$E$2),EST!B323+1/24,EST!B323)</f>
         <v>41226.714583333334</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A323" s="10">
+      <c r="A323" s="9">
         <f>IF(AND(EST!A324&gt;='ET - DST adjusted'!$D$2,EST!A324&lt;='ET - DST adjusted'!$E$2),EST!A324+1/24,EST!A324)</f>
         <v>41227.251388888886</v>
       </c>
-      <c r="B323" s="10">
+      <c r="B323" s="9">
         <f>IF(AND(EST!B324&gt;='ET - DST adjusted'!$D$2,EST!B324&lt;='ET - DST adjusted'!$E$2),EST!B324+1/24,EST!B324)</f>
         <v>41227.713888888888</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A324" s="10">
+      <c r="A324" s="9">
         <f>IF(AND(EST!A325&gt;='ET - DST adjusted'!$D$2,EST!A325&lt;='ET - DST adjusted'!$E$2),EST!A325+1/24,EST!A325)</f>
         <v>41228.252083333333</v>
       </c>
-      <c r="B324" s="10">
+      <c r="B324" s="9">
         <f>IF(AND(EST!B325&gt;='ET - DST adjusted'!$D$2,EST!B325&lt;='ET - DST adjusted'!$E$2),EST!B325+1/24,EST!B325)</f>
         <v>41228.713888888888</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A325" s="10">
+      <c r="A325" s="9">
         <f>IF(AND(EST!A326&gt;='ET - DST adjusted'!$D$2,EST!A326&lt;='ET - DST adjusted'!$E$2),EST!A326+1/24,EST!A326)</f>
         <v>41229.25277777778</v>
       </c>
-      <c r="B325" s="10">
+      <c r="B325" s="9">
         <f>IF(AND(EST!B326&gt;='ET - DST adjusted'!$D$2,EST!B326&lt;='ET - DST adjusted'!$E$2),EST!B326+1/24,EST!B326)</f>
         <v>41229.713194444441</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A326" s="10">
+      <c r="A326" s="9">
         <f>IF(AND(EST!A327&gt;='ET - DST adjusted'!$D$2,EST!A327&lt;='ET - DST adjusted'!$E$2),EST!A327+1/24,EST!A327)</f>
         <v>41230.253472222219</v>
       </c>
-      <c r="B326" s="10">
+      <c r="B326" s="9">
         <f>IF(AND(EST!B327&gt;='ET - DST adjusted'!$D$2,EST!B327&lt;='ET - DST adjusted'!$E$2),EST!B327+1/24,EST!B327)</f>
         <v>41230.713194444441</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A327" s="10">
+      <c r="A327" s="9">
         <f>IF(AND(EST!A328&gt;='ET - DST adjusted'!$D$2,EST!A328&lt;='ET - DST adjusted'!$E$2),EST!A328+1/24,EST!A328)</f>
         <v>41231.254166666666</v>
       </c>
-      <c r="B327" s="10">
+      <c r="B327" s="9">
         <f>IF(AND(EST!B328&gt;='ET - DST adjusted'!$D$2,EST!B328&lt;='ET - DST adjusted'!$E$2),EST!B328+1/24,EST!B328)</f>
         <v>41231.712500000001</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A328" s="10">
+      <c r="A328" s="9">
         <f>IF(AND(EST!A329&gt;='ET - DST adjusted'!$D$2,EST!A329&lt;='ET - DST adjusted'!$E$2),EST!A329+1/24,EST!A329)</f>
         <v>41232.254861111112</v>
       </c>
-      <c r="B328" s="10">
+      <c r="B328" s="9">
         <f>IF(AND(EST!B329&gt;='ET - DST adjusted'!$D$2,EST!B329&lt;='ET - DST adjusted'!$E$2),EST!B329+1/24,EST!B329)</f>
         <v>41232.711805555555</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A329" s="10">
+      <c r="A329" s="9">
         <f>IF(AND(EST!A330&gt;='ET - DST adjusted'!$D$2,EST!A330&lt;='ET - DST adjusted'!$E$2),EST!A330+1/24,EST!A330)</f>
         <v>41233.255555555559</v>
       </c>
-      <c r="B329" s="10">
+      <c r="B329" s="9">
         <f>IF(AND(EST!B330&gt;='ET - DST adjusted'!$D$2,EST!B330&lt;='ET - DST adjusted'!$E$2),EST!B330+1/24,EST!B330)</f>
         <v>41233.711805555555</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A330" s="10">
+      <c r="A330" s="9">
         <f>IF(AND(EST!A331&gt;='ET - DST adjusted'!$D$2,EST!A331&lt;='ET - DST adjusted'!$E$2),EST!A331+1/24,EST!A331)</f>
         <v>41234.256249999999</v>
       </c>
-      <c r="B330" s="10">
+      <c r="B330" s="9">
         <f>IF(AND(EST!B331&gt;='ET - DST adjusted'!$D$2,EST!B331&lt;='ET - DST adjusted'!$E$2),EST!B331+1/24,EST!B331)</f>
         <v>41234.711111111108</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A331" s="10">
+      <c r="A331" s="9">
         <f>IF(AND(EST!A332&gt;='ET - DST adjusted'!$D$2,EST!A332&lt;='ET - DST adjusted'!$E$2),EST!A332+1/24,EST!A332)</f>
         <v>41235.291666666664</v>
       </c>
-      <c r="B331" s="10">
+      <c r="B331" s="9">
         <f>IF(AND(EST!B332&gt;='ET - DST adjusted'!$D$2,EST!B332&lt;='ET - DST adjusted'!$E$2),EST!B332+1/24,EST!B332)</f>
         <v>41235.711111111108</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A332" s="10">
+      <c r="A332" s="9">
         <f>IF(AND(EST!A333&gt;='ET - DST adjusted'!$D$2,EST!A333&lt;='ET - DST adjusted'!$E$2),EST!A333+1/24,EST!A333)</f>
         <v>41236.292361111111</v>
       </c>
-      <c r="B332" s="10">
+      <c r="B332" s="9">
         <f>IF(AND(EST!B333&gt;='ET - DST adjusted'!$D$2,EST!B333&lt;='ET - DST adjusted'!$E$2),EST!B333+1/24,EST!B333)</f>
         <v>41236.711111111108</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A333" s="10">
+      <c r="A333" s="9">
         <f>IF(AND(EST!A334&gt;='ET - DST adjusted'!$D$2,EST!A334&lt;='ET - DST adjusted'!$E$2),EST!A334+1/24,EST!A334)</f>
         <v>41237.293055555558</v>
       </c>
-      <c r="B333" s="10">
+      <c r="B333" s="9">
         <f>IF(AND(EST!B334&gt;='ET - DST adjusted'!$D$2,EST!B334&lt;='ET - DST adjusted'!$E$2),EST!B334+1/24,EST!B334)</f>
         <v>41237.710416666669</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A334" s="10">
+      <c r="A334" s="9">
         <f>IF(AND(EST!A335&gt;='ET - DST adjusted'!$D$2,EST!A335&lt;='ET - DST adjusted'!$E$2),EST!A335+1/24,EST!A335)</f>
         <v>41238.293749999997</v>
       </c>
-      <c r="B334" s="10">
+      <c r="B334" s="9">
         <f>IF(AND(EST!B335&gt;='ET - DST adjusted'!$D$2,EST!B335&lt;='ET - DST adjusted'!$E$2),EST!B335+1/24,EST!B335)</f>
         <v>41238.710416666669</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A335" s="10">
+      <c r="A335" s="9">
         <f>IF(AND(EST!A336&gt;='ET - DST adjusted'!$D$2,EST!A336&lt;='ET - DST adjusted'!$E$2),EST!A336+1/24,EST!A336)</f>
         <v>41239.293749999997</v>
       </c>
-      <c r="B335" s="10">
+      <c r="B335" s="9">
         <f>IF(AND(EST!B336&gt;='ET - DST adjusted'!$D$2,EST!B336&lt;='ET - DST adjusted'!$E$2),EST!B336+1/24,EST!B336)</f>
         <v>41239.710416666669</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A336" s="10">
+      <c r="A336" s="9">
         <f>IF(AND(EST!A337&gt;='ET - DST adjusted'!$D$2,EST!A337&lt;='ET - DST adjusted'!$E$2),EST!A337+1/24,EST!A337)</f>
         <v>41240.294444444444</v>
       </c>
-      <c r="B336" s="10">
+      <c r="B336" s="9">
         <f>IF(AND(EST!B337&gt;='ET - DST adjusted'!$D$2,EST!B337&lt;='ET - DST adjusted'!$E$2),EST!B337+1/24,EST!B337)</f>
         <v>41240.709722222222</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A337" s="10">
+      <c r="A337" s="9">
         <f>IF(AND(EST!A338&gt;='ET - DST adjusted'!$D$2,EST!A338&lt;='ET - DST adjusted'!$E$2),EST!A338+1/24,EST!A338)</f>
         <v>41241.295138888891</v>
       </c>
-      <c r="B337" s="10">
+      <c r="B337" s="9">
         <f>IF(AND(EST!B338&gt;='ET - DST adjusted'!$D$2,EST!B338&lt;='ET - DST adjusted'!$E$2),EST!B338+1/24,EST!B338)</f>
         <v>41241.709722222222</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A338" s="10">
+      <c r="A338" s="9">
         <f>IF(AND(EST!A339&gt;='ET - DST adjusted'!$D$2,EST!A339&lt;='ET - DST adjusted'!$E$2),EST!A339+1/24,EST!A339)</f>
         <v>41242.29583333333</v>
       </c>
-      <c r="B338" s="10">
+      <c r="B338" s="9">
         <f>IF(AND(EST!B339&gt;='ET - DST adjusted'!$D$2,EST!B339&lt;='ET - DST adjusted'!$E$2),EST!B339+1/24,EST!B339)</f>
         <v>41242.709722222222</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A339" s="10">
+      <c r="A339" s="9">
         <f>IF(AND(EST!A340&gt;='ET - DST adjusted'!$D$2,EST!A340&lt;='ET - DST adjusted'!$E$2),EST!A340+1/24,EST!A340)</f>
         <v>41243.296527777777</v>
       </c>
-      <c r="B339" s="10">
+      <c r="B339" s="9">
         <f>IF(AND(EST!B340&gt;='ET - DST adjusted'!$D$2,EST!B340&lt;='ET - DST adjusted'!$E$2),EST!B340+1/24,EST!B340)</f>
         <v>41243.709722222222</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A340" s="10">
+      <c r="A340" s="9">
         <f>IF(AND(EST!A341&gt;='ET - DST adjusted'!$D$2,EST!A341&lt;='ET - DST adjusted'!$E$2),EST!A341+1/24,EST!A341)</f>
         <v>41244.297222222223</v>
       </c>
-      <c r="B340" s="10">
+      <c r="B340" s="9">
         <f>IF(AND(EST!B341&gt;='ET - DST adjusted'!$D$2,EST!B341&lt;='ET - DST adjusted'!$E$2),EST!B341+1/24,EST!B341)</f>
         <v>41244.709027777775</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A341" s="10">
+      <c r="A341" s="9">
         <f>IF(AND(EST!A342&gt;='ET - DST adjusted'!$D$2,EST!A342&lt;='ET - DST adjusted'!$E$2),EST!A342+1/24,EST!A342)</f>
         <v>41245.29791666667</v>
       </c>
-      <c r="B341" s="10">
+      <c r="B341" s="9">
         <f>IF(AND(EST!B342&gt;='ET - DST adjusted'!$D$2,EST!B342&lt;='ET - DST adjusted'!$E$2),EST!B342+1/24,EST!B342)</f>
         <v>41245.709027777775</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A342" s="10">
+      <c r="A342" s="9">
         <f>IF(AND(EST!A343&gt;='ET - DST adjusted'!$D$2,EST!A343&lt;='ET - DST adjusted'!$E$2),EST!A343+1/24,EST!A343)</f>
         <v>41246.291666666664</v>
       </c>
-      <c r="B342" s="10">
+      <c r="B342" s="9">
         <f>IF(AND(EST!B343&gt;='ET - DST adjusted'!$D$2,EST!B343&lt;='ET - DST adjusted'!$E$2),EST!B343+1/24,EST!B343)</f>
         <v>41246.709027777775</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A343" s="10">
+      <c r="A343" s="9">
         <f>IF(AND(EST!A344&gt;='ET - DST adjusted'!$D$2,EST!A344&lt;='ET - DST adjusted'!$E$2),EST!A344+1/24,EST!A344)</f>
         <v>41247.292361111111</v>
       </c>
-      <c r="B343" s="10">
+      <c r="B343" s="9">
         <f>IF(AND(EST!B344&gt;='ET - DST adjusted'!$D$2,EST!B344&lt;='ET - DST adjusted'!$E$2),EST!B344+1/24,EST!B344)</f>
         <v>41247.709027777775</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A344" s="10">
+      <c r="A344" s="9">
         <f>IF(AND(EST!A345&gt;='ET - DST adjusted'!$D$2,EST!A345&lt;='ET - DST adjusted'!$E$2),EST!A345+1/24,EST!A345)</f>
         <v>41248.293055555558</v>
       </c>
-      <c r="B344" s="10">
+      <c r="B344" s="9">
         <f>IF(AND(EST!B345&gt;='ET - DST adjusted'!$D$2,EST!B345&lt;='ET - DST adjusted'!$E$2),EST!B345+1/24,EST!B345)</f>
         <v>41248.709027777775</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A345" s="10">
+      <c r="A345" s="9">
         <f>IF(AND(EST!A346&gt;='ET - DST adjusted'!$D$2,EST!A346&lt;='ET - DST adjusted'!$E$2),EST!A346+1/24,EST!A346)</f>
         <v>41249.293055555558</v>
       </c>
-      <c r="B345" s="10">
+      <c r="B345" s="9">
         <f>IF(AND(EST!B346&gt;='ET - DST adjusted'!$D$2,EST!B346&lt;='ET - DST adjusted'!$E$2),EST!B346+1/24,EST!B346)</f>
         <v>41249.709027777775</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A346" s="10">
+      <c r="A346" s="9">
         <f>IF(AND(EST!A347&gt;='ET - DST adjusted'!$D$2,EST!A347&lt;='ET - DST adjusted'!$E$2),EST!A347+1/24,EST!A347)</f>
         <v>41250.293749999997</v>
       </c>
-      <c r="B346" s="10">
+      <c r="B346" s="9">
         <f>IF(AND(EST!B347&gt;='ET - DST adjusted'!$D$2,EST!B347&lt;='ET - DST adjusted'!$E$2),EST!B347+1/24,EST!B347)</f>
         <v>41250.709027777775</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A347" s="10">
+      <c r="A347" s="9">
         <f>IF(AND(EST!A348&gt;='ET - DST adjusted'!$D$2,EST!A348&lt;='ET - DST adjusted'!$E$2),EST!A348+1/24,EST!A348)</f>
         <v>41251.294444444444</v>
       </c>
-      <c r="B347" s="10">
+      <c r="B347" s="9">
         <f>IF(AND(EST!B348&gt;='ET - DST adjusted'!$D$2,EST!B348&lt;='ET - DST adjusted'!$E$2),EST!B348+1/24,EST!B348)</f>
         <v>41251.709027777775</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A348" s="10">
+      <c r="A348" s="9">
         <f>IF(AND(EST!A349&gt;='ET - DST adjusted'!$D$2,EST!A349&lt;='ET - DST adjusted'!$E$2),EST!A349+1/24,EST!A349)</f>
         <v>41252.295138888891</v>
       </c>
-      <c r="B348" s="10">
+      <c r="B348" s="9">
         <f>IF(AND(EST!B349&gt;='ET - DST adjusted'!$D$2,EST!B349&lt;='ET - DST adjusted'!$E$2),EST!B349+1/24,EST!B349)</f>
         <v>41252.709722222222</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A349" s="10">
+      <c r="A349" s="9">
         <f>IF(AND(EST!A350&gt;='ET - DST adjusted'!$D$2,EST!A350&lt;='ET - DST adjusted'!$E$2),EST!A350+1/24,EST!A350)</f>
         <v>41253.29583333333</v>
       </c>
-      <c r="B349" s="10">
+      <c r="B349" s="9">
         <f>IF(AND(EST!B350&gt;='ET - DST adjusted'!$D$2,EST!B350&lt;='ET - DST adjusted'!$E$2),EST!B350+1/24,EST!B350)</f>
         <v>41253.709722222222</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A350" s="10">
+      <c r="A350" s="9">
         <f>IF(AND(EST!A351&gt;='ET - DST adjusted'!$D$2,EST!A351&lt;='ET - DST adjusted'!$E$2),EST!A351+1/24,EST!A351)</f>
         <v>41254.29583333333</v>
       </c>
-      <c r="B350" s="10">
+      <c r="B350" s="9">
         <f>IF(AND(EST!B351&gt;='ET - DST adjusted'!$D$2,EST!B351&lt;='ET - DST adjusted'!$E$2),EST!B351+1/24,EST!B351)</f>
         <v>41254.709722222222</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A351" s="10">
+      <c r="A351" s="9">
         <f>IF(AND(EST!A352&gt;='ET - DST adjusted'!$D$2,EST!A352&lt;='ET - DST adjusted'!$E$2),EST!A352+1/24,EST!A352)</f>
         <v>41255.296527777777</v>
       </c>
-      <c r="B351" s="10">
+      <c r="B351" s="9">
         <f>IF(AND(EST!B352&gt;='ET - DST adjusted'!$D$2,EST!B352&lt;='ET - DST adjusted'!$E$2),EST!B352+1/24,EST!B352)</f>
         <v>41255.709722222222</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A352" s="10">
+      <c r="A352" s="9">
         <f>IF(AND(EST!A353&gt;='ET - DST adjusted'!$D$2,EST!A353&lt;='ET - DST adjusted'!$E$2),EST!A353+1/24,EST!A353)</f>
         <v>41256.297222222223</v>
       </c>
-      <c r="B352" s="10">
+      <c r="B352" s="9">
         <f>IF(AND(EST!B353&gt;='ET - DST adjusted'!$D$2,EST!B353&lt;='ET - DST adjusted'!$E$2),EST!B353+1/24,EST!B353)</f>
         <v>41256.709722222222</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A353" s="10">
+      <c r="A353" s="9">
         <f>IF(AND(EST!A354&gt;='ET - DST adjusted'!$D$2,EST!A354&lt;='ET - DST adjusted'!$E$2),EST!A354+1/24,EST!A354)</f>
         <v>41257.29791666667</v>
       </c>
-      <c r="B353" s="10">
+      <c r="B353" s="9">
         <f>IF(AND(EST!B354&gt;='ET - DST adjusted'!$D$2,EST!B354&lt;='ET - DST adjusted'!$E$2),EST!B354+1/24,EST!B354)</f>
         <v>41257.710416666669</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A354" s="10">
+      <c r="A354" s="9">
         <f>IF(AND(EST!A355&gt;='ET - DST adjusted'!$D$2,EST!A355&lt;='ET - DST adjusted'!$E$2),EST!A355+1/24,EST!A355)</f>
         <v>41258.29791666667</v>
       </c>
-      <c r="B354" s="10">
+      <c r="B354" s="9">
         <f>IF(AND(EST!B355&gt;='ET - DST adjusted'!$D$2,EST!B355&lt;='ET - DST adjusted'!$E$2),EST!B355+1/24,EST!B355)</f>
         <v>41258.710416666669</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A355" s="10">
+      <c r="A355" s="9">
         <f>IF(AND(EST!A356&gt;='ET - DST adjusted'!$D$2,EST!A356&lt;='ET - DST adjusted'!$E$2),EST!A356+1/24,EST!A356)</f>
         <v>41259.291666666664</v>
       </c>
-      <c r="B355" s="10">
+      <c r="B355" s="9">
         <f>IF(AND(EST!B356&gt;='ET - DST adjusted'!$D$2,EST!B356&lt;='ET - DST adjusted'!$E$2),EST!B356+1/24,EST!B356)</f>
         <v>41259.710416666669</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A356" s="10">
+      <c r="A356" s="9">
         <f>IF(AND(EST!A357&gt;='ET - DST adjusted'!$D$2,EST!A357&lt;='ET - DST adjusted'!$E$2),EST!A357+1/24,EST!A357)</f>
         <v>41260.291666666664</v>
       </c>
-      <c r="B356" s="10">
+      <c r="B356" s="9">
         <f>IF(AND(EST!B357&gt;='ET - DST adjusted'!$D$2,EST!B357&lt;='ET - DST adjusted'!$E$2),EST!B357+1/24,EST!B357)</f>
         <v>41260.711111111108</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A357" s="10">
+      <c r="A357" s="9">
         <f>IF(AND(EST!A358&gt;='ET - DST adjusted'!$D$2,EST!A358&lt;='ET - DST adjusted'!$E$2),EST!A358+1/24,EST!A358)</f>
         <v>41261.292361111111</v>
       </c>
-      <c r="B357" s="10">
+      <c r="B357" s="9">
         <f>IF(AND(EST!B358&gt;='ET - DST adjusted'!$D$2,EST!B358&lt;='ET - DST adjusted'!$E$2),EST!B358+1/24,EST!B358)</f>
         <v>41261.711111111108</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A358" s="10">
+      <c r="A358" s="9">
         <f>IF(AND(EST!A359&gt;='ET - DST adjusted'!$D$2,EST!A359&lt;='ET - DST adjusted'!$E$2),EST!A359+1/24,EST!A359)</f>
         <v>41262.293055555558</v>
       </c>
-      <c r="B358" s="10">
+      <c r="B358" s="9">
         <f>IF(AND(EST!B359&gt;='ET - DST adjusted'!$D$2,EST!B359&lt;='ET - DST adjusted'!$E$2),EST!B359+1/24,EST!B359)</f>
         <v>41262.711111111108</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A359" s="10">
+      <c r="A359" s="9">
         <f>IF(AND(EST!A360&gt;='ET - DST adjusted'!$D$2,EST!A360&lt;='ET - DST adjusted'!$E$2),EST!A360+1/24,EST!A360)</f>
         <v>41263.293055555558</v>
       </c>
-      <c r="B359" s="10">
+      <c r="B359" s="9">
         <f>IF(AND(EST!B360&gt;='ET - DST adjusted'!$D$2,EST!B360&lt;='ET - DST adjusted'!$E$2),EST!B360+1/24,EST!B360)</f>
         <v>41263.711805555555</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A360" s="10">
+      <c r="A360" s="9">
         <f>IF(AND(EST!A361&gt;='ET - DST adjusted'!$D$2,EST!A361&lt;='ET - DST adjusted'!$E$2),EST!A361+1/24,EST!A361)</f>
         <v>41264.293749999997</v>
       </c>
-      <c r="B360" s="10">
+      <c r="B360" s="9">
         <f>IF(AND(EST!B361&gt;='ET - DST adjusted'!$D$2,EST!B361&lt;='ET - DST adjusted'!$E$2),EST!B361+1/24,EST!B361)</f>
         <v>41264.711805555555</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A361" s="10">
+      <c r="A361" s="9">
         <f>IF(AND(EST!A362&gt;='ET - DST adjusted'!$D$2,EST!A362&lt;='ET - DST adjusted'!$E$2),EST!A362+1/24,EST!A362)</f>
         <v>41265.293749999997</v>
       </c>
-      <c r="B361" s="10">
+      <c r="B361" s="9">
         <f>IF(AND(EST!B362&gt;='ET - DST adjusted'!$D$2,EST!B362&lt;='ET - DST adjusted'!$E$2),EST!B362+1/24,EST!B362)</f>
         <v>41265.712500000001</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A362" s="10">
+      <c r="A362" s="9">
         <f>IF(AND(EST!A363&gt;='ET - DST adjusted'!$D$2,EST!A363&lt;='ET - DST adjusted'!$E$2),EST!A363+1/24,EST!A363)</f>
         <v>41266.294444444444</v>
       </c>
-      <c r="B362" s="10">
+      <c r="B362" s="9">
         <f>IF(AND(EST!B363&gt;='ET - DST adjusted'!$D$2,EST!B363&lt;='ET - DST adjusted'!$E$2),EST!B363+1/24,EST!B363)</f>
         <v>41266.713194444441</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A363" s="10">
+      <c r="A363" s="9">
         <f>IF(AND(EST!A364&gt;='ET - DST adjusted'!$D$2,EST!A364&lt;='ET - DST adjusted'!$E$2),EST!A364+1/24,EST!A364)</f>
         <v>41267.294444444444</v>
       </c>
-      <c r="B363" s="10">
+      <c r="B363" s="9">
         <f>IF(AND(EST!B364&gt;='ET - DST adjusted'!$D$2,EST!B364&lt;='ET - DST adjusted'!$E$2),EST!B364+1/24,EST!B364)</f>
         <v>41267.713194444441</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A364" s="10">
+      <c r="A364" s="9">
         <f>IF(AND(EST!A365&gt;='ET - DST adjusted'!$D$2,EST!A365&lt;='ET - DST adjusted'!$E$2),EST!A365+1/24,EST!A365)</f>
         <v>41268.294444444444</v>
       </c>
-      <c r="B364" s="10">
+      <c r="B364" s="9">
         <f>IF(AND(EST!B365&gt;='ET - DST adjusted'!$D$2,EST!B365&lt;='ET - DST adjusted'!$E$2),EST!B365+1/24,EST!B365)</f>
         <v>41268.713888888888</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A365" s="10">
+      <c r="A365" s="9">
         <f>IF(AND(EST!A366&gt;='ET - DST adjusted'!$D$2,EST!A366&lt;='ET - DST adjusted'!$E$2),EST!A366+1/24,EST!A366)</f>
         <v>41269.295138888891</v>
       </c>
-      <c r="B365" s="10">
+      <c r="B365" s="9">
         <f>IF(AND(EST!B366&gt;='ET - DST adjusted'!$D$2,EST!B366&lt;='ET - DST adjusted'!$E$2),EST!B366+1/24,EST!B366)</f>
         <v>41269.713888888888</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A366" s="10">
+      <c r="A366" s="9">
         <f>IF(AND(EST!A367&gt;='ET - DST adjusted'!$D$2,EST!A367&lt;='ET - DST adjusted'!$E$2),EST!A367+1/24,EST!A367)</f>
         <v>41270.295138888891</v>
       </c>
-      <c r="B366" s="10">
+      <c r="B366" s="9">
         <f>IF(AND(EST!B367&gt;='ET - DST adjusted'!$D$2,EST!B367&lt;='ET - DST adjusted'!$E$2),EST!B367+1/24,EST!B367)</f>
         <v>41270.714583333334</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A367" s="10">
+      <c r="A367" s="9">
         <f>IF(AND(EST!A368&gt;='ET - DST adjusted'!$D$2,EST!A368&lt;='ET - DST adjusted'!$E$2),EST!A368+1/24,EST!A368)</f>
         <v>41271.295138888891</v>
       </c>
-      <c r="B367" s="10">
+      <c r="B367" s="9">
         <f>IF(AND(EST!B368&gt;='ET - DST adjusted'!$D$2,EST!B368&lt;='ET - DST adjusted'!$E$2),EST!B368+1/24,EST!B368)</f>
         <v>41271.708333333336</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A368" s="10">
+      <c r="A368" s="9">
         <f>IF(AND(EST!A369&gt;='ET - DST adjusted'!$D$2,EST!A369&lt;='ET - DST adjusted'!$E$2),EST!A369+1/24,EST!A369)</f>
         <v>41272.29583333333</v>
       </c>
-      <c r="B368" s="10">
+      <c r="B368" s="9">
         <f>IF(AND(EST!B369&gt;='ET - DST adjusted'!$D$2,EST!B369&lt;='ET - DST adjusted'!$E$2),EST!B369+1/24,EST!B369)</f>
         <v>41272.708333333336</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A369" s="10">
+      <c r="A369" s="9">
         <f>IF(AND(EST!A370&gt;='ET - DST adjusted'!$D$2,EST!A370&lt;='ET - DST adjusted'!$E$2),EST!A370+1/24,EST!A370)</f>
         <v>41273.29583333333</v>
       </c>
-      <c r="B369" s="10">
+      <c r="B369" s="9">
         <f>IF(AND(EST!B370&gt;='ET - DST adjusted'!$D$2,EST!B370&lt;='ET - DST adjusted'!$E$2),EST!B370+1/24,EST!B370)</f>
         <v>41273.709027777775</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A370" s="10">
+      <c r="A370" s="9">
         <f>IF(AND(EST!A371&gt;='ET - DST adjusted'!$D$2,EST!A371&lt;='ET - DST adjusted'!$E$2),EST!A371+1/24,EST!A371)</f>
         <v>41274.29583333333</v>
       </c>
-      <c r="B370" s="10">
+      <c r="B370" s="9">
         <f>IF(AND(EST!B371&gt;='ET - DST adjusted'!$D$2,EST!B371&lt;='ET - DST adjusted'!$E$2),EST!B371+1/24,EST!B371)</f>
         <v>41274.709722222222</v>
       </c>
